--- a/01_Docs/02_WorkPlan/60th_TGNC_workplan.xlsx
+++ b/01_Docs/02_WorkPlan/60th_TGNC_workplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpngym.sharepoint.com/sites/TRA885/Shared Documents/03_全日本選手権/2022/01_Docs/02_WorkPlan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpngym.sharepoint.com/sites/TRA885/Shared Documents/03_全日本選手権/2023/01_Docs/02_WorkPlan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="14_{BE0BB6BB-CB54-4369-A767-6CEFF57D7D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BA4F15-A9AE-CC40-807D-C0BF8C82DF95}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="14_{BE0BB6BB-CB54-4369-A767-6CEFF57D7D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8031C2E4-3115-2D41-899B-49F9C3DF52BB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45820" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="620" windowWidth="34160" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用しない Revise" sheetId="6" r:id="rId1"/>
@@ -54,9 +54,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="128">
   <si>
-    <t>第59回全日本トランポリン競技選手権大会</t>
-  </si>
-  <si>
     <t>競技日程</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">キョウギ </t>
@@ -71,20 +68,11 @@
     <phoneticPr fontId="22"/>
   </si>
   <si>
-    <t>14日</t>
-  </si>
-  <si>
-    <t>15日</t>
-  </si>
-  <si>
     <t>10月</t>
     <rPh sb="2" eb="3">
       <t xml:space="preserve">ガツ </t>
     </rPh>
     <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <t>16日</t>
   </si>
   <si>
     <t>金曜日</t>
@@ -791,6 +779,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>第60回全日本トランポリン競技選手権大会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15日</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2322,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2616,364 +2620,496 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="90" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="3" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="3" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="90" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2988,149 +3124,47 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3141,30 +3175,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3173,45 +3204,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3318,13 +3310,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>8697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1116201</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3340,8 +3332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1764632" y="6004434"/>
-          <a:ext cx="1116201" cy="2531303"/>
+          <a:off x="1762125" y="5271260"/>
+          <a:ext cx="1116201" cy="2277303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3386,7 +3378,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>13:40〜16:50</a:t>
+            <a:t>13:00〜16:00</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3399,7 +3391,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>受付開始</a:t>
+            <a:t>受付</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" i="0">
             <a:solidFill>
@@ -3416,15 +3408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2835</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>3341</xdr:rowOff>
+      <xdr:colOff>2834</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>3342</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3439,8 +3431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="649380" y="7173068"/>
-          <a:ext cx="1117076" cy="2667001"/>
+          <a:off x="645772" y="5643562"/>
+          <a:ext cx="1116353" cy="2667001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,7 +3477,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>15:30〜19:00</a:t>
+            <a:t>13:00〜16:30</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4744,7 +4736,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4757,7 +4749,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" i="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4766,7 +4758,7 @@
             </a:rPr>
             <a:t>シンクロナイズド競技 決勝</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" i="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -5340,16 +5332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>496454</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1119908</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:colOff>1115579</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5364,8 +5356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646545" y="9836727"/>
-          <a:ext cx="2239818" cy="380999"/>
+          <a:off x="642938" y="9453564"/>
+          <a:ext cx="2234766" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5410,7 +5402,7 @@
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>19:00〜</a:t>
+            <a:t>18:00〜</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" i="0">
@@ -5778,54 +5770,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1089DA9-4ECE-8545-8A75-C90A28B7FB74}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="117" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="117" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5" defaultRowHeight="29"/>
   <cols>
-    <col min="1" max="1" width="25" style="117" customWidth="1"/>
-    <col min="2" max="2" width="111" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="23.5" style="115"/>
+    <col min="1" max="1" width="25" style="113" customWidth="1"/>
+    <col min="2" max="2" width="111" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="23.5" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="114"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="112"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="118"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="116"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="117" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="117" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="117" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="115" t="s">
-        <v>122</v>
+      <c r="G32" s="111" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5845,10 +5837,10 @@
   </sheetPr>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="156" zoomScaleSheetLayoutView="190" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="156" zoomScaleSheetLayoutView="190" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="R21" sqref="R21"/>
-      <selection pane="topRight" activeCell="K71" sqref="K71"/>
+      <selection pane="topRight" activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -5866,83 +5858,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="23">
-      <c r="B1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
+      <c r="B1" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="23">
-      <c r="B2" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="B2" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:10" ht="20" thickBot="1"/>
     <row r="4" spans="1:10">
       <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" s="25" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="B5" s="26"/>
-      <c r="C5" s="131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="132"/>
+      <c r="C5" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="121"/>
+      <c r="E5" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="A6" s="27"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="125"/>
+      <c r="C6" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="123"/>
+      <c r="E6" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="124"/>
     </row>
     <row r="7" spans="1:10" ht="5" customHeight="1">
-      <c r="B7" s="126">
+      <c r="B7" s="125">
         <v>0.33333333333333331</v>
       </c>
       <c r="C7" s="30"/>
@@ -5953,7 +5945,7 @@
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="5" customHeight="1">
-      <c r="B8" s="120"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="34"/>
       <c r="D8" s="35"/>
       <c r="E8" s="34"/>
@@ -5962,7 +5954,7 @@
       <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="5" customHeight="1">
-      <c r="B9" s="120"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="34"/>
@@ -5971,7 +5963,7 @@
       <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="5" customHeight="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
       <c r="E10" s="34"/>
@@ -6052,7 +6044,7 @@
       <c r="H18" s="43"/>
     </row>
     <row r="19" spans="2:8" ht="5" customHeight="1">
-      <c r="B19" s="127">
+      <c r="B19" s="126">
         <v>0.375</v>
       </c>
       <c r="C19" s="45"/>
@@ -6063,7 +6055,7 @@
       <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" ht="5" customHeight="1">
-      <c r="B20" s="128"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="34"/>
       <c r="D20" s="35"/>
       <c r="E20" s="34"/>
@@ -6072,7 +6064,7 @@
       <c r="H20" s="36"/>
     </row>
     <row r="21" spans="2:8" ht="5" customHeight="1">
-      <c r="B21" s="128"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="34"/>
       <c r="D21" s="35"/>
       <c r="E21" s="34"/>
@@ -6081,7 +6073,7 @@
       <c r="H21" s="36"/>
     </row>
     <row r="22" spans="2:8" ht="5" customHeight="1">
-      <c r="B22" s="128"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="34"/>
       <c r="D22" s="35"/>
       <c r="E22" s="34"/>
@@ -6162,7 +6154,7 @@
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="2:8" ht="5" customHeight="1">
-      <c r="B31" s="119">
+      <c r="B31" s="116">
         <v>0.41666666666666669</v>
       </c>
       <c r="C31" s="45"/>
@@ -6173,7 +6165,7 @@
       <c r="H31" s="47"/>
     </row>
     <row r="32" spans="2:8" ht="5" customHeight="1">
-      <c r="B32" s="120"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
       <c r="E32" s="34"/>
@@ -6182,7 +6174,7 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="2:16" ht="5" customHeight="1">
-      <c r="B33" s="120"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
       <c r="E33" s="34"/>
@@ -6191,7 +6183,7 @@
       <c r="H33" s="36"/>
     </row>
     <row r="34" spans="2:16" ht="5" customHeight="1">
-      <c r="B34" s="120"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
       <c r="E34" s="34"/>
@@ -6272,7 +6264,7 @@
       <c r="H42" s="52"/>
     </row>
     <row r="43" spans="2:16" ht="5" customHeight="1">
-      <c r="B43" s="119">
+      <c r="B43" s="116">
         <v>0.45833333333333331</v>
       </c>
       <c r="C43" s="45"/>
@@ -6283,7 +6275,7 @@
       <c r="H43" s="47"/>
     </row>
     <row r="44" spans="2:16" ht="5" customHeight="1">
-      <c r="B44" s="120"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35"/>
       <c r="E44" s="34"/>
@@ -6292,7 +6284,7 @@
       <c r="H44" s="36"/>
     </row>
     <row r="45" spans="2:16" ht="5" customHeight="1">
-      <c r="B45" s="120"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="34"/>
       <c r="D45" s="35"/>
       <c r="E45" s="34"/>
@@ -6305,11 +6297,11 @@
       <c r="L45" s="89"/>
       <c r="M45" s="89"/>
       <c r="N45" s="89"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
     </row>
     <row r="46" spans="2:16" ht="5" customHeight="1">
-      <c r="B46" s="120"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="34"/>
       <c r="D46" s="35"/>
       <c r="E46" s="34"/>
@@ -6322,8 +6314,8 @@
       <c r="L46" s="89"/>
       <c r="M46" s="89"/>
       <c r="N46" s="89"/>
-      <c r="O46" s="133"/>
-      <c r="P46" s="133"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
     </row>
     <row r="47" spans="2:16" ht="5" customHeight="1">
       <c r="B47" s="38"/>
@@ -6378,8 +6370,8 @@
       <c r="F52" s="40"/>
       <c r="G52" s="37"/>
       <c r="H52" s="40"/>
-      <c r="O52" s="133"/>
-      <c r="P52" s="133"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
     </row>
     <row r="53" spans="2:16" ht="5" customHeight="1">
       <c r="B53" s="38"/>
@@ -6400,7 +6392,7 @@
       <c r="H54" s="52"/>
     </row>
     <row r="55" spans="2:16" ht="5" customHeight="1">
-      <c r="B55" s="119">
+      <c r="B55" s="116">
         <v>0.5</v>
       </c>
       <c r="C55" s="45"/>
@@ -6411,7 +6403,7 @@
       <c r="H55" s="47"/>
     </row>
     <row r="56" spans="2:16" ht="5" customHeight="1">
-      <c r="B56" s="120"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="34"/>
       <c r="D56" s="35"/>
       <c r="E56" s="34"/>
@@ -6420,7 +6412,7 @@
       <c r="H56" s="36"/>
     </row>
     <row r="57" spans="2:16" ht="5" customHeight="1">
-      <c r="B57" s="120"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="34"/>
       <c r="D57" s="35"/>
       <c r="E57" s="34"/>
@@ -6429,7 +6421,7 @@
       <c r="H57" s="36"/>
     </row>
     <row r="58" spans="2:16" ht="5" customHeight="1">
-      <c r="B58" s="120"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="34"/>
       <c r="D58" s="35"/>
       <c r="E58" s="34"/>
@@ -6490,8 +6482,8 @@
       <c r="F64" s="40"/>
       <c r="G64" s="37"/>
       <c r="H64" s="40"/>
-      <c r="O64" s="133"/>
-      <c r="P64" s="133"/>
+      <c r="O64" s="115"/>
+      <c r="P64" s="115"/>
     </row>
     <row r="65" spans="2:12" ht="5" customHeight="1">
       <c r="B65" s="38"/>
@@ -6512,7 +6504,7 @@
       <c r="H66" s="52"/>
     </row>
     <row r="67" spans="2:12" ht="5" customHeight="1">
-      <c r="B67" s="119">
+      <c r="B67" s="116">
         <v>0.54166666666666663</v>
       </c>
       <c r="C67" s="45"/>
@@ -6523,7 +6515,7 @@
       <c r="H67" s="47"/>
     </row>
     <row r="68" spans="2:12" ht="5" customHeight="1">
-      <c r="B68" s="120"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
       <c r="E68" s="34"/>
@@ -6532,7 +6524,7 @@
       <c r="H68" s="36"/>
     </row>
     <row r="69" spans="2:12" ht="5" customHeight="1">
-      <c r="B69" s="120"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
       <c r="E69" s="34"/>
@@ -6541,7 +6533,7 @@
       <c r="H69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="5" customHeight="1">
-      <c r="B70" s="120"/>
+      <c r="B70" s="117"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
       <c r="E70" s="34"/>
@@ -6622,7 +6614,7 @@
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="2:12" ht="5" customHeight="1">
-      <c r="B79" s="119">
+      <c r="B79" s="116">
         <v>0.58333333333333337</v>
       </c>
       <c r="C79" s="45"/>
@@ -6633,7 +6625,7 @@
       <c r="H79" s="47"/>
     </row>
     <row r="80" spans="2:12" ht="5" customHeight="1">
-      <c r="B80" s="120"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="34"/>
       <c r="D80" s="35"/>
       <c r="E80" s="34"/>
@@ -6641,11 +6633,11 @@
       <c r="G80" s="37"/>
       <c r="H80" s="36"/>
       <c r="L80" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="5" customHeight="1">
-      <c r="B81" s="120"/>
+      <c r="B81" s="117"/>
       <c r="C81" s="34"/>
       <c r="D81" s="35"/>
       <c r="E81" s="34"/>
@@ -6654,7 +6646,7 @@
       <c r="H81" s="36"/>
     </row>
     <row r="82" spans="2:8" ht="5" customHeight="1">
-      <c r="B82" s="120"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="34"/>
       <c r="D82" s="35"/>
       <c r="E82" s="34"/>
@@ -6735,7 +6727,7 @@
       <c r="H90" s="52"/>
     </row>
     <row r="91" spans="2:8" ht="5" customHeight="1">
-      <c r="B91" s="119">
+      <c r="B91" s="116">
         <v>0.625</v>
       </c>
       <c r="C91" s="45"/>
@@ -6746,7 +6738,7 @@
       <c r="H91" s="47"/>
     </row>
     <row r="92" spans="2:8" ht="5" customHeight="1">
-      <c r="B92" s="120"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="34"/>
       <c r="D92" s="35"/>
       <c r="E92" s="34"/>
@@ -6755,7 +6747,7 @@
       <c r="H92" s="36"/>
     </row>
     <row r="93" spans="2:8" ht="5" customHeight="1">
-      <c r="B93" s="120"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="34"/>
       <c r="D93" s="35"/>
       <c r="E93" s="34"/>
@@ -6764,7 +6756,7 @@
       <c r="H93" s="36"/>
     </row>
     <row r="94" spans="2:8" ht="5" customHeight="1">
-      <c r="B94" s="120"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="34"/>
       <c r="D94" s="35"/>
       <c r="E94" s="34"/>
@@ -6845,7 +6837,7 @@
       <c r="H102" s="52"/>
     </row>
     <row r="103" spans="2:8" ht="5" customHeight="1">
-      <c r="B103" s="119">
+      <c r="B103" s="116">
         <v>0.66666666666666663</v>
       </c>
       <c r="C103" s="45"/>
@@ -6856,7 +6848,7 @@
       <c r="H103" s="47"/>
     </row>
     <row r="104" spans="2:8" ht="5" customHeight="1">
-      <c r="B104" s="120"/>
+      <c r="B104" s="117"/>
       <c r="C104" s="34"/>
       <c r="D104" s="35"/>
       <c r="E104" s="34"/>
@@ -6865,7 +6857,7 @@
       <c r="H104" s="36"/>
     </row>
     <row r="105" spans="2:8" ht="5" customHeight="1">
-      <c r="B105" s="120"/>
+      <c r="B105" s="117"/>
       <c r="C105" s="34"/>
       <c r="D105" s="35"/>
       <c r="E105" s="34"/>
@@ -6874,7 +6866,7 @@
       <c r="H105" s="36"/>
     </row>
     <row r="106" spans="2:8" ht="5" customHeight="1">
-      <c r="B106" s="120"/>
+      <c r="B106" s="117"/>
       <c r="C106" s="34"/>
       <c r="D106" s="35"/>
       <c r="E106" s="34"/>
@@ -6955,7 +6947,7 @@
       <c r="H114" s="52"/>
     </row>
     <row r="115" spans="2:8" ht="5" customHeight="1">
-      <c r="B115" s="119">
+      <c r="B115" s="116">
         <v>0.70833333333333337</v>
       </c>
       <c r="C115" s="45"/>
@@ -6966,7 +6958,7 @@
       <c r="H115" s="47"/>
     </row>
     <row r="116" spans="2:8" ht="5" customHeight="1">
-      <c r="B116" s="120"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="34"/>
       <c r="D116" s="35"/>
       <c r="E116" s="34"/>
@@ -6975,7 +6967,7 @@
       <c r="H116" s="36"/>
     </row>
     <row r="117" spans="2:8" ht="5" customHeight="1">
-      <c r="B117" s="120"/>
+      <c r="B117" s="117"/>
       <c r="C117" s="34"/>
       <c r="D117" s="35"/>
       <c r="E117" s="34"/>
@@ -6984,7 +6976,7 @@
       <c r="H117" s="36"/>
     </row>
     <row r="118" spans="2:8" ht="5" customHeight="1">
-      <c r="B118" s="120"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="34"/>
       <c r="D118" s="35"/>
       <c r="E118" s="34"/>
@@ -7065,7 +7057,7 @@
       <c r="H126" s="52"/>
     </row>
     <row r="127" spans="2:8" ht="5" customHeight="1">
-      <c r="B127" s="119">
+      <c r="B127" s="116">
         <v>0.75</v>
       </c>
       <c r="C127" s="45"/>
@@ -7076,7 +7068,7 @@
       <c r="H127" s="47"/>
     </row>
     <row r="128" spans="2:8" ht="5" customHeight="1">
-      <c r="B128" s="120"/>
+      <c r="B128" s="117"/>
       <c r="C128" s="34"/>
       <c r="D128" s="35"/>
       <c r="E128" s="34"/>
@@ -7085,7 +7077,7 @@
       <c r="H128" s="36"/>
     </row>
     <row r="129" spans="2:8" ht="5" customHeight="1">
-      <c r="B129" s="120"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="34"/>
       <c r="D129" s="35"/>
       <c r="E129" s="34"/>
@@ -7094,7 +7086,7 @@
       <c r="H129" s="36"/>
     </row>
     <row r="130" spans="2:8" ht="5" customHeight="1">
-      <c r="B130" s="120"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="34"/>
       <c r="D130" s="35"/>
       <c r="E130" s="34"/>
@@ -7175,7 +7167,7 @@
       <c r="H138" s="52"/>
     </row>
     <row r="139" spans="2:8" ht="5" customHeight="1">
-      <c r="B139" s="119">
+      <c r="B139" s="116">
         <v>0.79166666666666663</v>
       </c>
       <c r="C139" s="45"/>
@@ -7186,7 +7178,7 @@
       <c r="H139" s="47"/>
     </row>
     <row r="140" spans="2:8" ht="5" customHeight="1">
-      <c r="B140" s="120"/>
+      <c r="B140" s="117"/>
       <c r="C140" s="34"/>
       <c r="D140" s="35"/>
       <c r="E140" s="34"/>
@@ -7195,7 +7187,7 @@
       <c r="H140" s="36"/>
     </row>
     <row r="141" spans="2:8" ht="5" customHeight="1">
-      <c r="B141" s="120"/>
+      <c r="B141" s="117"/>
       <c r="C141" s="34"/>
       <c r="D141" s="35"/>
       <c r="E141" s="34"/>
@@ -7204,7 +7196,7 @@
       <c r="H141" s="36"/>
     </row>
     <row r="142" spans="2:8" ht="5" customHeight="1">
-      <c r="B142" s="120"/>
+      <c r="B142" s="117"/>
       <c r="C142" s="34"/>
       <c r="D142" s="35"/>
       <c r="E142" s="34"/>
@@ -7285,7 +7277,7 @@
       <c r="H150" s="52"/>
     </row>
     <row r="151" spans="2:8" ht="5" customHeight="1">
-      <c r="B151" s="119">
+      <c r="B151" s="116">
         <v>0.83333333333333337</v>
       </c>
       <c r="C151" s="45"/>
@@ -7296,7 +7288,7 @@
       <c r="H151" s="47"/>
     </row>
     <row r="152" spans="2:8" ht="5" customHeight="1">
-      <c r="B152" s="120"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="34"/>
       <c r="D152" s="35"/>
       <c r="E152" s="34"/>
@@ -7305,7 +7297,7 @@
       <c r="H152" s="36"/>
     </row>
     <row r="153" spans="2:8" ht="5" customHeight="1">
-      <c r="B153" s="120"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="34"/>
       <c r="D153" s="35"/>
       <c r="E153" s="34"/>
@@ -7314,7 +7306,7 @@
       <c r="H153" s="36"/>
     </row>
     <row r="154" spans="2:8" ht="5" customHeight="1">
-      <c r="B154" s="120"/>
+      <c r="B154" s="117"/>
       <c r="C154" s="34"/>
       <c r="D154" s="35"/>
       <c r="E154" s="34"/>
@@ -7395,7 +7387,7 @@
       <c r="H162" s="52"/>
     </row>
     <row r="163" spans="2:8" ht="5" customHeight="1">
-      <c r="B163" s="121">
+      <c r="B163" s="128">
         <v>0.875</v>
       </c>
       <c r="C163" s="54"/>
@@ -7406,7 +7398,7 @@
       <c r="H163" s="56"/>
     </row>
     <row r="164" spans="2:8" ht="5" customHeight="1">
-      <c r="B164" s="122"/>
+      <c r="B164" s="129"/>
       <c r="C164" s="58"/>
       <c r="D164" s="59"/>
       <c r="E164" s="58"/>
@@ -7415,7 +7407,7 @@
       <c r="H164" s="60"/>
     </row>
     <row r="165" spans="2:8" ht="5" customHeight="1">
-      <c r="B165" s="122"/>
+      <c r="B165" s="129"/>
       <c r="C165" s="58"/>
       <c r="D165" s="59"/>
       <c r="E165" s="58"/>
@@ -7424,7 +7416,7 @@
       <c r="H165" s="60"/>
     </row>
     <row r="166" spans="2:8" ht="5" customHeight="1">
-      <c r="B166" s="122"/>
+      <c r="B166" s="129"/>
       <c r="C166" s="58"/>
       <c r="D166" s="59"/>
       <c r="E166" s="58"/>
@@ -7506,21 +7498,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B55:B58"/>
@@ -7532,6 +7509,21 @@
     <mergeCell ref="B115:B118"/>
     <mergeCell ref="B127:B130"/>
     <mergeCell ref="B139:B142"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="B67:B70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8023,53 +8015,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="23">
-      <c r="A1" s="193" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="193"/>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
+      <c r="A1" s="177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="A2" s="102"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K3" s="99"/>
       <c r="L3" s="99"/>
@@ -8077,7 +8069,7 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="99" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -8085,93 +8077,93 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="99" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K5" s="99"/>
       <c r="L5" s="99"/>
       <c r="M5" s="99"/>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="104"/>
+      <c r="A6" s="103"/>
     </row>
     <row r="7" spans="1:40" ht="20">
-      <c r="A7" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
+      <c r="A7" s="180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
     </row>
     <row r="8" spans="1:40" ht="9" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A9" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="161"/>
-      <c r="AF9" s="161"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="162"/>
-    </row>
-    <row r="10" spans="1:40" s="105" customFormat="1" ht="10" customHeight="1" thickTop="1">
+      <c r="A9" s="168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="169"/>
+      <c r="U9" s="169"/>
+      <c r="V9" s="169"/>
+      <c r="W9" s="169"/>
+      <c r="X9" s="169"/>
+      <c r="Y9" s="169"/>
+      <c r="Z9" s="169"/>
+      <c r="AA9" s="169"/>
+      <c r="AB9" s="169"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="170"/>
+    </row>
+    <row r="10" spans="1:40" s="104" customFormat="1" ht="10" customHeight="1" thickTop="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -8180,845 +8172,847 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="151"/>
+      <c r="C11" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="152"/>
+      <c r="J11" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="200" t="s">
+      <c r="P11" s="153"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="200" t="s">
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202" t="s">
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="199"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="199" t="s">
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="144"/>
+      <c r="AG11" s="144"/>
+      <c r="AH11" s="144"/>
+      <c r="AI11" s="181"/>
+      <c r="AJ11" s="181"/>
+      <c r="AK11" s="181"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="195" t="s">
+      <c r="B12" s="183"/>
+      <c r="C12" s="142">
+        <v>1</v>
+      </c>
+      <c r="D12" s="145"/>
+      <c r="E12" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="196"/>
-      <c r="T11" s="196"/>
-      <c r="U11" s="196"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="194"/>
-      <c r="AG11" s="194"/>
-      <c r="AH11" s="194"/>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="190"/>
-      <c r="AK11" s="190"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="191" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="143">
-        <v>1</v>
-      </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="144">
+      <c r="F12" s="145">
         <v>11</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="143">
+      <c r="G12" s="143"/>
+      <c r="H12" s="142">
         <v>11</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="143">
+      <c r="I12" s="143"/>
+      <c r="J12" s="142">
         <v>11</v>
       </c>
-      <c r="K12" s="144"/>
+      <c r="K12" s="145"/>
       <c r="L12" s="94">
         <v>11</v>
       </c>
-      <c r="M12" s="144">
+      <c r="M12" s="145">
         <v>11</v>
       </c>
-      <c r="N12" s="151"/>
-      <c r="O12" s="143">
+      <c r="N12" s="143"/>
+      <c r="O12" s="142">
         <v>11</v>
       </c>
-      <c r="P12" s="151"/>
-      <c r="R12" s="141">
+      <c r="P12" s="143"/>
+      <c r="R12" s="146">
         <v>0.34375</v>
       </c>
-      <c r="S12" s="142"/>
+      <c r="S12" s="147"/>
       <c r="T12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="188">
+        <v>23</v>
+      </c>
+      <c r="U12" s="134">
         <f>R12+AM12</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="V12" s="189"/>
-      <c r="X12" s="141">
+      <c r="V12" s="135"/>
+      <c r="X12" s="146">
         <v>0.375</v>
       </c>
-      <c r="Y12" s="142"/>
+      <c r="Y12" s="147"/>
       <c r="Z12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA12" s="134">
         <f>X12+AM12</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="AB12" s="189"/>
+      <c r="AB12" s="135"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="141">
+      <c r="AD12" s="146">
         <f>AA12+AL12</f>
         <v>0.40625</v>
       </c>
-      <c r="AE12" s="142"/>
+      <c r="AE12" s="147"/>
       <c r="AF12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG12" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="134">
         <f>AD12+AN12</f>
         <v>0.4375</v>
       </c>
-      <c r="AH12" s="189"/>
+      <c r="AH12" s="135"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="107">
+      <c r="AL12" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM12" s="107">
+      <c r="AM12" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN12" s="107">
+      <c r="AN12" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="191" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="143">
+      <c r="A13" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="183"/>
+      <c r="C13" s="142">
         <v>1</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="144">
+        <v>22</v>
+      </c>
+      <c r="F13" s="145">
         <v>11</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="143">
+      <c r="G13" s="143"/>
+      <c r="H13" s="142">
         <f>C13+F13-1</f>
         <v>11</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="143">
+      <c r="I13" s="143"/>
+      <c r="J13" s="142">
         <v>1</v>
       </c>
-      <c r="K13" s="144"/>
+      <c r="K13" s="145"/>
       <c r="L13" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="144">
+        <v>22</v>
+      </c>
+      <c r="M13" s="145">
         <v>11</v>
       </c>
-      <c r="N13" s="151"/>
-      <c r="O13" s="143">
+      <c r="N13" s="143"/>
+      <c r="O13" s="142">
         <f>J13+M13-1</f>
         <v>11</v>
       </c>
-      <c r="P13" s="151"/>
-      <c r="R13" s="141">
+      <c r="P13" s="143"/>
+      <c r="R13" s="146">
         <f>U12+AL13</f>
         <v>0.375</v>
       </c>
-      <c r="S13" s="142"/>
+      <c r="S13" s="147"/>
       <c r="T13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="188">
+        <v>23</v>
+      </c>
+      <c r="U13" s="134">
         <f>R13+AM13</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="V13" s="189"/>
-      <c r="X13" s="141">
+      <c r="V13" s="135"/>
+      <c r="X13" s="146">
         <f>AA12+AL13</f>
         <v>0.40625</v>
       </c>
-      <c r="Y13" s="142"/>
+      <c r="Y13" s="147"/>
       <c r="Z13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA13" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="134">
         <f>X13+AM13</f>
         <v>0.43402777777777779</v>
       </c>
-      <c r="AB13" s="189"/>
+      <c r="AB13" s="135"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="141">
+      <c r="AD13" s="146">
         <f>AA13+AL13</f>
         <v>0.4375</v>
       </c>
-      <c r="AE13" s="142"/>
+      <c r="AE13" s="147"/>
       <c r="AF13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG13" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG13" s="134">
         <f t="shared" ref="AG13:AG14" si="0">AD13+AN13</f>
         <v>0.46875</v>
       </c>
-      <c r="AH13" s="189"/>
+      <c r="AH13" s="135"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
-      <c r="AL13" s="107">
+      <c r="AL13" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM13" s="107">
+      <c r="AM13" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN13" s="107">
+      <c r="AN13" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" thickBot="1">
-      <c r="A14" s="191" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="187">
+      <c r="A14" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="183"/>
+      <c r="C14" s="184">
         <v>1</v>
       </c>
-      <c r="D14" s="181"/>
+      <c r="D14" s="186"/>
       <c r="E14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="181">
+        <v>22</v>
+      </c>
+      <c r="F14" s="186">
         <v>11</v>
       </c>
-      <c r="G14" s="182"/>
-      <c r="H14" s="187">
+      <c r="G14" s="185"/>
+      <c r="H14" s="184">
         <f>C14+F14-1</f>
         <v>11</v>
       </c>
-      <c r="I14" s="182"/>
-      <c r="J14" s="187">
+      <c r="I14" s="185"/>
+      <c r="J14" s="184">
         <v>1</v>
       </c>
-      <c r="K14" s="181"/>
+      <c r="K14" s="186"/>
       <c r="L14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="181">
+        <v>22</v>
+      </c>
+      <c r="M14" s="186">
         <v>11</v>
       </c>
-      <c r="N14" s="182"/>
-      <c r="O14" s="187">
+      <c r="N14" s="185"/>
+      <c r="O14" s="184">
         <f>J14+M14-1</f>
         <v>11</v>
       </c>
-      <c r="P14" s="182"/>
-      <c r="R14" s="141">
+      <c r="P14" s="185"/>
+      <c r="R14" s="146">
         <f>U13+AL14</f>
         <v>0.40625</v>
       </c>
-      <c r="S14" s="142"/>
+      <c r="S14" s="147"/>
       <c r="T14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="188">
+        <v>23</v>
+      </c>
+      <c r="U14" s="134">
         <f>R14+AM14</f>
         <v>0.43402777777777779</v>
       </c>
-      <c r="V14" s="189"/>
-      <c r="X14" s="141">
+      <c r="V14" s="135"/>
+      <c r="X14" s="146">
         <f>U14+AL14</f>
         <v>0.4375</v>
       </c>
-      <c r="Y14" s="142"/>
+      <c r="Y14" s="147"/>
       <c r="Z14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA14" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA14" s="134">
         <f t="shared" ref="AA14" si="1">X14+AM14</f>
         <v>0.46527777777777779</v>
       </c>
-      <c r="AB14" s="189"/>
+      <c r="AB14" s="135"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="141">
+      <c r="AD14" s="146">
         <f>AA14+AL14</f>
         <v>0.46875</v>
       </c>
-      <c r="AE14" s="142"/>
+      <c r="AE14" s="147"/>
       <c r="AF14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG14" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG14" s="134">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="AH14" s="189"/>
+      <c r="AH14" s="135"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="107">
+      <c r="AL14" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM14" s="107">
+      <c r="AM14" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN14" s="107">
+      <c r="AN14" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="169" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="179"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="153"/>
+      <c r="A15" s="189" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="159"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="157"/>
       <c r="T15" s="97"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="153">
+      <c r="U15" s="157"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="157">
         <v>0.5</v>
       </c>
-      <c r="Y15" s="153"/>
+      <c r="Y15" s="157"/>
       <c r="Z15" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" s="153">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="157">
         <v>0.53125</v>
       </c>
-      <c r="AB15" s="153"/>
+      <c r="AB15" s="157"/>
       <c r="AC15" s="97"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="157"/>
       <c r="AF15" s="97"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="154"/>
+      <c r="AG15" s="157"/>
+      <c r="AH15" s="214"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="107">
+      <c r="AL15" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM15" s="107">
+      <c r="AM15" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN15" s="107">
+      <c r="AN15" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="185" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="177">
+      <c r="A16" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="194"/>
+      <c r="C16" s="187">
         <v>1</v>
       </c>
-      <c r="D16" s="180"/>
+      <c r="D16" s="190"/>
       <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="180">
+        <v>22</v>
+      </c>
+      <c r="F16" s="190">
         <v>11</v>
       </c>
-      <c r="G16" s="178"/>
-      <c r="H16" s="177">
+      <c r="G16" s="188"/>
+      <c r="H16" s="187">
         <f>C16+F16-1</f>
         <v>11</v>
       </c>
-      <c r="I16" s="178"/>
-      <c r="J16" s="177">
+      <c r="I16" s="188"/>
+      <c r="J16" s="187">
         <v>1</v>
       </c>
-      <c r="K16" s="180"/>
+      <c r="K16" s="190"/>
       <c r="L16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="180">
+        <v>22</v>
+      </c>
+      <c r="M16" s="190">
         <v>11</v>
       </c>
-      <c r="N16" s="178"/>
-      <c r="O16" s="177">
+      <c r="N16" s="188"/>
+      <c r="O16" s="187">
         <f>J16+M16-1</f>
         <v>11</v>
       </c>
-      <c r="P16" s="178"/>
-      <c r="R16" s="134">
+      <c r="P16" s="188"/>
+      <c r="R16" s="211">
         <v>0.46875</v>
       </c>
-      <c r="S16" s="135"/>
+      <c r="S16" s="212"/>
       <c r="T16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="136">
+        <v>23</v>
+      </c>
+      <c r="U16" s="208">
         <f>R16+AM16</f>
         <v>0.49652777777777779</v>
       </c>
-      <c r="V16" s="137"/>
-      <c r="X16" s="134">
+      <c r="V16" s="209"/>
+      <c r="X16" s="211">
         <v>0.5</v>
       </c>
-      <c r="Y16" s="135"/>
+      <c r="Y16" s="212"/>
       <c r="Z16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA16" s="136">
+        <v>23</v>
+      </c>
+      <c r="AA16" s="208">
         <f>X16+AM16</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="AB16" s="137"/>
+      <c r="AB16" s="209"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="134">
+      <c r="AD16" s="211">
         <v>0.53125</v>
       </c>
-      <c r="AE16" s="135"/>
+      <c r="AE16" s="212"/>
       <c r="AF16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG16" s="136">
+        <v>23</v>
+      </c>
+      <c r="AG16" s="208">
         <f>AD16+AN16</f>
         <v>0.5625</v>
       </c>
-      <c r="AH16" s="137"/>
+      <c r="AH16" s="209"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="107">
+      <c r="AL16" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM16" s="107">
+      <c r="AM16" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN16" s="107">
+      <c r="AN16" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="183" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="143">
+      <c r="A17" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="192"/>
+      <c r="C17" s="142">
         <v>1</v>
       </c>
-      <c r="D17" s="144"/>
+      <c r="D17" s="145"/>
       <c r="E17" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="144">
+        <v>22</v>
+      </c>
+      <c r="F17" s="145">
         <v>11</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="143">
+      <c r="G17" s="143"/>
+      <c r="H17" s="142">
         <f>C17+F17-1</f>
         <v>11</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="143">
+      <c r="I17" s="143"/>
+      <c r="J17" s="142">
         <v>1</v>
       </c>
-      <c r="K17" s="144"/>
+      <c r="K17" s="145"/>
       <c r="L17" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="144">
+        <v>22</v>
+      </c>
+      <c r="M17" s="145">
         <v>11</v>
       </c>
-      <c r="N17" s="151"/>
-      <c r="O17" s="143">
+      <c r="N17" s="143"/>
+      <c r="O17" s="142">
         <f>J17+M17-1</f>
         <v>11</v>
       </c>
-      <c r="P17" s="151"/>
-      <c r="R17" s="155">
+      <c r="P17" s="143"/>
+      <c r="R17" s="164">
         <f>U16+AL17</f>
         <v>0.5</v>
       </c>
-      <c r="S17" s="156"/>
+      <c r="S17" s="175"/>
       <c r="T17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="157">
+        <v>23</v>
+      </c>
+      <c r="U17" s="166">
         <f>R17+AM17</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="V17" s="158"/>
-      <c r="X17" s="155">
+      <c r="V17" s="176"/>
+      <c r="X17" s="164">
         <f>AA16+AL17</f>
         <v>0.53125</v>
       </c>
-      <c r="Y17" s="156"/>
+      <c r="Y17" s="175"/>
       <c r="Z17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA17" s="157">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="166">
         <f t="shared" ref="AA17:AA18" si="2">X17+AM17</f>
         <v>0.55902777777777779</v>
       </c>
-      <c r="AB17" s="158"/>
+      <c r="AB17" s="176"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="155">
+      <c r="AD17" s="164">
         <f t="shared" ref="AD17:AD18" si="3">AG16</f>
         <v>0.5625</v>
       </c>
-      <c r="AE17" s="156"/>
+      <c r="AE17" s="175"/>
       <c r="AF17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG17" s="157">
+        <v>23</v>
+      </c>
+      <c r="AG17" s="166">
         <f>AD17+AN17</f>
         <v>0.59375</v>
       </c>
-      <c r="AH17" s="158"/>
+      <c r="AH17" s="176"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
-      <c r="AL17" s="107">
+      <c r="AL17" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM17" s="107">
+      <c r="AM17" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN17" s="107">
+      <c r="AN17" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="183" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="143">
+      <c r="A18" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="192"/>
+      <c r="C18" s="142">
         <v>1</v>
       </c>
-      <c r="D18" s="144"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="144">
+        <v>22</v>
+      </c>
+      <c r="F18" s="145">
         <v>10</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="143">
+      <c r="G18" s="143"/>
+      <c r="H18" s="142">
         <v>10</v>
       </c>
-      <c r="I18" s="151"/>
-      <c r="J18" s="143">
+      <c r="I18" s="143"/>
+      <c r="J18" s="142">
         <v>10</v>
       </c>
-      <c r="K18" s="144"/>
+      <c r="K18" s="145"/>
       <c r="L18" s="94">
         <v>10</v>
       </c>
-      <c r="M18" s="144">
+      <c r="M18" s="145">
         <v>10</v>
       </c>
-      <c r="N18" s="151"/>
-      <c r="O18" s="143">
+      <c r="N18" s="143"/>
+      <c r="O18" s="142">
         <v>10</v>
       </c>
-      <c r="P18" s="151"/>
-      <c r="R18" s="155">
+      <c r="P18" s="143"/>
+      <c r="R18" s="164">
         <f>U17+AL18</f>
         <v>0.53125</v>
       </c>
-      <c r="S18" s="156"/>
+      <c r="S18" s="175"/>
       <c r="T18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="157">
+        <v>23</v>
+      </c>
+      <c r="U18" s="166">
         <f>R18+AM18</f>
         <v>0.55902777777777779</v>
       </c>
-      <c r="V18" s="158"/>
-      <c r="X18" s="155">
+      <c r="V18" s="176"/>
+      <c r="X18" s="164">
         <f>AA17+AL18</f>
         <v>0.5625</v>
       </c>
-      <c r="Y18" s="156"/>
+      <c r="Y18" s="175"/>
       <c r="Z18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA18" s="157">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="166">
         <f t="shared" si="2"/>
         <v>0.59027777777777779</v>
       </c>
-      <c r="AB18" s="158"/>
+      <c r="AB18" s="176"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="155">
+      <c r="AD18" s="164">
         <f t="shared" si="3"/>
         <v>0.59375</v>
       </c>
-      <c r="AE18" s="156"/>
+      <c r="AE18" s="175"/>
       <c r="AF18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG18" s="157">
+        <v>23</v>
+      </c>
+      <c r="AG18" s="166">
         <f>AD18+AN18</f>
         <v>0.625</v>
       </c>
-      <c r="AH18" s="158"/>
+      <c r="AH18" s="176"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="107">
+      <c r="AL18" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM18" s="107">
+      <c r="AM18" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN18" s="107">
+      <c r="AN18" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="21" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K19" s="99"/>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
-      <c r="AL19" s="107"/>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="107"/>
-    </row>
-    <row r="20" spans="1:40" s="113" customFormat="1">
-      <c r="AL20" s="107"/>
-      <c r="AM20" s="107"/>
-      <c r="AN20" s="107"/>
-    </row>
-    <row r="21" spans="1:40" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="145" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="145"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="146">
+      <c r="AL19" s="106"/>
+      <c r="AM19" s="106"/>
+      <c r="AN19" s="106"/>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="106"/>
+      <c r="AN20" s="106"/>
+    </row>
+    <row r="21" spans="1:40" ht="21" customHeight="1">
+      <c r="A21" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="195"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="195"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="195"/>
+      <c r="X21" s="195"/>
+      <c r="Y21" s="195"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="195"/>
+      <c r="AD21" s="130">
         <f>AG18</f>
         <v>0.625</v>
       </c>
-      <c r="AE21" s="147"/>
-      <c r="AF21" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG21" s="148">
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG21" s="132">
         <f>AD21+AL21</f>
         <v>0.63194444444444442</v>
       </c>
-      <c r="AH21" s="149"/>
-      <c r="AL21" s="111">
+      <c r="AH21" s="133"/>
+      <c r="AL21" s="110">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="AN21" s="107"/>
+      <c r="AN21" s="106"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="152"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="152"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="152"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="152"/>
-      <c r="AD22" s="152"/>
-      <c r="AE22" s="152"/>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="152"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="213"/>
+      <c r="S22" s="213"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="213"/>
+      <c r="W22" s="213"/>
+      <c r="X22" s="213"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="213"/>
+      <c r="AA22" s="213"/>
+      <c r="AB22" s="213"/>
+      <c r="AC22" s="213"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
     </row>
     <row r="23" spans="1:40" ht="17" customHeight="1">
-      <c r="A23" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="172"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="138" t="s">
+      <c r="A23" s="202" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="203"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
+      <c r="O23" s="203"/>
+      <c r="P23" s="203"/>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="203"/>
+      <c r="S23" s="203"/>
+      <c r="T23" s="203"/>
+      <c r="U23" s="203"/>
+      <c r="V23" s="204"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="174"/>
+      <c r="AN23" s="106"/>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="205"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
+      <c r="L24" s="206"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="206"/>
+      <c r="O24" s="206"/>
+      <c r="P24" s="206"/>
+      <c r="Q24" s="206"/>
+      <c r="R24" s="206"/>
+      <c r="S24" s="206"/>
+      <c r="T24" s="206"/>
+      <c r="U24" s="206"/>
+      <c r="V24" s="207"/>
+      <c r="X24" s="164">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="204" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE23" s="205"/>
-      <c r="AF23" s="205"/>
-      <c r="AG23" s="205"/>
-      <c r="AH23" s="206"/>
-      <c r="AN23" s="107"/>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" s="174"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="175"/>
-      <c r="U24" s="175"/>
-      <c r="V24" s="176"/>
-      <c r="X24" s="155">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA24" s="157">
+      <c r="AA24" s="166">
         <v>0.68055555555555547</v>
       </c>
-      <c r="AB24" s="158"/>
-      <c r="AD24" s="155">
+      <c r="AB24" s="176"/>
+      <c r="AD24" s="164">
         <f>X24</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="AE24" s="156"/>
+      <c r="AE24" s="175"/>
       <c r="AF24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG24" s="157">
+        <v>23</v>
+      </c>
+      <c r="AG24" s="166">
         <f>AA24</f>
         <v>0.68055555555555547</v>
       </c>
-      <c r="AH24" s="158"/>
-      <c r="AL24" s="107">
+      <c r="AH24" s="176"/>
+      <c r="AL24" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM24" s="107">
+      <c r="AM24" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN24" s="107">
+      <c r="AN24" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -9027,554 +9021,554 @@
       <c r="W25" s="98"/>
     </row>
     <row r="26" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A26" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="161"/>
-      <c r="AB26" s="161"/>
-      <c r="AC26" s="161"/>
-      <c r="AD26" s="161"/>
-      <c r="AE26" s="161"/>
-      <c r="AF26" s="161"/>
-      <c r="AG26" s="161"/>
-      <c r="AH26" s="162"/>
+      <c r="A26" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="169"/>
+      <c r="Q26" s="169"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="169"/>
+      <c r="T26" s="169"/>
+      <c r="U26" s="169"/>
+      <c r="V26" s="169"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="169"/>
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="169"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="170"/>
     </row>
     <row r="27" spans="1:40" ht="10" customHeight="1" thickTop="1">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
       <c r="AA27" s="11"/>
-      <c r="AB27" s="105"/>
+      <c r="AB27" s="104"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="105"/>
+      <c r="AH27" s="104"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="207" t="s">
+      <c r="A28" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="152"/>
+      <c r="J28" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="208"/>
-      <c r="C28" s="200" t="s">
+      <c r="P28" s="153"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="200" t="s">
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="201"/>
-      <c r="J28" s="200" t="s">
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="201"/>
-      <c r="O28" s="200" t="s">
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AL28" s="110">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="195" t="s">
+      <c r="B29" s="143"/>
+      <c r="C29" s="142">
+        <v>1</v>
+      </c>
+      <c r="D29" s="145"/>
+      <c r="E29" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="S28" s="196"/>
-      <c r="T28" s="196"/>
-      <c r="U28" s="196"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="138" t="s">
+      <c r="F29" s="145">
+        <v>9</v>
+      </c>
+      <c r="G29" s="143"/>
+      <c r="H29" s="142">
+        <v>9</v>
+      </c>
+      <c r="I29" s="143"/>
+      <c r="J29" s="142">
+        <v>1</v>
+      </c>
+      <c r="K29" s="145"/>
+      <c r="L29" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="145">
+        <v>9</v>
+      </c>
+      <c r="N29" s="143"/>
+      <c r="O29" s="142">
+        <v>10</v>
+      </c>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="146">
+        <v>0.65625</v>
+      </c>
+      <c r="S29" s="147"/>
+      <c r="T29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE28" s="194"/>
-      <c r="AF28" s="194"/>
-      <c r="AG28" s="194"/>
-      <c r="AH28" s="194"/>
-      <c r="AL28" s="111">
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
-      <c r="A29" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="151"/>
-      <c r="C29" s="143">
-        <v>1</v>
-      </c>
-      <c r="D29" s="144"/>
-      <c r="E29" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="144">
-        <v>9</v>
-      </c>
-      <c r="G29" s="151"/>
-      <c r="H29" s="143">
-        <v>9</v>
-      </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="143">
-        <v>1</v>
-      </c>
-      <c r="K29" s="144"/>
-      <c r="L29" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="144">
-        <v>9</v>
-      </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="143">
-        <v>10</v>
-      </c>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="141">
-        <v>0.65625</v>
-      </c>
-      <c r="S29" s="142"/>
-      <c r="T29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U29" s="188">
+      <c r="U29" s="134">
         <f>R29+AM29</f>
         <v>0.68402777777777779</v>
       </c>
-      <c r="V29" s="189"/>
+      <c r="V29" s="135"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="141">
+      <c r="X29" s="146">
         <f>AG24+AL28</f>
         <v>0.68749999999999989</v>
       </c>
-      <c r="Y29" s="142"/>
+      <c r="Y29" s="147"/>
       <c r="Z29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA29" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA29" s="134">
         <f>X29+AM29</f>
         <v>0.71527777777777768</v>
       </c>
-      <c r="AB29" s="189"/>
-      <c r="AD29" s="141">
+      <c r="AB29" s="135"/>
+      <c r="AD29" s="146">
         <f>AA29+AL29</f>
         <v>0.71874999999999989</v>
       </c>
-      <c r="AE29" s="142"/>
+      <c r="AE29" s="147"/>
       <c r="AF29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG29" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG29" s="134">
         <f>AD29+AN29</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="AH29" s="189"/>
-      <c r="AL29" s="107">
+      <c r="AH29" s="135"/>
+      <c r="AL29" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM29" s="107">
+      <c r="AM29" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN29" s="107">
+      <c r="AN29" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="151"/>
-      <c r="C30" s="143">
+      <c r="A30" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="143"/>
+      <c r="C30" s="142">
         <v>1</v>
       </c>
-      <c r="D30" s="144"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="144">
+        <v>22</v>
+      </c>
+      <c r="F30" s="145">
         <v>9</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="143">
+      <c r="G30" s="143"/>
+      <c r="H30" s="142">
         <v>9</v>
       </c>
-      <c r="I30" s="151"/>
-      <c r="J30" s="143">
+      <c r="I30" s="143"/>
+      <c r="J30" s="142">
         <v>1</v>
       </c>
-      <c r="K30" s="144"/>
+      <c r="K30" s="145"/>
       <c r="L30" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="144">
+        <v>22</v>
+      </c>
+      <c r="M30" s="145">
         <v>10</v>
       </c>
-      <c r="N30" s="151"/>
-      <c r="O30" s="143">
+      <c r="N30" s="143"/>
+      <c r="O30" s="142">
         <v>9</v>
       </c>
-      <c r="P30" s="151"/>
+      <c r="P30" s="143"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="141">
+      <c r="R30" s="146">
         <f>U29+AL30</f>
         <v>0.6875</v>
       </c>
-      <c r="S30" s="142"/>
+      <c r="S30" s="147"/>
       <c r="T30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U30" s="188">
+        <v>23</v>
+      </c>
+      <c r="U30" s="134">
         <f>R30+AM30</f>
         <v>0.71527777777777779</v>
       </c>
-      <c r="V30" s="189"/>
+      <c r="V30" s="135"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="141">
+      <c r="X30" s="146">
         <f>AA29+AL30</f>
         <v>0.71874999999999989</v>
       </c>
-      <c r="Y30" s="142"/>
+      <c r="Y30" s="147"/>
       <c r="Z30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA30" s="134">
         <f t="shared" ref="AA30:AA31" si="4">X30+AM30</f>
         <v>0.74652777777777768</v>
       </c>
-      <c r="AB30" s="189"/>
-      <c r="AD30" s="141">
+      <c r="AB30" s="135"/>
+      <c r="AD30" s="146">
         <f>AG29</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="AE30" s="142"/>
+      <c r="AE30" s="147"/>
       <c r="AF30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG30" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG30" s="134">
         <f>AD30+AN30</f>
         <v>0.78124999999999989</v>
       </c>
-      <c r="AH30" s="189"/>
-      <c r="AL30" s="107">
+      <c r="AH30" s="135"/>
+      <c r="AL30" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM30" s="107">
+      <c r="AM30" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN30" s="107">
+      <c r="AN30" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="151"/>
-      <c r="C31" s="143">
+      <c r="A31" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="143"/>
+      <c r="C31" s="142">
         <v>1</v>
       </c>
-      <c r="D31" s="144"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="144">
+        <v>22</v>
+      </c>
+      <c r="F31" s="145">
         <v>10</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="143">
+      <c r="G31" s="143"/>
+      <c r="H31" s="142">
         <v>9</v>
       </c>
-      <c r="I31" s="151"/>
-      <c r="J31" s="143">
+      <c r="I31" s="143"/>
+      <c r="J31" s="142">
         <v>1</v>
       </c>
-      <c r="K31" s="144"/>
+      <c r="K31" s="145"/>
       <c r="L31" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="144">
+        <v>22</v>
+      </c>
+      <c r="M31" s="145">
         <v>10</v>
       </c>
-      <c r="N31" s="151"/>
-      <c r="O31" s="143">
+      <c r="N31" s="143"/>
+      <c r="O31" s="142">
         <v>9</v>
       </c>
-      <c r="P31" s="151"/>
+      <c r="P31" s="143"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="141">
+      <c r="R31" s="146">
         <f>U30+AL31</f>
         <v>0.71875</v>
       </c>
-      <c r="S31" s="142"/>
+      <c r="S31" s="147"/>
       <c r="T31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U31" s="188">
+        <v>23</v>
+      </c>
+      <c r="U31" s="134">
         <f>R31+AM31</f>
         <v>0.74652777777777779</v>
       </c>
-      <c r="V31" s="189"/>
+      <c r="V31" s="135"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="141">
+      <c r="X31" s="146">
         <f>AA30+AL31</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="Y31" s="142"/>
+      <c r="Y31" s="147"/>
       <c r="Z31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA31" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA31" s="134">
         <f t="shared" si="4"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="AB31" s="189"/>
-      <c r="AD31" s="141">
+      <c r="AB31" s="135"/>
+      <c r="AD31" s="146">
         <f>AG30</f>
         <v>0.78124999999999989</v>
       </c>
-      <c r="AE31" s="142"/>
+      <c r="AE31" s="147"/>
       <c r="AF31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG31" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG31" s="134">
         <f>AD31+AN31</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="AH31" s="189"/>
-      <c r="AL31" s="107">
+      <c r="AH31" s="135"/>
+      <c r="AL31" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM31" s="107">
+      <c r="AM31" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="AN31" s="107">
+      <c r="AN31" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="21" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K32" s="99"/>
       <c r="L32" s="99"/>
       <c r="M32" s="99"/>
-      <c r="AL32" s="107"/>
-      <c r="AM32" s="107"/>
-      <c r="AN32" s="107"/>
+      <c r="AL32" s="106"/>
+      <c r="AM32" s="106"/>
+      <c r="AN32" s="106"/>
     </row>
     <row r="33" spans="1:40">
-      <c r="AL33" s="107"/>
-      <c r="AM33" s="107"/>
-      <c r="AN33" s="107"/>
+      <c r="AL33" s="106"/>
+      <c r="AM33" s="106"/>
+      <c r="AN33" s="106"/>
     </row>
     <row r="34" spans="1:40" ht="17" customHeight="1">
-      <c r="A34" s="167" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="167"/>
-      <c r="P34" s="167"/>
-      <c r="Q34" s="167"/>
-      <c r="R34" s="167"/>
-      <c r="S34" s="167"/>
-      <c r="T34" s="167"/>
-      <c r="U34" s="167"/>
-      <c r="V34" s="167"/>
-      <c r="X34" s="212" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y34" s="213"/>
-      <c r="Z34" s="213"/>
-      <c r="AA34" s="213"/>
-      <c r="AB34" s="214"/>
-      <c r="AD34" s="215" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE34" s="215"/>
-      <c r="AF34" s="215"/>
-      <c r="AG34" s="215"/>
-      <c r="AH34" s="215"/>
-      <c r="AL34" s="107"/>
-      <c r="AM34" s="107"/>
-      <c r="AN34" s="107"/>
+      <c r="A34" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="200"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="200"/>
+      <c r="N34" s="200"/>
+      <c r="O34" s="200"/>
+      <c r="P34" s="200"/>
+      <c r="Q34" s="200"/>
+      <c r="R34" s="200"/>
+      <c r="S34" s="200"/>
+      <c r="T34" s="200"/>
+      <c r="U34" s="200"/>
+      <c r="V34" s="200"/>
+      <c r="X34" s="160" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y34" s="161"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
+      <c r="AB34" s="162"/>
+      <c r="AD34" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE34" s="163"/>
+      <c r="AF34" s="163"/>
+      <c r="AG34" s="163"/>
+      <c r="AH34" s="163"/>
+      <c r="AL34" s="106"/>
+      <c r="AM34" s="106"/>
+      <c r="AN34" s="106"/>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="167"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="167"/>
-      <c r="P35" s="167"/>
-      <c r="Q35" s="167"/>
-      <c r="R35" s="167"/>
-      <c r="S35" s="167"/>
-      <c r="T35" s="167"/>
-      <c r="U35" s="167"/>
-      <c r="V35" s="167"/>
-      <c r="X35" s="141">
+      <c r="A35" s="200"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="200"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="200"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="200"/>
+      <c r="N35" s="200"/>
+      <c r="O35" s="200"/>
+      <c r="P35" s="200"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="200"/>
+      <c r="S35" s="200"/>
+      <c r="T35" s="200"/>
+      <c r="U35" s="200"/>
+      <c r="V35" s="200"/>
+      <c r="X35" s="146">
         <f>AG31</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="Y35" s="142"/>
+      <c r="Y35" s="147"/>
       <c r="Z35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA35" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA35" s="134">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AB35" s="189"/>
-      <c r="AD35" s="141">
+      <c r="AB35" s="135"/>
+      <c r="AD35" s="146">
         <f>X35</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="AE35" s="142"/>
+      <c r="AE35" s="147"/>
       <c r="AF35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG35" s="157">
+        <v>23</v>
+      </c>
+      <c r="AG35" s="166">
         <f>AA35</f>
         <v>0.85416666666666663</v>
       </c>
-      <c r="AH35" s="211"/>
-      <c r="AL35" s="107"/>
-      <c r="AM35" s="107"/>
-      <c r="AN35" s="107"/>
+      <c r="AH35" s="171"/>
+      <c r="AL35" s="106"/>
+      <c r="AM35" s="106"/>
+      <c r="AN35" s="106"/>
     </row>
     <row r="36" spans="1:40">
-      <c r="AL36" s="107"/>
-      <c r="AM36" s="107"/>
-      <c r="AN36" s="107"/>
+      <c r="AL36" s="106"/>
+      <c r="AM36" s="106"/>
+      <c r="AN36" s="106"/>
     </row>
     <row r="37" spans="1:40">
-      <c r="AL37" s="107"/>
-      <c r="AM37" s="107"/>
-      <c r="AN37" s="107"/>
+      <c r="AL37" s="106"/>
+      <c r="AM37" s="106"/>
+      <c r="AN37" s="106"/>
     </row>
     <row r="38" spans="1:40">
-      <c r="AL38" s="107"/>
-      <c r="AM38" s="107"/>
-      <c r="AN38" s="107"/>
+      <c r="AL38" s="106"/>
+      <c r="AM38" s="106"/>
+      <c r="AN38" s="106"/>
     </row>
     <row r="39" spans="1:40" ht="20">
-      <c r="A39" s="150" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
-      <c r="S39" s="150"/>
-      <c r="T39" s="150"/>
-      <c r="U39" s="150"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="150"/>
-      <c r="X39" s="150"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="150"/>
-      <c r="AA39" s="150"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="150"/>
-      <c r="AF39" s="150"/>
-      <c r="AG39" s="150"/>
-      <c r="AH39" s="150"/>
+      <c r="A39" s="180" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="180"/>
+      <c r="V39" s="180"/>
+      <c r="W39" s="180"/>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="180"/>
+      <c r="Z39" s="180"/>
+      <c r="AA39" s="180"/>
+      <c r="AB39" s="180"/>
+      <c r="AC39" s="180"/>
+      <c r="AD39" s="180"/>
+      <c r="AE39" s="180"/>
+      <c r="AF39" s="180"/>
+      <c r="AG39" s="180"/>
+      <c r="AH39" s="180"/>
     </row>
     <row r="40" spans="1:40" ht="9" customHeight="1" thickBot="1">
       <c r="A40" s="95"/>
@@ -9597,584 +9591,584 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A41" s="160" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="161"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="161"/>
-      <c r="M41" s="161"/>
-      <c r="N41" s="161"/>
-      <c r="O41" s="161"/>
-      <c r="P41" s="161"/>
-      <c r="Q41" s="161"/>
-      <c r="R41" s="161"/>
-      <c r="S41" s="161"/>
-      <c r="T41" s="161"/>
-      <c r="U41" s="161"/>
-      <c r="V41" s="161"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="161"/>
-      <c r="Y41" s="161"/>
-      <c r="Z41" s="161"/>
-      <c r="AA41" s="161"/>
-      <c r="AB41" s="161"/>
-      <c r="AC41" s="161"/>
-      <c r="AD41" s="161"/>
-      <c r="AE41" s="161"/>
-      <c r="AF41" s="161"/>
-      <c r="AG41" s="161"/>
-      <c r="AH41" s="162"/>
+      <c r="A41" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="169"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="169"/>
+      <c r="L41" s="169"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="169"/>
+      <c r="O41" s="169"/>
+      <c r="P41" s="169"/>
+      <c r="Q41" s="169"/>
+      <c r="R41" s="169"/>
+      <c r="S41" s="169"/>
+      <c r="T41" s="169"/>
+      <c r="U41" s="169"/>
+      <c r="V41" s="169"/>
+      <c r="W41" s="169"/>
+      <c r="X41" s="169"/>
+      <c r="Y41" s="169"/>
+      <c r="Z41" s="169"/>
+      <c r="AA41" s="169"/>
+      <c r="AB41" s="169"/>
+      <c r="AC41" s="169"/>
+      <c r="AD41" s="169"/>
+      <c r="AE41" s="169"/>
+      <c r="AF41" s="169"/>
+      <c r="AG41" s="169"/>
+      <c r="AH41" s="170"/>
     </row>
     <row r="42" spans="1:40" ht="10" customHeight="1" thickTop="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="105"/>
-      <c r="X42" s="105"/>
-      <c r="Y42" s="105"/>
-      <c r="Z42" s="105"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="109"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
       <c r="AA42" s="11"/>
-      <c r="AB42" s="105"/>
+      <c r="AB42" s="104"/>
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
       <c r="AF42" s="13"/>
       <c r="AG42" s="13"/>
-      <c r="AH42" s="105"/>
+      <c r="AH42" s="104"/>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="149"/>
+      <c r="C43" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="152"/>
+      <c r="J43" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="208"/>
-      <c r="C43" s="200" t="s">
+      <c r="P43" s="153"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="200" t="s">
+      <c r="S43" s="137"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="138"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="201"/>
-      <c r="J43" s="200" t="s">
+      <c r="Y43" s="155"/>
+      <c r="Z43" s="155"/>
+      <c r="AA43" s="155"/>
+      <c r="AB43" s="156"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="199"/>
-      <c r="L43" s="199"/>
-      <c r="M43" s="199"/>
-      <c r="N43" s="201"/>
-      <c r="O43" s="200" t="s">
+      <c r="AE43" s="144"/>
+      <c r="AF43" s="144"/>
+      <c r="AG43" s="144"/>
+      <c r="AH43" s="144"/>
+    </row>
+    <row r="44" spans="1:40">
+      <c r="A44" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="203"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="195" t="s">
+      <c r="B44" s="143"/>
+      <c r="C44" s="142">
+        <v>1</v>
+      </c>
+      <c r="D44" s="145"/>
+      <c r="E44" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="S43" s="196"/>
-      <c r="T43" s="196"/>
-      <c r="U43" s="196"/>
-      <c r="V43" s="197"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="138" t="s">
+      <c r="F44" s="145">
+        <v>12</v>
+      </c>
+      <c r="G44" s="143"/>
+      <c r="H44" s="142">
+        <v>12</v>
+      </c>
+      <c r="I44" s="143"/>
+      <c r="J44" s="142">
+        <v>1</v>
+      </c>
+      <c r="K44" s="145"/>
+      <c r="L44" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="145">
+        <v>12</v>
+      </c>
+      <c r="N44" s="143"/>
+      <c r="O44" s="142">
+        <v>12</v>
+      </c>
+      <c r="P44" s="143"/>
+      <c r="R44" s="139">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="S44" s="140"/>
+      <c r="T44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y43" s="139"/>
-      <c r="Z43" s="139"/>
-      <c r="AA43" s="139"/>
-      <c r="AB43" s="140"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE43" s="194"/>
-      <c r="AF43" s="194"/>
-      <c r="AG43" s="194"/>
-      <c r="AH43" s="194"/>
-    </row>
-    <row r="44" spans="1:40">
-      <c r="A44" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="143">
-        <v>1</v>
-      </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="144">
-        <v>12</v>
-      </c>
-      <c r="G44" s="151"/>
-      <c r="H44" s="143">
-        <v>12</v>
-      </c>
-      <c r="I44" s="151"/>
-      <c r="J44" s="143">
-        <v>1</v>
-      </c>
-      <c r="K44" s="144"/>
-      <c r="L44" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="144">
-        <v>12</v>
-      </c>
-      <c r="N44" s="151"/>
-      <c r="O44" s="143">
-        <v>12</v>
-      </c>
-      <c r="P44" s="151"/>
-      <c r="R44" s="209">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="S44" s="210"/>
-      <c r="T44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U44" s="188">
+      <c r="U44" s="134">
         <f>R44+AM44</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="V44" s="189"/>
-      <c r="X44" s="209">
+      <c r="V44" s="135"/>
+      <c r="X44" s="139">
         <f>U44+AL44</f>
         <v>0.375</v>
       </c>
-      <c r="Y44" s="210"/>
+      <c r="Y44" s="140"/>
       <c r="Z44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA44" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA44" s="134">
         <f>X44+AM44</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="AB44" s="189"/>
-      <c r="AD44" s="209">
+      <c r="AB44" s="135"/>
+      <c r="AD44" s="139">
         <f>AA44+AL44</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="AE44" s="210"/>
+      <c r="AE44" s="140"/>
       <c r="AF44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG44" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG44" s="134">
         <f>AD44+AN44</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="AH44" s="189"/>
-      <c r="AL44" s="107">
+      <c r="AH44" s="135"/>
+      <c r="AL44" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM44" s="107">
+      <c r="AM44" s="106">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="AN44" s="107">
+      <c r="AN44" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="143">
+      <c r="A45" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="143"/>
+      <c r="C45" s="142">
         <v>1</v>
       </c>
-      <c r="D45" s="144"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="144">
+        <v>22</v>
+      </c>
+      <c r="F45" s="145">
         <v>12</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="143">
+      <c r="G45" s="143"/>
+      <c r="H45" s="142">
         <v>12</v>
       </c>
-      <c r="I45" s="151"/>
-      <c r="J45" s="143">
+      <c r="I45" s="143"/>
+      <c r="J45" s="142">
         <v>1</v>
       </c>
-      <c r="K45" s="144"/>
+      <c r="K45" s="145"/>
       <c r="L45" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" s="144">
+        <v>22</v>
+      </c>
+      <c r="M45" s="145">
         <v>12</v>
       </c>
-      <c r="N45" s="151"/>
-      <c r="O45" s="143">
+      <c r="N45" s="143"/>
+      <c r="O45" s="142">
         <v>12</v>
       </c>
-      <c r="P45" s="151"/>
-      <c r="R45" s="209">
+      <c r="P45" s="143"/>
+      <c r="R45" s="139">
         <f>U44+AL45</f>
         <v>0.375</v>
       </c>
-      <c r="S45" s="210"/>
+      <c r="S45" s="140"/>
       <c r="T45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U45" s="188">
+        <v>23</v>
+      </c>
+      <c r="U45" s="134">
         <f>R45+AM45</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="V45" s="189"/>
-      <c r="X45" s="209">
+      <c r="V45" s="135"/>
+      <c r="X45" s="139">
         <f>U45+AL45</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="Y45" s="210"/>
+      <c r="Y45" s="140"/>
       <c r="Z45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA45" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA45" s="134">
         <f>X45+AM45</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="AB45" s="189"/>
-      <c r="AD45" s="209">
+      <c r="AB45" s="135"/>
+      <c r="AD45" s="139">
         <f>AG44</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="AE45" s="210"/>
+      <c r="AE45" s="140"/>
       <c r="AF45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG45" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG45" s="134">
         <f>AD45+AN45</f>
         <v>0.43749999999999994</v>
       </c>
-      <c r="AH45" s="189"/>
-      <c r="AL45" s="107">
+      <c r="AH45" s="135"/>
+      <c r="AL45" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM45" s="107">
+      <c r="AM45" s="106">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="AN45" s="107">
+      <c r="AN45" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="24" customHeight="1">
-      <c r="A46" s="218" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="218"/>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="218"/>
-      <c r="G46" s="218"/>
-      <c r="H46" s="218"/>
-      <c r="I46" s="218"/>
-      <c r="J46" s="218"/>
-      <c r="K46" s="218"/>
-      <c r="L46" s="218"/>
-      <c r="M46" s="218"/>
-      <c r="N46" s="218"/>
-      <c r="O46" s="218"/>
-      <c r="P46" s="218"/>
-      <c r="Q46" s="218"/>
-      <c r="R46" s="218"/>
-      <c r="S46" s="218"/>
-      <c r="T46" s="218"/>
-      <c r="U46" s="218"/>
-      <c r="V46" s="218"/>
-      <c r="W46" s="218"/>
-      <c r="X46" s="218"/>
-      <c r="Y46" s="218"/>
-      <c r="Z46" s="218"/>
-      <c r="AA46" s="218"/>
-      <c r="AB46" s="218"/>
-      <c r="AC46" s="218"/>
-      <c r="AD46" s="218"/>
-      <c r="AE46" s="218"/>
-      <c r="AF46" s="218"/>
-      <c r="AG46" s="218"/>
-      <c r="AH46" s="218"/>
+      <c r="A46" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="141"/>
+      <c r="N46" s="141"/>
+      <c r="O46" s="141"/>
+      <c r="P46" s="141"/>
+      <c r="Q46" s="141"/>
+      <c r="R46" s="141"/>
+      <c r="S46" s="141"/>
+      <c r="T46" s="141"/>
+      <c r="U46" s="141"/>
+      <c r="V46" s="141"/>
+      <c r="W46" s="141"/>
+      <c r="X46" s="141"/>
+      <c r="Y46" s="141"/>
+      <c r="Z46" s="141"/>
+      <c r="AA46" s="141"/>
+      <c r="AB46" s="141"/>
+      <c r="AC46" s="141"/>
+      <c r="AD46" s="141"/>
+      <c r="AE46" s="141"/>
+      <c r="AF46" s="141"/>
+      <c r="AG46" s="141"/>
+      <c r="AH46" s="141"/>
     </row>
     <row r="47" spans="1:40" ht="18" thickBot="1"/>
     <row r="48" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A48" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="161"/>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="161"/>
-      <c r="M48" s="161"/>
-      <c r="N48" s="161"/>
-      <c r="O48" s="161"/>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="161"/>
-      <c r="R48" s="161"/>
-      <c r="S48" s="161"/>
-      <c r="T48" s="161"/>
-      <c r="U48" s="161"/>
-      <c r="V48" s="161"/>
-      <c r="W48" s="161"/>
-      <c r="X48" s="161"/>
-      <c r="Y48" s="161"/>
-      <c r="Z48" s="161"/>
-      <c r="AA48" s="161"/>
-      <c r="AB48" s="161"/>
-      <c r="AC48" s="161"/>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="161"/>
-      <c r="AF48" s="161"/>
-      <c r="AG48" s="161"/>
-      <c r="AH48" s="162"/>
+      <c r="A48" s="168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="169"/>
+      <c r="K48" s="169"/>
+      <c r="L48" s="169"/>
+      <c r="M48" s="169"/>
+      <c r="N48" s="169"/>
+      <c r="O48" s="169"/>
+      <c r="P48" s="169"/>
+      <c r="Q48" s="169"/>
+      <c r="R48" s="169"/>
+      <c r="S48" s="169"/>
+      <c r="T48" s="169"/>
+      <c r="U48" s="169"/>
+      <c r="V48" s="169"/>
+      <c r="W48" s="169"/>
+      <c r="X48" s="169"/>
+      <c r="Y48" s="169"/>
+      <c r="Z48" s="169"/>
+      <c r="AA48" s="169"/>
+      <c r="AB48" s="169"/>
+      <c r="AC48" s="169"/>
+      <c r="AD48" s="169"/>
+      <c r="AE48" s="169"/>
+      <c r="AF48" s="169"/>
+      <c r="AG48" s="169"/>
+      <c r="AH48" s="170"/>
     </row>
     <row r="49" spans="1:41" ht="10" customHeight="1" thickTop="1">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="105"/>
-      <c r="V49" s="105"/>
-      <c r="W49" s="105"/>
-      <c r="X49" s="105"/>
-      <c r="Y49" s="105"/>
-      <c r="Z49" s="105"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
       <c r="AA49" s="11"/>
-      <c r="AB49" s="105"/>
+      <c r="AB49" s="104"/>
       <c r="AC49" s="13"/>
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="13"/>
-      <c r="AH49" s="105"/>
+      <c r="AH49" s="104"/>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="207" t="s">
+      <c r="A50" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="149"/>
+      <c r="C50" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="152"/>
+      <c r="J50" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="208"/>
-      <c r="C50" s="200" t="s">
+      <c r="P50" s="153"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="199"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="200" t="s">
+      <c r="S50" s="137"/>
+      <c r="T50" s="137"/>
+      <c r="U50" s="137"/>
+      <c r="V50" s="138"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="201"/>
-      <c r="J50" s="200" t="s">
+      <c r="Y50" s="155"/>
+      <c r="Z50" s="155"/>
+      <c r="AA50" s="155"/>
+      <c r="AB50" s="156"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="199"/>
-      <c r="L50" s="199"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="203"/>
-      <c r="O50" s="200" t="s">
+      <c r="AE50" s="144"/>
+      <c r="AF50" s="144"/>
+      <c r="AG50" s="144"/>
+      <c r="AH50" s="144"/>
+    </row>
+    <row r="51" spans="1:41">
+      <c r="A51" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="P50" s="203"/>
-      <c r="Q50" s="106"/>
-      <c r="R50" s="195" t="s">
+      <c r="B51" s="143"/>
+      <c r="C51" s="142">
+        <v>1</v>
+      </c>
+      <c r="D51" s="145"/>
+      <c r="E51" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="196"/>
-      <c r="V50" s="197"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y50" s="139"/>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="140"/>
-      <c r="AC50" s="106"/>
-      <c r="AD50" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE50" s="194"/>
-      <c r="AF50" s="194"/>
-      <c r="AG50" s="194"/>
-      <c r="AH50" s="194"/>
-    </row>
-    <row r="51" spans="1:41">
-      <c r="A51" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="143">
+      <c r="F51" s="145">
+        <v>8</v>
+      </c>
+      <c r="G51" s="143"/>
+      <c r="H51" s="142">
+        <v>8</v>
+      </c>
+      <c r="I51" s="143"/>
+      <c r="J51" s="142">
         <v>1</v>
       </c>
-      <c r="D51" s="144"/>
-      <c r="E51" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="144">
+      <c r="K51" s="145"/>
+      <c r="L51" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="145">
         <v>8</v>
       </c>
-      <c r="G51" s="151"/>
-      <c r="H51" s="143">
+      <c r="N51" s="143"/>
+      <c r="O51" s="142">
         <v>8</v>
       </c>
-      <c r="I51" s="151"/>
-      <c r="J51" s="143">
-        <v>1</v>
-      </c>
-      <c r="K51" s="144"/>
-      <c r="L51" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="144">
-        <v>8</v>
-      </c>
-      <c r="N51" s="151"/>
-      <c r="O51" s="143">
-        <v>8</v>
-      </c>
-      <c r="P51" s="151"/>
-      <c r="R51" s="141">
+      <c r="P51" s="143"/>
+      <c r="R51" s="146">
         <f>U51-AM51</f>
         <v>0.43055555555555552</v>
       </c>
-      <c r="S51" s="142"/>
+      <c r="S51" s="147"/>
       <c r="T51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U51" s="188">
+        <v>23</v>
+      </c>
+      <c r="U51" s="134">
         <f>X51-AL51</f>
         <v>0.44791666666666663</v>
       </c>
-      <c r="V51" s="189"/>
-      <c r="X51" s="141">
+      <c r="V51" s="135"/>
+      <c r="X51" s="146">
         <f>AG45+AM65</f>
         <v>0.45138888888888884</v>
       </c>
-      <c r="Y51" s="142"/>
+      <c r="Y51" s="147"/>
       <c r="Z51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA51" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA51" s="134">
         <f>X51+AM51</f>
         <v>0.46874999999999994</v>
       </c>
-      <c r="AB51" s="189"/>
-      <c r="AD51" s="141">
+      <c r="AB51" s="135"/>
+      <c r="AD51" s="146">
         <f>AA51+AL51</f>
         <v>0.47222222222222215</v>
       </c>
-      <c r="AE51" s="142"/>
+      <c r="AE51" s="147"/>
       <c r="AF51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG51" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG51" s="134">
         <f>AD51+AN51</f>
         <v>0.49305555555555547</v>
       </c>
-      <c r="AH51" s="189"/>
-      <c r="AL51" s="107">
+      <c r="AH51" s="135"/>
+      <c r="AL51" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM51" s="107">
+      <c r="AM51" s="106">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="AN51" s="107">
+      <c r="AN51" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="52" spans="1:41" ht="24" customHeight="1">
-      <c r="A52" s="218" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="218"/>
-      <c r="C52" s="218"/>
-      <c r="D52" s="218"/>
-      <c r="E52" s="218"/>
-      <c r="F52" s="218"/>
-      <c r="G52" s="218"/>
-      <c r="H52" s="218"/>
-      <c r="I52" s="218"/>
-      <c r="J52" s="218"/>
-      <c r="K52" s="218"/>
-      <c r="L52" s="218"/>
-      <c r="M52" s="218"/>
-      <c r="N52" s="218"/>
-      <c r="O52" s="218"/>
-      <c r="P52" s="218"/>
-      <c r="Q52" s="218"/>
-      <c r="R52" s="218"/>
-      <c r="S52" s="218"/>
-      <c r="T52" s="218"/>
-      <c r="U52" s="218"/>
-      <c r="V52" s="218"/>
-      <c r="W52" s="218"/>
-      <c r="X52" s="218"/>
-      <c r="Y52" s="218"/>
-      <c r="Z52" s="218"/>
-      <c r="AA52" s="218"/>
-      <c r="AB52" s="218"/>
-      <c r="AC52" s="218"/>
-      <c r="AD52" s="218"/>
-      <c r="AE52" s="218"/>
-      <c r="AF52" s="218"/>
-      <c r="AG52" s="218"/>
-      <c r="AH52" s="218"/>
+      <c r="A52" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
+      <c r="V52" s="141"/>
+      <c r="W52" s="141"/>
+      <c r="X52" s="141"/>
+      <c r="Y52" s="141"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="141"/>
+      <c r="AC52" s="141"/>
+      <c r="AD52" s="141"/>
+      <c r="AE52" s="141"/>
+      <c r="AF52" s="141"/>
+      <c r="AG52" s="141"/>
+      <c r="AH52" s="141"/>
     </row>
     <row r="53" spans="1:41" ht="10" customHeight="1">
       <c r="K53" s="99"/>
@@ -10182,51 +10176,50 @@
       <c r="M53" s="99"/>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="145" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="145"/>
-      <c r="K54" s="145"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
-      <c r="O54" s="145"/>
-      <c r="P54" s="145"/>
-      <c r="Q54" s="145"/>
-      <c r="R54" s="145"/>
-      <c r="S54" s="145"/>
-      <c r="T54" s="145"/>
-      <c r="U54" s="145"/>
-      <c r="V54" s="145"/>
-      <c r="W54" s="145"/>
-      <c r="X54" s="145"/>
-      <c r="Y54" s="145"/>
-      <c r="Z54" s="145"/>
-      <c r="AA54" s="145"/>
-      <c r="AB54" s="145"/>
-      <c r="AC54" s="100"/>
-      <c r="AD54" s="146">
+      <c r="A54" s="195" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="195"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="195"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="195"/>
+      <c r="K54" s="195"/>
+      <c r="L54" s="195"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="195"/>
+      <c r="O54" s="195"/>
+      <c r="P54" s="195"/>
+      <c r="Q54" s="195"/>
+      <c r="R54" s="195"/>
+      <c r="S54" s="195"/>
+      <c r="T54" s="195"/>
+      <c r="U54" s="195"/>
+      <c r="V54" s="195"/>
+      <c r="W54" s="195"/>
+      <c r="X54" s="195"/>
+      <c r="Y54" s="195"/>
+      <c r="Z54" s="195"/>
+      <c r="AA54" s="195"/>
+      <c r="AB54" s="195"/>
+      <c r="AD54" s="130">
         <f>AG51</f>
         <v>0.49305555555555547</v>
       </c>
-      <c r="AE54" s="147"/>
-      <c r="AF54" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG54" s="148">
+      <c r="AE54" s="131"/>
+      <c r="AF54" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG54" s="132">
         <f>AD54+AL54</f>
         <v>0.49999999999999989</v>
       </c>
-      <c r="AH54" s="149"/>
-      <c r="AL54" s="111">
+      <c r="AH54" s="133"/>
+      <c r="AL54" s="110">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -10236,417 +10229,417 @@
       <c r="M55" s="99"/>
     </row>
     <row r="56" spans="1:41">
-      <c r="A56" s="168" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="168"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="168"/>
-      <c r="E56" s="168"/>
-      <c r="F56" s="168"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="168"/>
-      <c r="I56" s="168"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="168"/>
-      <c r="M56" s="168"/>
-      <c r="N56" s="168"/>
-      <c r="O56" s="168"/>
-      <c r="P56" s="168"/>
-      <c r="Q56" s="168"/>
-      <c r="R56" s="168"/>
-      <c r="S56" s="168"/>
-      <c r="T56" s="168"/>
-      <c r="U56" s="168"/>
-      <c r="V56" s="168"/>
-      <c r="X56" s="212" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y56" s="213"/>
-      <c r="Z56" s="213"/>
-      <c r="AA56" s="213"/>
-      <c r="AB56" s="214"/>
-      <c r="AC56" s="106"/>
-      <c r="AD56" s="215" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE56" s="215"/>
-      <c r="AF56" s="215"/>
-      <c r="AG56" s="215"/>
-      <c r="AH56" s="215"/>
+      <c r="A56" s="201" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="201"/>
+      <c r="C56" s="201"/>
+      <c r="D56" s="201"/>
+      <c r="E56" s="201"/>
+      <c r="F56" s="201"/>
+      <c r="G56" s="201"/>
+      <c r="H56" s="201"/>
+      <c r="I56" s="201"/>
+      <c r="J56" s="201"/>
+      <c r="K56" s="201"/>
+      <c r="L56" s="201"/>
+      <c r="M56" s="201"/>
+      <c r="N56" s="201"/>
+      <c r="O56" s="201"/>
+      <c r="P56" s="201"/>
+      <c r="Q56" s="201"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="201"/>
+      <c r="T56" s="201"/>
+      <c r="U56" s="201"/>
+      <c r="V56" s="201"/>
+      <c r="X56" s="160" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y56" s="161"/>
+      <c r="Z56" s="161"/>
+      <c r="AA56" s="161"/>
+      <c r="AB56" s="162"/>
+      <c r="AC56" s="105"/>
+      <c r="AD56" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE56" s="163"/>
+      <c r="AF56" s="163"/>
+      <c r="AG56" s="163"/>
+      <c r="AH56" s="163"/>
     </row>
     <row r="57" spans="1:41">
-      <c r="A57" s="168"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="168"/>
-      <c r="F57" s="168"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="168"/>
-      <c r="I57" s="168"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="168"/>
-      <c r="L57" s="168"/>
-      <c r="M57" s="168"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="168"/>
-      <c r="P57" s="168"/>
-      <c r="Q57" s="168"/>
-      <c r="R57" s="168"/>
-      <c r="S57" s="168"/>
-      <c r="T57" s="168"/>
-      <c r="U57" s="168"/>
-      <c r="V57" s="168"/>
-      <c r="X57" s="155">
+      <c r="A57" s="201"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="201"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="201"/>
+      <c r="G57" s="201"/>
+      <c r="H57" s="201"/>
+      <c r="I57" s="201"/>
+      <c r="J57" s="201"/>
+      <c r="K57" s="201"/>
+      <c r="L57" s="201"/>
+      <c r="M57" s="201"/>
+      <c r="N57" s="201"/>
+      <c r="O57" s="201"/>
+      <c r="P57" s="201"/>
+      <c r="Q57" s="201"/>
+      <c r="R57" s="201"/>
+      <c r="S57" s="201"/>
+      <c r="T57" s="201"/>
+      <c r="U57" s="201"/>
+      <c r="V57" s="201"/>
+      <c r="X57" s="164">
         <f>AG54+AO57</f>
         <v>0.50694444444444431</v>
       </c>
-      <c r="Y57" s="216"/>
+      <c r="Y57" s="165"/>
       <c r="Z57" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA57" s="157">
+        <v>23</v>
+      </c>
+      <c r="AA57" s="166">
         <f>X57+AM57</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="AB57" s="217"/>
-      <c r="AD57" s="155">
+      <c r="AB57" s="167"/>
+      <c r="AD57" s="164">
         <f>X57</f>
         <v>0.50694444444444431</v>
       </c>
-      <c r="AE57" s="216"/>
+      <c r="AE57" s="165"/>
       <c r="AF57" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG57" s="157">
+        <v>23</v>
+      </c>
+      <c r="AG57" s="166">
         <f>AA57</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="AH57" s="217"/>
-      <c r="AL57" s="107">
+      <c r="AH57" s="167"/>
+      <c r="AL57" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM57" s="107">
+      <c r="AM57" s="106">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="AN57" s="107">
+      <c r="AN57" s="106">
         <v>3.125E-2</v>
       </c>
-      <c r="AO57" s="111">
+      <c r="AO57" s="110">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:41" s="112" customFormat="1" ht="9" customHeight="1"/>
-    <row r="59" spans="1:41" s="112" customFormat="1" ht="9" customHeight="1" thickBot="1"/>
+    <row r="58" spans="1:41" customFormat="1" ht="9" customHeight="1"/>
+    <row r="59" spans="1:41" customFormat="1" ht="9" customHeight="1" thickBot="1"/>
     <row r="60" spans="1:41" ht="19" customHeight="1" thickBot="1">
-      <c r="A60" s="169" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="170"/>
-      <c r="O60" s="170"/>
-      <c r="P60" s="170"/>
-      <c r="Q60" s="170"/>
-      <c r="R60" s="170"/>
-      <c r="S60" s="170"/>
-      <c r="T60" s="170"/>
-      <c r="U60" s="170"/>
-      <c r="V60" s="170"/>
-      <c r="W60" s="108"/>
-      <c r="X60" s="163">
+      <c r="A60" s="189" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="158"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="158"/>
+      <c r="R60" s="158"/>
+      <c r="S60" s="158"/>
+      <c r="T60" s="158"/>
+      <c r="U60" s="158"/>
+      <c r="V60" s="158"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="196">
         <f>AG51</f>
         <v>0.49305555555555547</v>
       </c>
-      <c r="Y60" s="164"/>
+      <c r="Y60" s="197"/>
       <c r="Z60" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA60" s="165">
+        <v>23</v>
+      </c>
+      <c r="AA60" s="198">
         <f>AD65-AL60</f>
         <v>0.5381944444444442</v>
       </c>
-      <c r="AB60" s="166"/>
-      <c r="AC60" s="108"/>
-      <c r="AD60" s="153"/>
-      <c r="AE60" s="170"/>
+      <c r="AB60" s="199"/>
+      <c r="AC60" s="107"/>
+      <c r="AD60" s="157"/>
+      <c r="AE60" s="158"/>
       <c r="AF60" s="97"/>
-      <c r="AG60" s="153"/>
-      <c r="AH60" s="179"/>
-      <c r="AL60" s="107">
+      <c r="AG60" s="157"/>
+      <c r="AH60" s="159"/>
+      <c r="AL60" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM60" s="107">
+      <c r="AM60" s="106">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="AN60" s="107">
+      <c r="AN60" s="106">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="61" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="A61" s="103"/>
+      <c r="A61" s="102"/>
       <c r="J61" s="98"/>
       <c r="M61" s="99"/>
     </row>
     <row r="62" spans="1:41" ht="22" thickTop="1" thickBot="1">
-      <c r="A62" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="161"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="161"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="161"/>
-      <c r="N62" s="161"/>
-      <c r="O62" s="161"/>
-      <c r="P62" s="161"/>
-      <c r="Q62" s="161"/>
-      <c r="R62" s="161"/>
-      <c r="S62" s="161"/>
-      <c r="T62" s="161"/>
-      <c r="U62" s="161"/>
-      <c r="V62" s="161"/>
-      <c r="W62" s="161"/>
-      <c r="X62" s="161"/>
-      <c r="Y62" s="161"/>
-      <c r="Z62" s="161"/>
-      <c r="AA62" s="161"/>
-      <c r="AB62" s="161"/>
-      <c r="AC62" s="161"/>
-      <c r="AD62" s="161"/>
-      <c r="AE62" s="161"/>
-      <c r="AF62" s="161"/>
-      <c r="AG62" s="161"/>
-      <c r="AH62" s="162"/>
+      <c r="A62" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
+      <c r="Q62" s="169"/>
+      <c r="R62" s="169"/>
+      <c r="S62" s="169"/>
+      <c r="T62" s="169"/>
+      <c r="U62" s="169"/>
+      <c r="V62" s="169"/>
+      <c r="W62" s="169"/>
+      <c r="X62" s="169"/>
+      <c r="Y62" s="169"/>
+      <c r="Z62" s="169"/>
+      <c r="AA62" s="169"/>
+      <c r="AB62" s="169"/>
+      <c r="AC62" s="169"/>
+      <c r="AD62" s="169"/>
+      <c r="AE62" s="169"/>
+      <c r="AF62" s="169"/>
+      <c r="AG62" s="169"/>
+      <c r="AH62" s="170"/>
     </row>
     <row r="63" spans="1:41" ht="10" customHeight="1" thickTop="1">
-      <c r="A63" s="109"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="105"/>
-      <c r="O63" s="110"/>
-      <c r="P63" s="110"/>
-      <c r="Q63" s="109"/>
-      <c r="R63" s="109"/>
-      <c r="S63" s="109"/>
-      <c r="T63" s="105"/>
-      <c r="U63" s="105"/>
-      <c r="V63" s="105"/>
-      <c r="W63" s="105"/>
-      <c r="X63" s="105"/>
-      <c r="Y63" s="105"/>
-      <c r="Z63" s="105"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="109"/>
+      <c r="P63" s="109"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="104"/>
+      <c r="Z63" s="104"/>
       <c r="AA63" s="11"/>
-      <c r="AB63" s="105"/>
+      <c r="AB63" s="104"/>
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
       <c r="AF63" s="13"/>
       <c r="AG63" s="13"/>
-      <c r="AH63" s="105"/>
+      <c r="AH63" s="104"/>
     </row>
     <row r="64" spans="1:41">
-      <c r="A64" s="207" t="s">
+      <c r="A64" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="149"/>
+      <c r="C64" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="151"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="151"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="152"/>
+      <c r="J64" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="151"/>
+      <c r="L64" s="151"/>
+      <c r="M64" s="151"/>
+      <c r="N64" s="152"/>
+      <c r="O64" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="208"/>
-      <c r="C64" s="200" t="s">
+      <c r="P64" s="153"/>
+      <c r="Q64" s="105"/>
+      <c r="R64" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="199"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="199"/>
-      <c r="G64" s="201"/>
-      <c r="H64" s="200" t="s">
+      <c r="S64" s="137"/>
+      <c r="T64" s="137"/>
+      <c r="U64" s="137"/>
+      <c r="V64" s="138"/>
+      <c r="W64" s="105"/>
+      <c r="X64" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="201"/>
-      <c r="J64" s="200" t="s">
+      <c r="Y64" s="155"/>
+      <c r="Z64" s="155"/>
+      <c r="AA64" s="155"/>
+      <c r="AB64" s="156"/>
+      <c r="AC64" s="105"/>
+      <c r="AD64" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="199"/>
-      <c r="L64" s="199"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="201"/>
-      <c r="O64" s="200" t="s">
+      <c r="AE64" s="144"/>
+      <c r="AF64" s="144"/>
+      <c r="AG64" s="144"/>
+      <c r="AH64" s="144"/>
+    </row>
+    <row r="65" spans="1:40">
+      <c r="A65" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="203"/>
-      <c r="Q64" s="106"/>
-      <c r="R64" s="195" t="s">
+      <c r="B65" s="143"/>
+      <c r="C65" s="142">
+        <v>1</v>
+      </c>
+      <c r="D65" s="145"/>
+      <c r="E65" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="S64" s="196"/>
-      <c r="T64" s="196"/>
-      <c r="U64" s="196"/>
-      <c r="V64" s="197"/>
-      <c r="W64" s="106"/>
-      <c r="X64" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y64" s="139"/>
-      <c r="Z64" s="139"/>
-      <c r="AA64" s="139"/>
-      <c r="AB64" s="140"/>
-      <c r="AC64" s="106"/>
-      <c r="AD64" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE64" s="194"/>
-      <c r="AF64" s="194"/>
-      <c r="AG64" s="194"/>
-      <c r="AH64" s="194"/>
-    </row>
-    <row r="65" spans="1:40">
-      <c r="A65" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="151"/>
-      <c r="C65" s="143">
+      <c r="F65" s="145">
+        <v>8</v>
+      </c>
+      <c r="G65" s="143"/>
+      <c r="H65" s="142">
+        <v>8</v>
+      </c>
+      <c r="I65" s="143"/>
+      <c r="J65" s="142">
         <v>1</v>
       </c>
-      <c r="D65" s="144"/>
-      <c r="E65" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="144">
+      <c r="K65" s="145"/>
+      <c r="L65" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" s="145">
         <v>8</v>
       </c>
-      <c r="G65" s="151"/>
-      <c r="H65" s="143">
+      <c r="N65" s="143"/>
+      <c r="O65" s="142">
         <v>8</v>
       </c>
-      <c r="I65" s="151"/>
-      <c r="J65" s="143">
-        <v>1</v>
-      </c>
-      <c r="K65" s="144"/>
-      <c r="L65" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="144">
-        <v>8</v>
-      </c>
-      <c r="N65" s="151"/>
-      <c r="O65" s="143">
-        <v>8</v>
-      </c>
-      <c r="P65" s="151"/>
-      <c r="R65" s="141">
+      <c r="P65" s="143"/>
+      <c r="R65" s="146">
         <f>U65-AN45</f>
         <v>0.49999999999999983</v>
       </c>
-      <c r="S65" s="142"/>
+      <c r="S65" s="147"/>
       <c r="T65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U65" s="188">
+        <v>23</v>
+      </c>
+      <c r="U65" s="134">
         <f>X65-AL65</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="V65" s="189"/>
-      <c r="X65" s="141">
+      <c r="V65" s="135"/>
+      <c r="X65" s="146">
         <f>AG57+AL57</f>
         <v>0.52430555555555536</v>
       </c>
-      <c r="Y65" s="142"/>
+      <c r="Y65" s="147"/>
       <c r="Z65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA65" s="188">
+        <v>23</v>
+      </c>
+      <c r="AA65" s="134">
         <f>X65+AM65</f>
         <v>0.5381944444444442</v>
       </c>
-      <c r="AB65" s="189"/>
-      <c r="AD65" s="141">
+      <c r="AB65" s="135"/>
+      <c r="AD65" s="146">
         <f>AA65+AL65</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="AE65" s="142"/>
+      <c r="AE65" s="147"/>
       <c r="AF65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG65" s="188">
+        <v>23</v>
+      </c>
+      <c r="AG65" s="134">
         <f>AD65+AN65</f>
         <v>0.56597222222222199</v>
       </c>
-      <c r="AH65" s="189"/>
-      <c r="AL65" s="107">
+      <c r="AH65" s="135"/>
+      <c r="AL65" s="106">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AM65" s="107">
+      <c r="AM65" s="106">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="AN65" s="107">
+      <c r="AN65" s="106">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="66" spans="1:40" ht="24" customHeight="1">
-      <c r="A66" s="218" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="218"/>
-      <c r="C66" s="218"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
-      <c r="G66" s="218"/>
-      <c r="H66" s="218"/>
-      <c r="I66" s="218"/>
-      <c r="J66" s="218"/>
-      <c r="K66" s="218"/>
-      <c r="L66" s="218"/>
-      <c r="M66" s="218"/>
-      <c r="N66" s="218"/>
-      <c r="O66" s="218"/>
-      <c r="P66" s="218"/>
-      <c r="Q66" s="218"/>
-      <c r="R66" s="218"/>
-      <c r="S66" s="218"/>
-      <c r="T66" s="218"/>
-      <c r="U66" s="218"/>
-      <c r="V66" s="218"/>
-      <c r="W66" s="218"/>
-      <c r="X66" s="218"/>
-      <c r="Y66" s="218"/>
-      <c r="Z66" s="218"/>
-      <c r="AA66" s="218"/>
-      <c r="AB66" s="218"/>
-      <c r="AC66" s="218"/>
-      <c r="AD66" s="218"/>
-      <c r="AE66" s="218"/>
-      <c r="AF66" s="218"/>
-      <c r="AG66" s="218"/>
-      <c r="AH66" s="218"/>
+      <c r="A66" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="141"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="141"/>
+      <c r="J66" s="141"/>
+      <c r="K66" s="141"/>
+      <c r="L66" s="141"/>
+      <c r="M66" s="141"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="141"/>
+      <c r="P66" s="141"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141"/>
+      <c r="W66" s="141"/>
+      <c r="X66" s="141"/>
+      <c r="Y66" s="141"/>
+      <c r="Z66" s="141"/>
+      <c r="AA66" s="141"/>
+      <c r="AB66" s="141"/>
+      <c r="AC66" s="141"/>
+      <c r="AD66" s="141"/>
+      <c r="AE66" s="141"/>
+      <c r="AF66" s="141"/>
+      <c r="AG66" s="141"/>
+      <c r="AH66" s="141"/>
     </row>
     <row r="67" spans="1:40" ht="10" customHeight="1">
       <c r="K67" s="99"/>
@@ -10654,51 +10647,50 @@
       <c r="M67" s="99"/>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="145" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="145"/>
-      <c r="F68" s="145"/>
-      <c r="G68" s="145"/>
-      <c r="H68" s="145"/>
-      <c r="I68" s="145"/>
-      <c r="J68" s="145"/>
-      <c r="K68" s="145"/>
-      <c r="L68" s="145"/>
-      <c r="M68" s="145"/>
-      <c r="N68" s="145"/>
-      <c r="O68" s="145"/>
-      <c r="P68" s="145"/>
-      <c r="Q68" s="145"/>
-      <c r="R68" s="145"/>
-      <c r="S68" s="145"/>
-      <c r="T68" s="145"/>
-      <c r="U68" s="145"/>
-      <c r="V68" s="145"/>
-      <c r="W68" s="145"/>
-      <c r="X68" s="145"/>
-      <c r="Y68" s="145"/>
-      <c r="Z68" s="145"/>
-      <c r="AA68" s="145"/>
-      <c r="AB68" s="145"/>
-      <c r="AC68" s="100"/>
-      <c r="AD68" s="146">
+      <c r="A68" s="195" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="195"/>
+      <c r="I68" s="195"/>
+      <c r="J68" s="195"/>
+      <c r="K68" s="195"/>
+      <c r="L68" s="195"/>
+      <c r="M68" s="195"/>
+      <c r="N68" s="195"/>
+      <c r="O68" s="195"/>
+      <c r="P68" s="195"/>
+      <c r="Q68" s="195"/>
+      <c r="R68" s="195"/>
+      <c r="S68" s="195"/>
+      <c r="T68" s="195"/>
+      <c r="U68" s="195"/>
+      <c r="V68" s="195"/>
+      <c r="W68" s="195"/>
+      <c r="X68" s="195"/>
+      <c r="Y68" s="195"/>
+      <c r="Z68" s="195"/>
+      <c r="AA68" s="195"/>
+      <c r="AB68" s="195"/>
+      <c r="AD68" s="130">
         <f>AG65</f>
         <v>0.56597222222222199</v>
       </c>
-      <c r="AE68" s="147"/>
-      <c r="AF68" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG68" s="148">
+      <c r="AE68" s="131"/>
+      <c r="AF68" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG68" s="132">
         <f>AD68+AL68</f>
         <v>0.57291666666666641</v>
       </c>
-      <c r="AH68" s="149"/>
-      <c r="AL68" s="111">
+      <c r="AH68" s="133"/>
+      <c r="AL68" s="110">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -10718,7 +10710,7 @@
     </row>
     <row r="70" spans="1:40">
       <c r="A70" s="99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:40">
@@ -10726,7 +10718,7 @@
       <c r="L71" s="99"/>
       <c r="M71" s="99"/>
       <c r="AC71" s="99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:40">
@@ -10772,7 +10764,7 @@
     <row r="80" spans="1:40">
       <c r="K80" s="99"/>
       <c r="L80" s="99" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M80" s="99"/>
     </row>
@@ -10787,6 +10779,246 @@
     <row r="103" s="99" customFormat="1"/>
   </sheetData>
   <mergeCells count="264">
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A54:AB54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="A68:AB68"/>
+    <mergeCell ref="AD68:AE68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="A39:AH39"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="A62:AH62"/>
+    <mergeCell ref="A26:AH26"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A34:V35"/>
+    <mergeCell ref="A56:V57"/>
+    <mergeCell ref="A60:V60"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A23:V24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A21:AB21"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="A9:AH9"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A7:AH7"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="X43:AB43"/>
+    <mergeCell ref="AD60:AE60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="X56:AB56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="A46:AH46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="X50:AB50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A48:AH48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A66:AH66"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="X64:AB64"/>
+    <mergeCell ref="R64:V64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="AD65:AE65"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AG65:AH65"/>
@@ -10811,246 +11043,6 @@
     <mergeCell ref="R50:V50"/>
     <mergeCell ref="AD51:AE51"/>
     <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="A66:AH66"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="X64:AB64"/>
-    <mergeCell ref="R64:V64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="AD65:AE65"/>
-    <mergeCell ref="AD60:AE60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="X56:AB56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="A46:AH46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="X50:AB50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A48:AH48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="X43:AB43"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="A9:AH9"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A7:AH7"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A21:AB21"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A62:AH62"/>
-    <mergeCell ref="A26:AH26"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A34:V35"/>
-    <mergeCell ref="A56:V57"/>
-    <mergeCell ref="A60:V60"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A23:V24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A54:AB54"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="A68:AB68"/>
-    <mergeCell ref="AD68:AE68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="A39:AH39"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11089,48 +11081,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1">
-      <c r="A1" s="219" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
+      <c r="A1" s="263" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
     </row>
     <row r="2" spans="1:9" ht="20">
-      <c r="A2" s="220" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
+      <c r="A2" s="264" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1"/>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="235" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
+      <c r="A4" s="221" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="B5" s="72"/>
       <c r="C5" s="74"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
       <c r="G5" s="74"/>
       <c r="H5" s="15">
         <v>2.0833333333333332E-2</v>
@@ -11139,8 +11131,7 @@
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="B6" s="73"/>
       <c r="C6" s="75"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="75"/>
       <c r="G6" s="75"/>
       <c r="H6" s="15">
@@ -11150,704 +11141,696 @@
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="B7" s="73"/>
       <c r="C7" s="75"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="B8" s="73"/>
       <c r="C8" s="75"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="B9" s="73"/>
       <c r="C9" s="75"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="222"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="B10" s="73"/>
       <c r="C10" s="75"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="B11" s="73"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="B12" s="73"/>
       <c r="C12" s="75"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D13" s="114"/>
-    </row>
+      <c r="H12" s="266"/>
+      <c r="I12" s="266"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H14" s="86" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="223" t="s">
-        <v>97</v>
+      <c r="A15" s="237" t="s">
+        <v>93</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="81">
         <v>1</v>
       </c>
-      <c r="D15" s="238">
+      <c r="D15" s="231">
         <f>SUM(C15:C21)</f>
         <v>10</v>
       </c>
-      <c r="E15" s="241" t="s">
-        <v>97</v>
+      <c r="E15" s="240" t="s">
+        <v>93</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15" s="82">
         <v>1</v>
       </c>
-      <c r="H15" s="244">
+      <c r="H15" s="228">
         <f>SUM(G15:G21)</f>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="236"/>
+      <c r="A16" s="255"/>
       <c r="B16" s="77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" s="77">
         <v>1</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="242"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="259"/>
       <c r="F16" s="77" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G16" s="78">
         <v>2</v>
       </c>
-      <c r="H16" s="245"/>
+      <c r="H16" s="261"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="236"/>
+      <c r="A17" s="255"/>
       <c r="B17" s="77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="77">
         <v>1</v>
       </c>
-      <c r="D17" s="239"/>
-      <c r="E17" s="242"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="259"/>
       <c r="F17" s="77" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="78">
         <v>7</v>
       </c>
-      <c r="H17" s="245"/>
+      <c r="H17" s="261"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="236"/>
+      <c r="A18" s="255"/>
       <c r="B18" s="77" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="77">
         <v>1</v>
       </c>
-      <c r="D18" s="239"/>
-      <c r="E18" s="242"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="259"/>
       <c r="F18" s="77"/>
       <c r="G18" s="78"/>
-      <c r="H18" s="245"/>
+      <c r="H18" s="261"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
-      <c r="A19" s="236"/>
+      <c r="A19" s="255"/>
       <c r="B19" s="77" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="77">
         <v>4</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="242"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="259"/>
       <c r="F19" s="77"/>
       <c r="G19" s="78"/>
-      <c r="H19" s="245"/>
+      <c r="H19" s="261"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1">
-      <c r="A20" s="236"/>
+      <c r="A20" s="255"/>
       <c r="B20" s="77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C20" s="77">
         <v>1</v>
       </c>
-      <c r="D20" s="239"/>
-      <c r="E20" s="242"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="259"/>
       <c r="F20" s="77"/>
       <c r="G20" s="78"/>
-      <c r="H20" s="245"/>
+      <c r="H20" s="261"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="237"/>
+      <c r="A21" s="256"/>
       <c r="B21" s="83" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
       </c>
-      <c r="D21" s="240"/>
-      <c r="E21" s="243"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="260"/>
       <c r="F21" s="83"/>
       <c r="G21" s="84"/>
-      <c r="H21" s="246"/>
+      <c r="H21" s="262"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1">
-      <c r="A22" s="223" t="s">
-        <v>98</v>
+      <c r="A22" s="237" t="s">
+        <v>94</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="81">
         <v>2</v>
       </c>
-      <c r="D22" s="238">
+      <c r="D22" s="231">
         <f>SUM(C22:C29)</f>
         <v>11</v>
       </c>
-      <c r="E22" s="226" t="s">
-        <v>98</v>
+      <c r="E22" s="246" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G22" s="82">
         <v>1</v>
       </c>
-      <c r="H22" s="232">
+      <c r="H22" s="222">
         <f>SUM(G22:G27)</f>
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1">
-      <c r="A23" s="268"/>
+      <c r="A23" s="245"/>
       <c r="B23" s="79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C23" s="79">
         <v>1</v>
       </c>
-      <c r="D23" s="266"/>
-      <c r="E23" s="269"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="247"/>
       <c r="F23" s="79" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G23" s="80">
         <v>4</v>
       </c>
-      <c r="H23" s="233"/>
+      <c r="H23" s="223"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1">
-      <c r="A24" s="268"/>
+      <c r="A24" s="245"/>
       <c r="B24" s="79" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C24" s="79">
         <v>1</v>
       </c>
-      <c r="D24" s="266"/>
-      <c r="E24" s="269"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="247"/>
       <c r="F24" s="79" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G24" s="80">
         <v>2</v>
       </c>
-      <c r="H24" s="233"/>
+      <c r="H24" s="223"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="268"/>
+      <c r="A25" s="245"/>
       <c r="B25" s="79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" s="79">
         <v>1</v>
       </c>
-      <c r="D25" s="266"/>
-      <c r="E25" s="269"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="247"/>
       <c r="F25" s="79" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G25" s="80">
         <v>1</v>
       </c>
-      <c r="H25" s="233"/>
+      <c r="H25" s="223"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="268"/>
+      <c r="A26" s="245"/>
       <c r="B26" s="79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" s="79">
         <v>1</v>
       </c>
-      <c r="D26" s="266"/>
-      <c r="E26" s="269"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="247"/>
       <c r="F26" s="79" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G26" s="80">
         <v>2</v>
       </c>
-      <c r="H26" s="233"/>
+      <c r="H26" s="223"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
-      <c r="A27" s="268"/>
+      <c r="A27" s="245"/>
       <c r="B27" s="79" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" s="79">
         <v>2</v>
       </c>
-      <c r="D27" s="266"/>
-      <c r="E27" s="269"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="247"/>
       <c r="F27" s="79" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G27" s="80">
         <v>1</v>
       </c>
-      <c r="H27" s="233"/>
+      <c r="H27" s="223"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1">
-      <c r="A28" s="268"/>
+      <c r="A28" s="245"/>
       <c r="B28" s="79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="79">
         <v>1</v>
       </c>
-      <c r="D28" s="266"/>
-      <c r="E28" s="269"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="247"/>
       <c r="F28" s="79"/>
       <c r="G28" s="80"/>
-      <c r="H28" s="233"/>
+      <c r="H28" s="223"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="263"/>
+      <c r="A29" s="239"/>
       <c r="B29" s="83" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" s="83">
         <v>2</v>
       </c>
-      <c r="D29" s="267"/>
-      <c r="E29" s="270"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="248"/>
       <c r="F29" s="83"/>
       <c r="G29" s="84"/>
-      <c r="H29" s="234"/>
+      <c r="H29" s="224"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
-      <c r="A30" s="223" t="s">
-        <v>99</v>
+      <c r="A30" s="237" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="81">
         <v>1</v>
       </c>
-      <c r="D30" s="238">
+      <c r="D30" s="231">
         <f>SUM(C30:C37)</f>
         <v>11</v>
       </c>
-      <c r="E30" s="226" t="s">
-        <v>99</v>
+      <c r="E30" s="246" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G30" s="82">
         <v>4</v>
       </c>
-      <c r="H30" s="244">
+      <c r="H30" s="228">
         <f>SUM(G30:G37)</f>
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="224"/>
+      <c r="A31" s="238"/>
       <c r="B31" s="77" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C31" s="77">
         <v>1</v>
       </c>
-      <c r="D31" s="258"/>
-      <c r="E31" s="227"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="250"/>
       <c r="F31" s="77" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G31" s="78">
         <v>1</v>
       </c>
-      <c r="H31" s="256"/>
+      <c r="H31" s="229"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="224"/>
+      <c r="A32" s="238"/>
       <c r="B32" s="77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="77">
         <v>1</v>
       </c>
-      <c r="D32" s="258"/>
-      <c r="E32" s="227"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="250"/>
       <c r="F32" s="77" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G32" s="78">
         <v>1</v>
       </c>
-      <c r="H32" s="256"/>
+      <c r="H32" s="229"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
-      <c r="A33" s="224"/>
+      <c r="A33" s="238"/>
       <c r="B33" s="77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C33" s="77">
         <v>1</v>
       </c>
-      <c r="D33" s="258"/>
-      <c r="E33" s="227"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="250"/>
       <c r="F33" s="77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G33" s="78">
         <v>1</v>
       </c>
-      <c r="H33" s="256"/>
+      <c r="H33" s="229"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1">
-      <c r="A34" s="224"/>
+      <c r="A34" s="238"/>
       <c r="B34" s="77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" s="77">
         <v>1</v>
       </c>
-      <c r="D34" s="258"/>
-      <c r="E34" s="227"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="250"/>
       <c r="F34" s="77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G34" s="78">
         <v>1</v>
       </c>
-      <c r="H34" s="256"/>
+      <c r="H34" s="229"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="224"/>
+      <c r="A35" s="238"/>
       <c r="B35" s="77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="77">
         <v>6</v>
       </c>
-      <c r="D35" s="258"/>
-      <c r="E35" s="227"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="250"/>
       <c r="F35" s="77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G35" s="78">
         <v>1</v>
       </c>
-      <c r="H35" s="256"/>
+      <c r="H35" s="229"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="224"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="227"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="250"/>
       <c r="F36" s="77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G36" s="78">
         <v>1</v>
       </c>
-      <c r="H36" s="256"/>
+      <c r="H36" s="229"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="225"/>
+      <c r="A37" s="249"/>
       <c r="B37" s="87"/>
       <c r="C37" s="87"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="228"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="251"/>
       <c r="F37" s="87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G37" s="85">
         <v>1</v>
       </c>
-      <c r="H37" s="257"/>
+      <c r="H37" s="230"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1">
-      <c r="A38" s="260" t="s">
-        <v>100</v>
+      <c r="A38" s="234" t="s">
+        <v>96</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C38" s="81">
         <v>6</v>
       </c>
-      <c r="D38" s="253">
+      <c r="D38" s="225">
         <f>SUM(C38:C42)</f>
         <v>10</v>
       </c>
-      <c r="E38" s="229" t="s">
-        <v>100</v>
+      <c r="E38" s="252" t="s">
+        <v>96</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" s="82">
         <v>3</v>
       </c>
-      <c r="H38" s="232">
+      <c r="H38" s="222">
         <f>SUM(G38:G41)</f>
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1">
-      <c r="A39" s="261"/>
+      <c r="A39" s="235"/>
       <c r="B39" s="77" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C39" s="77">
         <v>1</v>
       </c>
-      <c r="D39" s="254"/>
-      <c r="E39" s="230"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="253"/>
       <c r="F39" s="77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G39" s="78">
         <v>5</v>
       </c>
-      <c r="H39" s="233"/>
+      <c r="H39" s="223"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1">
-      <c r="A40" s="261"/>
+      <c r="A40" s="235"/>
       <c r="B40" s="77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C40" s="77">
         <v>1</v>
       </c>
-      <c r="D40" s="254"/>
-      <c r="E40" s="230"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="253"/>
       <c r="F40" s="77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G40" s="78">
         <v>2</v>
       </c>
-      <c r="H40" s="233"/>
+      <c r="H40" s="223"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="261"/>
+      <c r="A41" s="235"/>
       <c r="B41" s="77" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C41" s="77">
         <v>1</v>
       </c>
-      <c r="D41" s="254"/>
-      <c r="E41" s="230"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="253"/>
       <c r="F41" s="77" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G41" s="78">
         <v>1</v>
       </c>
-      <c r="H41" s="233"/>
+      <c r="H41" s="223"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A42" s="262"/>
+      <c r="A42" s="236"/>
       <c r="B42" s="83" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
       </c>
-      <c r="D42" s="255"/>
-      <c r="E42" s="231"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="254"/>
       <c r="F42" s="83"/>
       <c r="G42" s="84"/>
-      <c r="H42" s="234"/>
+      <c r="H42" s="224"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1">
-      <c r="A43" s="223" t="s">
-        <v>101</v>
+      <c r="A43" s="237" t="s">
+        <v>97</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C43" s="81">
         <v>12</v>
       </c>
-      <c r="D43" s="253">
+      <c r="D43" s="225">
         <f>SUM(C43:C48)</f>
         <v>12</v>
       </c>
-      <c r="E43" s="241" t="s">
-        <v>68</v>
+      <c r="E43" s="240" t="s">
+        <v>64</v>
       </c>
       <c r="F43" s="81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G43" s="82">
         <v>1</v>
       </c>
-      <c r="H43" s="232">
+      <c r="H43" s="222">
         <f>SUM(G43:G48)</f>
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1">
-      <c r="A44" s="224"/>
+      <c r="A44" s="238"/>
       <c r="B44" s="77"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="254"/>
-      <c r="E44" s="264"/>
+      <c r="D44" s="226"/>
+      <c r="E44" s="241"/>
       <c r="F44" s="77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G44" s="78">
         <v>1</v>
       </c>
-      <c r="H44" s="233"/>
+      <c r="H44" s="223"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1">
-      <c r="A45" s="224"/>
+      <c r="A45" s="238"/>
       <c r="B45" s="77"/>
       <c r="C45" s="77"/>
-      <c r="D45" s="254"/>
-      <c r="E45" s="264"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="241"/>
       <c r="F45" s="77" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G45" s="78">
         <v>1</v>
       </c>
-      <c r="H45" s="233"/>
+      <c r="H45" s="223"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1">
-      <c r="A46" s="224"/>
+      <c r="A46" s="238"/>
       <c r="B46" s="77"/>
       <c r="C46" s="77"/>
-      <c r="D46" s="254"/>
-      <c r="E46" s="264"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="241"/>
       <c r="F46" s="77" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G46" s="78">
         <v>1</v>
       </c>
-      <c r="H46" s="233"/>
+      <c r="H46" s="223"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1">
-      <c r="A47" s="224"/>
+      <c r="A47" s="238"/>
       <c r="B47" s="77"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="264"/>
+      <c r="D47" s="226"/>
+      <c r="E47" s="241"/>
       <c r="F47" s="77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G47" s="78">
         <v>5</v>
       </c>
-      <c r="H47" s="233"/>
+      <c r="H47" s="223"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="263"/>
+      <c r="A48" s="239"/>
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
-      <c r="D48" s="255"/>
-      <c r="E48" s="265"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="242"/>
       <c r="F48" s="83" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G48" s="84">
         <v>1</v>
       </c>
-      <c r="H48" s="234"/>
+      <c r="H48" s="224"/>
     </row>
     <row r="49" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A49" s="90" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C49" s="79">
         <v>11</v>
@@ -11857,10 +11840,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F49" s="79" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G49" s="80">
         <v>12</v>
@@ -11871,51 +11854,69 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="16" customHeight="1">
-      <c r="A50" s="247" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="249" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="249"/>
-      <c r="D50" s="249"/>
-      <c r="E50" s="249"/>
-      <c r="F50" s="249"/>
-      <c r="G50" s="249"/>
-      <c r="H50" s="250"/>
+      <c r="A50" s="215" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="217" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="217"/>
+      <c r="D50" s="217"/>
+      <c r="E50" s="217"/>
+      <c r="F50" s="217"/>
+      <c r="G50" s="217"/>
+      <c r="H50" s="218"/>
     </row>
     <row r="51" spans="1:16" ht="16" customHeight="1" thickBot="1">
-      <c r="A51" s="248"/>
-      <c r="B51" s="251"/>
-      <c r="C51" s="251"/>
-      <c r="D51" s="251"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="251"/>
-      <c r="G51" s="251"/>
-      <c r="H51" s="252"/>
+      <c r="A51" s="216"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="219"/>
+      <c r="H51" s="220"/>
     </row>
     <row r="52" spans="1:16">
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:16">
       <c r="E53" s="14"/>
-      <c r="O53" s="235"/>
-      <c r="P53" s="235"/>
+      <c r="O53" s="221"/>
+      <c r="P53" s="221"/>
     </row>
     <row r="55" spans="1:16">
       <c r="B55" s="14"/>
     </row>
     <row r="65" spans="12:16">
-      <c r="O65" s="235"/>
-      <c r="P65" s="235"/>
+      <c r="O65" s="221"/>
+      <c r="P65" s="221"/>
     </row>
     <row r="80" spans="12:16">
       <c r="L80" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="H15:H21"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="O53:P53"/>
@@ -11932,24 +11933,6 @@
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="E22:E29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="H15:H21"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -11984,155 +11967,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25" customHeight="1">
-      <c r="A1" s="219" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
+      <c r="A1" s="263" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="263"/>
+      <c r="T1" s="263"/>
+      <c r="U1" s="263"/>
+      <c r="V1" s="263"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="263"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="263"/>
+      <c r="AB1" s="263"/>
     </row>
     <row r="2" spans="1:30" ht="20">
-      <c r="A2" s="220" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
+      <c r="A2" s="264" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="264"/>
+      <c r="AB2" s="264"/>
     </row>
     <row r="3" spans="1:30" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:30" ht="18" customHeight="1" thickBot="1">
-      <c r="C4" s="288" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="290" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="291" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="291"/>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="291"/>
-      <c r="R4" s="291"/>
-      <c r="S4" s="292" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="292"/>
-      <c r="U4" s="292"/>
-      <c r="V4" s="292"/>
-      <c r="W4" s="292"/>
-      <c r="X4" s="292"/>
-      <c r="Y4" s="293"/>
+      <c r="C4" s="285" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="286"/>
+      <c r="E4" s="287" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="288"/>
+      <c r="N4" s="288"/>
+      <c r="O4" s="288"/>
+      <c r="P4" s="288"/>
+      <c r="Q4" s="288"/>
+      <c r="R4" s="288"/>
+      <c r="S4" s="289" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="289"/>
+      <c r="U4" s="289"/>
+      <c r="V4" s="289"/>
+      <c r="W4" s="289"/>
+      <c r="X4" s="289"/>
+      <c r="Y4" s="290"/>
       <c r="AA4" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="18" customHeight="1">
-      <c r="C5" s="223" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="285">
+      <c r="C5" s="237" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="291"/>
+      <c r="E5" s="275">
         <f>I5-AD5</f>
         <v>0.59722222222222221</v>
       </c>
-      <c r="F5" s="286"/>
-      <c r="G5" s="287"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="277"/>
       <c r="H5" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="294">
+        <v>27</v>
+      </c>
+      <c r="I5" s="278">
         <f>L5-AC5</f>
         <v>0.61805555555555558</v>
       </c>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="285">
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="275">
         <f>P5-AD5</f>
         <v>0.62152777777777779</v>
       </c>
-      <c r="M5" s="286"/>
-      <c r="N5" s="287"/>
+      <c r="M5" s="276"/>
+      <c r="N5" s="277"/>
       <c r="O5" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="294">
+        <v>27</v>
+      </c>
+      <c r="P5" s="278">
         <f>S5-AC5</f>
         <v>0.64236111111111116</v>
       </c>
-      <c r="Q5" s="295"/>
-      <c r="R5" s="295"/>
-      <c r="S5" s="285">
+      <c r="Q5" s="279"/>
+      <c r="R5" s="279"/>
+      <c r="S5" s="275">
         <v>0.64583333333333337</v>
       </c>
-      <c r="T5" s="286"/>
-      <c r="U5" s="287"/>
+      <c r="T5" s="276"/>
+      <c r="U5" s="277"/>
       <c r="V5" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="294">
+        <v>27</v>
+      </c>
+      <c r="W5" s="278">
         <f>S5+$AA$4</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="X5" s="295"/>
-      <c r="Y5" s="297"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="280"/>
       <c r="AA5" s="15">
         <v>3.472222222222222E-3</v>
       </c>
@@ -12144,334 +12127,379 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1">
-      <c r="C6" s="224" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="283"/>
-      <c r="E6" s="271">
+      <c r="C6" s="238" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="292"/>
+      <c r="E6" s="281">
         <f>I5</f>
         <v>0.61805555555555558</v>
       </c>
-      <c r="F6" s="272"/>
-      <c r="G6" s="273"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="283"/>
       <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="274">
+        <v>27</v>
+      </c>
+      <c r="I6" s="267">
         <f t="shared" ref="I6:I11" si="0">E6+$AA$4</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="J6" s="275"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="271">
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="281">
         <f>P5</f>
         <v>0.64236111111111116</v>
       </c>
-      <c r="M6" s="272"/>
-      <c r="N6" s="273"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="283"/>
       <c r="O6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="274">
+        <v>27</v>
+      </c>
+      <c r="P6" s="267">
         <f>L6+$AA$4</f>
         <v>0.66319444444444453</v>
       </c>
-      <c r="Q6" s="275"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="271">
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="281">
         <f t="shared" ref="S6:S11" si="1">P6+$AA$5</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="T6" s="272"/>
-      <c r="U6" s="273"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="283"/>
       <c r="V6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="274">
+        <v>27</v>
+      </c>
+      <c r="W6" s="267">
         <f t="shared" ref="W6:W11" si="2">S6+$AA$4</f>
         <v>0.68750000000000011</v>
       </c>
-      <c r="X6" s="275"/>
-      <c r="Y6" s="281"/>
-      <c r="AA6" s="222"/>
-      <c r="AB6" s="222"/>
-      <c r="AC6" s="222"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="284"/>
+      <c r="AA6" s="266"/>
+      <c r="AB6" s="266"/>
+      <c r="AC6" s="266"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1">
-      <c r="C7" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="283"/>
-      <c r="E7" s="271">
+      <c r="C7" s="238" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="292"/>
+      <c r="E7" s="281">
         <f t="shared" ref="E7:E11" si="3">I6</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="F7" s="272"/>
-      <c r="G7" s="273"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="283"/>
       <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="274">
+        <v>27</v>
+      </c>
+      <c r="I7" s="267">
         <f t="shared" si="0"/>
         <v>0.65972222222222232</v>
       </c>
-      <c r="J7" s="275"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="271">
+      <c r="J7" s="268"/>
+      <c r="K7" s="268"/>
+      <c r="L7" s="281">
         <f t="shared" ref="L7" si="4">P6</f>
         <v>0.66319444444444453</v>
       </c>
-      <c r="M7" s="272"/>
-      <c r="N7" s="273"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="283"/>
       <c r="O7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="274">
+        <v>27</v>
+      </c>
+      <c r="P7" s="267">
         <f>L7+$AA$4</f>
         <v>0.6840277777777779</v>
       </c>
-      <c r="Q7" s="275"/>
-      <c r="R7" s="275"/>
-      <c r="S7" s="271">
+      <c r="Q7" s="268"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="281">
         <f t="shared" si="1"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="T7" s="272"/>
-      <c r="U7" s="273"/>
+      <c r="T7" s="282"/>
+      <c r="U7" s="283"/>
       <c r="V7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="274">
+        <v>27</v>
+      </c>
+      <c r="W7" s="267">
         <f t="shared" si="2"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="X7" s="275"/>
-      <c r="Y7" s="281"/>
-      <c r="AA7" s="222"/>
-      <c r="AB7" s="222"/>
-      <c r="AC7" s="222"/>
+      <c r="X7" s="268"/>
+      <c r="Y7" s="284"/>
+      <c r="AA7" s="266"/>
+      <c r="AB7" s="266"/>
+      <c r="AC7" s="266"/>
     </row>
     <row r="8" spans="1:30" ht="18" customHeight="1">
-      <c r="C8" s="224" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="283"/>
-      <c r="E8" s="271">
+      <c r="C8" s="238" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="292"/>
+      <c r="E8" s="281">
         <f t="shared" si="3"/>
         <v>0.65972222222222232</v>
       </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="273"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="283"/>
       <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="274">
+        <v>27</v>
+      </c>
+      <c r="I8" s="267">
         <f t="shared" si="0"/>
         <v>0.68055555555555569</v>
       </c>
-      <c r="J8" s="275"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="271">
+      <c r="J8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="281">
         <f t="shared" ref="L8:L11" si="5">P7</f>
         <v>0.6840277777777779</v>
       </c>
-      <c r="M8" s="272"/>
-      <c r="N8" s="273"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="283"/>
       <c r="O8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="274">
+        <v>27</v>
+      </c>
+      <c r="P8" s="267">
         <f t="shared" ref="P8:P11" si="6">L8+$AA$4</f>
         <v>0.70486111111111127</v>
       </c>
-      <c r="Q8" s="275"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="271">
+      <c r="Q8" s="268"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="281">
         <f t="shared" si="1"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="T8" s="272"/>
-      <c r="U8" s="273"/>
+      <c r="T8" s="282"/>
+      <c r="U8" s="283"/>
       <c r="V8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="274">
+        <v>27</v>
+      </c>
+      <c r="W8" s="267">
         <f t="shared" si="2"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="281"/>
-      <c r="AA8" s="222"/>
-      <c r="AB8" s="222"/>
-      <c r="AC8" s="222"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="284"/>
+      <c r="AA8" s="266"/>
+      <c r="AB8" s="266"/>
+      <c r="AC8" s="266"/>
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1">
-      <c r="C9" s="224" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="283"/>
-      <c r="E9" s="271">
+      <c r="C9" s="238" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="292"/>
+      <c r="E9" s="281">
         <f t="shared" si="3"/>
         <v>0.68055555555555569</v>
       </c>
-      <c r="F9" s="272"/>
-      <c r="G9" s="273"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="283"/>
       <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="274">
+        <v>27</v>
+      </c>
+      <c r="I9" s="267">
         <f t="shared" si="0"/>
         <v>0.70138888888888906</v>
       </c>
-      <c r="J9" s="275"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="271">
+      <c r="J9" s="268"/>
+      <c r="K9" s="268"/>
+      <c r="L9" s="281">
         <f t="shared" si="5"/>
         <v>0.70486111111111127</v>
       </c>
-      <c r="M9" s="272"/>
-      <c r="N9" s="273"/>
+      <c r="M9" s="282"/>
+      <c r="N9" s="283"/>
       <c r="O9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="274">
+        <v>27</v>
+      </c>
+      <c r="P9" s="267">
         <f t="shared" si="6"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="Q9" s="275"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="271">
+      <c r="Q9" s="268"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="281">
         <f t="shared" si="1"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="T9" s="272"/>
-      <c r="U9" s="273"/>
+      <c r="T9" s="282"/>
+      <c r="U9" s="283"/>
       <c r="V9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="274">
+        <v>27</v>
+      </c>
+      <c r="W9" s="267">
         <f t="shared" si="2"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="X9" s="275"/>
-      <c r="Y9" s="281"/>
-      <c r="AA9" s="222"/>
-      <c r="AB9" s="222"/>
-      <c r="AC9" s="222"/>
+      <c r="X9" s="268"/>
+      <c r="Y9" s="284"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
     </row>
     <row r="10" spans="1:30" ht="18" customHeight="1">
-      <c r="C10" s="224" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="283"/>
-      <c r="E10" s="271">
+      <c r="C10" s="238" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="292"/>
+      <c r="E10" s="281">
         <f t="shared" si="3"/>
         <v>0.70138888888888906</v>
       </c>
-      <c r="F10" s="272"/>
-      <c r="G10" s="273"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="283"/>
       <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="274">
+        <v>27</v>
+      </c>
+      <c r="I10" s="267">
         <f t="shared" si="0"/>
         <v>0.72222222222222243</v>
       </c>
-      <c r="J10" s="275"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="271">
+      <c r="J10" s="268"/>
+      <c r="K10" s="268"/>
+      <c r="L10" s="281">
         <f t="shared" si="5"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="M10" s="272"/>
-      <c r="N10" s="273"/>
+      <c r="M10" s="282"/>
+      <c r="N10" s="283"/>
       <c r="O10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="274">
+        <v>27</v>
+      </c>
+      <c r="P10" s="267">
         <f t="shared" si="6"/>
         <v>0.74652777777777801</v>
       </c>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="271">
+      <c r="Q10" s="268"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="281">
         <f t="shared" si="1"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="T10" s="272"/>
-      <c r="U10" s="273"/>
+      <c r="T10" s="282"/>
+      <c r="U10" s="283"/>
       <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="274">
+        <v>27</v>
+      </c>
+      <c r="W10" s="267">
         <f t="shared" si="2"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="X10" s="275"/>
-      <c r="Y10" s="281"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="222"/>
+      <c r="X10" s="268"/>
+      <c r="Y10" s="284"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
     </row>
     <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1">
-      <c r="C11" s="248" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="284"/>
-      <c r="E11" s="276">
+      <c r="C11" s="216" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="293"/>
+      <c r="E11" s="269">
         <f t="shared" si="3"/>
         <v>0.72222222222222243</v>
       </c>
-      <c r="F11" s="277"/>
-      <c r="G11" s="278"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="271"/>
       <c r="H11" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="279">
+        <v>27</v>
+      </c>
+      <c r="I11" s="272">
         <f t="shared" si="0"/>
         <v>0.7430555555555558</v>
       </c>
-      <c r="J11" s="280"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="276">
+      <c r="J11" s="273"/>
+      <c r="K11" s="273"/>
+      <c r="L11" s="269">
         <f t="shared" si="5"/>
         <v>0.74652777777777801</v>
       </c>
-      <c r="M11" s="277"/>
-      <c r="N11" s="278"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="271"/>
       <c r="O11" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="279">
+        <v>27</v>
+      </c>
+      <c r="P11" s="272">
         <f t="shared" si="6"/>
         <v>0.76736111111111138</v>
       </c>
-      <c r="Q11" s="280"/>
-      <c r="R11" s="280"/>
-      <c r="S11" s="276">
+      <c r="Q11" s="273"/>
+      <c r="R11" s="273"/>
+      <c r="S11" s="269">
         <f t="shared" si="1"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="T11" s="277"/>
-      <c r="U11" s="278"/>
+      <c r="T11" s="270"/>
+      <c r="U11" s="271"/>
       <c r="V11" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="279">
+        <v>27</v>
+      </c>
+      <c r="W11" s="272">
         <f t="shared" si="2"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="X11" s="280"/>
-      <c r="Y11" s="296"/>
-      <c r="AA11" s="222"/>
-      <c r="AB11" s="222"/>
-      <c r="AC11" s="222"/>
+      <c r="X11" s="273"/>
+      <c r="Y11" s="274"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
     </row>
     <row r="14" spans="1:30">
       <c r="I14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="A2:AB2"/>
     <mergeCell ref="AA6:AC6"/>
     <mergeCell ref="AA7:AC7"/>
@@ -12488,51 +12516,6 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -12542,6 +12525,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="952e7e5e-963e-4d92-84b7-491b93135911">
@@ -12557,15 +12549,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12812,23 +12795,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5395B1C6-639E-4746-9DA4-7862D592BD64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5462EDE-9556-4036-A7BC-069FE5AFBC96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -12836,6 +12802,38 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5395B1C6-639E-4746-9DA4-7862D592BD64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
+    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D481325-0FAE-461F-9194-9B3A568E59B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D481325-0FAE-461F-9194-9B3A568E59B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
+    <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Docs/02_WorkPlan/60th_TGNC_workplan.xlsx
+++ b/01_Docs/02_WorkPlan/60th_TGNC_workplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpngym.sharepoint.com/sites/TRA885/Shared Documents/03_全日本選手権/2023/01_Docs/02_WorkPlan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="14_{BE0BB6BB-CB54-4369-A767-6CEFF57D7D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C44E025-C192-D444-8B06-A87684C77FDB}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="14_{BE0BB6BB-CB54-4369-A767-6CEFF57D7D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D73C2D-7027-CC4C-81CE-B6E5940472A9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="620" windowWidth="34160" windowHeight="28040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用しない Revise" sheetId="6" r:id="rId1"/>
@@ -846,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1074,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1143,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1571,17 +1579,6 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2022,17 +2019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2043,32 +2029,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2085,19 +2045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -2140,19 +2087,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2194,10 +2128,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -2207,13 +2139,137 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2229,7 +2285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,130 +2366,130 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2448,7 +2504,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2514,12 +2570,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2541,58 +2591,61 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="26" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2604,12 +2657,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2622,13 +2675,13 @@
     <xf numFmtId="20" fontId="26" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="74" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="26" fillId="3" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="26" fillId="3" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="26" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,18 +2801,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2802,7 +2843,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2856,7 +2897,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2889,211 +2930,214 @@
     <xf numFmtId="20" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4726,20 +4770,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>12:10〜12:35</a:t>
+            <a:t>12:10〜12:35 </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4748,7 +4789,7 @@
             </a:rPr>
             <a:t>個人決勝進出者 フリー練習</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -4923,7 +4964,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4933,16 +4974,16 @@
             <a:t>19:30〜20:30</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> フリー練習</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -4953,7 +4994,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4963,7 +5004,7 @@
             <a:t>個人競技 予選</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4973,7 +5014,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4983,7 +5024,7 @@
             <a:t>進出者</a:t>
           </a:r>
           <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4992,7 +5033,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0" i="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5000,25 +5041,6 @@
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>シンクロナイズド競技 決勝進出者</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>フリー練習</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5673,10 +5695,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="94"/>
@@ -5728,10 +5750,10 @@
   </sheetPr>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A84" zoomScale="193" zoomScaleNormal="156" zoomScaleSheetLayoutView="190" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="193" zoomScaleNormal="156" zoomScaleSheetLayoutView="190" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="R21" sqref="R21"/>
-      <selection pane="topRight" activeCell="J87" sqref="J87"/>
+      <selection pane="topRight" activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -5749,28 +5771,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="23">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="23">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:10" ht="20" thickBot="1"/>
     <row r="4" spans="1:10">
@@ -5795,37 +5817,37 @@
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="B5" s="24"/>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="126" t="s">
+      <c r="D5" s="126"/>
+      <c r="E5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="126" t="s">
+      <c r="F5" s="126"/>
+      <c r="G5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="127"/>
+      <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:10" s="27" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="128" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="130"/>
-      <c r="G6" s="129" t="s">
+      <c r="F6" s="129"/>
+      <c r="G6" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="130"/>
+      <c r="H6" s="129"/>
     </row>
     <row r="7" spans="1:10" ht="5" customHeight="1">
-      <c r="B7" s="131">
+      <c r="B7" s="130">
         <v>0.33333333333333331</v>
       </c>
       <c r="C7" s="28"/>
@@ -5836,7 +5858,7 @@
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="5" customHeight="1">
-      <c r="B8" s="123"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
@@ -5845,7 +5867,7 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="5" customHeight="1">
-      <c r="B9" s="123"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
@@ -5854,7 +5876,7 @@
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="5" customHeight="1">
-      <c r="B10" s="123"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
@@ -5935,7 +5957,7 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="5" customHeight="1">
-      <c r="B19" s="132">
+      <c r="B19" s="131">
         <v>0.375</v>
       </c>
       <c r="C19" s="43"/>
@@ -5946,7 +5968,7 @@
       <c r="H19" s="45"/>
     </row>
     <row r="20" spans="2:8" ht="5" customHeight="1">
-      <c r="B20" s="133"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
@@ -5955,7 +5977,7 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="2:8" ht="5" customHeight="1">
-      <c r="B21" s="133"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
@@ -5964,7 +5986,7 @@
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="2:8" ht="5" customHeight="1">
-      <c r="B22" s="133"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
@@ -6045,7 +6067,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="2:8" ht="5" customHeight="1">
-      <c r="B31" s="122">
+      <c r="B31" s="121">
         <v>0.41666666666666669</v>
       </c>
       <c r="C31" s="43"/>
@@ -6056,7 +6078,7 @@
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="2:8" ht="5" customHeight="1">
-      <c r="B32" s="123"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
@@ -6065,7 +6087,7 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="2:16" ht="5" customHeight="1">
-      <c r="B33" s="123"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
@@ -6074,7 +6096,7 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="2:16" ht="5" customHeight="1">
-      <c r="B34" s="123"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="32"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
@@ -6155,7 +6177,7 @@
       <c r="H42" s="50"/>
     </row>
     <row r="43" spans="2:16" ht="5" customHeight="1">
-      <c r="B43" s="122">
+      <c r="B43" s="121">
         <v>0.45833333333333331</v>
       </c>
       <c r="C43" s="43"/>
@@ -6166,7 +6188,7 @@
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="2:16" ht="5" customHeight="1">
-      <c r="B44" s="123"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="32"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
@@ -6175,7 +6197,7 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="2:16" ht="5" customHeight="1">
-      <c r="B45" s="123"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="32"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
@@ -6188,11 +6210,11 @@
       <c r="L45" s="75"/>
       <c r="M45" s="75"/>
       <c r="N45" s="75"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
     </row>
     <row r="46" spans="2:16" ht="5" customHeight="1">
-      <c r="B46" s="123"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="32"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
@@ -6205,8 +6227,8 @@
       <c r="L46" s="75"/>
       <c r="M46" s="75"/>
       <c r="N46" s="75"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
     </row>
     <row r="47" spans="2:16" ht="5" customHeight="1">
       <c r="B47" s="36"/>
@@ -6261,8 +6283,8 @@
       <c r="F52" s="38"/>
       <c r="G52" s="35"/>
       <c r="H52" s="38"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="121"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
     </row>
     <row r="53" spans="2:16" ht="5" customHeight="1">
       <c r="B53" s="36"/>
@@ -6283,7 +6305,7 @@
       <c r="H54" s="50"/>
     </row>
     <row r="55" spans="2:16" ht="5" customHeight="1">
-      <c r="B55" s="122">
+      <c r="B55" s="121">
         <v>0.5</v>
       </c>
       <c r="C55" s="43"/>
@@ -6294,7 +6316,7 @@
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="2:16" ht="5" customHeight="1">
-      <c r="B56" s="123"/>
+      <c r="B56" s="122"/>
       <c r="C56" s="32"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
@@ -6303,7 +6325,7 @@
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="2:16" ht="5" customHeight="1">
-      <c r="B57" s="123"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="32"/>
       <c r="D57" s="33"/>
       <c r="E57" s="32"/>
@@ -6312,7 +6334,7 @@
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="2:16" ht="5" customHeight="1">
-      <c r="B58" s="123"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="32"/>
       <c r="D58" s="33"/>
       <c r="E58" s="32"/>
@@ -6373,8 +6395,8 @@
       <c r="F64" s="38"/>
       <c r="G64" s="35"/>
       <c r="H64" s="38"/>
-      <c r="O64" s="121"/>
-      <c r="P64" s="121"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="120"/>
     </row>
     <row r="65" spans="2:12" ht="5" customHeight="1">
       <c r="B65" s="36"/>
@@ -6395,7 +6417,7 @@
       <c r="H66" s="50"/>
     </row>
     <row r="67" spans="2:12" ht="5" customHeight="1">
-      <c r="B67" s="122">
+      <c r="B67" s="121">
         <v>0.54166666666666663</v>
       </c>
       <c r="C67" s="43"/>
@@ -6406,7 +6428,7 @@
       <c r="H67" s="45"/>
     </row>
     <row r="68" spans="2:12" ht="5" customHeight="1">
-      <c r="B68" s="123"/>
+      <c r="B68" s="122"/>
       <c r="C68" s="32"/>
       <c r="D68" s="33"/>
       <c r="E68" s="32"/>
@@ -6415,7 +6437,7 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="2:12" ht="5" customHeight="1">
-      <c r="B69" s="123"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="32"/>
       <c r="D69" s="33"/>
       <c r="E69" s="32"/>
@@ -6424,7 +6446,7 @@
       <c r="H69" s="34"/>
     </row>
     <row r="70" spans="2:12" ht="5" customHeight="1">
-      <c r="B70" s="123"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="32"/>
       <c r="D70" s="33"/>
       <c r="E70" s="32"/>
@@ -6505,7 +6527,7 @@
       <c r="H78" s="50"/>
     </row>
     <row r="79" spans="2:12" ht="5" customHeight="1">
-      <c r="B79" s="122">
+      <c r="B79" s="121">
         <v>0.58333333333333337</v>
       </c>
       <c r="C79" s="43"/>
@@ -6516,7 +6538,7 @@
       <c r="H79" s="45"/>
     </row>
     <row r="80" spans="2:12" ht="5" customHeight="1">
-      <c r="B80" s="123"/>
+      <c r="B80" s="122"/>
       <c r="C80" s="32"/>
       <c r="D80" s="33"/>
       <c r="E80" s="32"/>
@@ -6528,7 +6550,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="5" customHeight="1">
-      <c r="B81" s="123"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="32"/>
       <c r="D81" s="33"/>
       <c r="E81" s="32"/>
@@ -6537,7 +6559,7 @@
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="2:8" ht="5" customHeight="1">
-      <c r="B82" s="123"/>
+      <c r="B82" s="122"/>
       <c r="C82" s="32"/>
       <c r="D82" s="33"/>
       <c r="E82" s="32"/>
@@ -6618,7 +6640,7 @@
       <c r="H90" s="50"/>
     </row>
     <row r="91" spans="2:8" ht="5" customHeight="1">
-      <c r="B91" s="122">
+      <c r="B91" s="121">
         <v>0.625</v>
       </c>
       <c r="C91" s="43"/>
@@ -6629,7 +6651,7 @@
       <c r="H91" s="45"/>
     </row>
     <row r="92" spans="2:8" ht="5" customHeight="1">
-      <c r="B92" s="123"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="32"/>
       <c r="D92" s="33"/>
       <c r="E92" s="32"/>
@@ -6638,7 +6660,7 @@
       <c r="H92" s="34"/>
     </row>
     <row r="93" spans="2:8" ht="5" customHeight="1">
-      <c r="B93" s="123"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="32"/>
       <c r="D93" s="33"/>
       <c r="E93" s="32"/>
@@ -6647,7 +6669,7 @@
       <c r="H93" s="34"/>
     </row>
     <row r="94" spans="2:8" ht="5" customHeight="1">
-      <c r="B94" s="123"/>
+      <c r="B94" s="122"/>
       <c r="C94" s="32"/>
       <c r="D94" s="33"/>
       <c r="E94" s="32"/>
@@ -6728,7 +6750,7 @@
       <c r="H102" s="50"/>
     </row>
     <row r="103" spans="2:8" ht="5" customHeight="1">
-      <c r="B103" s="122">
+      <c r="B103" s="121">
         <v>0.66666666666666663</v>
       </c>
       <c r="C103" s="43"/>
@@ -6739,7 +6761,7 @@
       <c r="H103" s="45"/>
     </row>
     <row r="104" spans="2:8" ht="5" customHeight="1">
-      <c r="B104" s="123"/>
+      <c r="B104" s="122"/>
       <c r="C104" s="32"/>
       <c r="D104" s="33"/>
       <c r="E104" s="32"/>
@@ -6748,7 +6770,7 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="2:8" ht="5" customHeight="1">
-      <c r="B105" s="123"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="32"/>
       <c r="D105" s="33"/>
       <c r="E105" s="32"/>
@@ -6757,7 +6779,7 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="2:8" ht="5" customHeight="1">
-      <c r="B106" s="123"/>
+      <c r="B106" s="122"/>
       <c r="C106" s="32"/>
       <c r="D106" s="33"/>
       <c r="E106" s="32"/>
@@ -6838,7 +6860,7 @@
       <c r="H114" s="50"/>
     </row>
     <row r="115" spans="2:8" ht="5" customHeight="1">
-      <c r="B115" s="122">
+      <c r="B115" s="121">
         <v>0.70833333333333337</v>
       </c>
       <c r="C115" s="43"/>
@@ -6849,7 +6871,7 @@
       <c r="H115" s="45"/>
     </row>
     <row r="116" spans="2:8" ht="5" customHeight="1">
-      <c r="B116" s="123"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="32"/>
       <c r="D116" s="33"/>
       <c r="E116" s="32"/>
@@ -6858,7 +6880,7 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="2:8" ht="5" customHeight="1">
-      <c r="B117" s="123"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="32"/>
       <c r="D117" s="33"/>
       <c r="E117" s="32"/>
@@ -6867,7 +6889,7 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="2:8" ht="5" customHeight="1">
-      <c r="B118" s="123"/>
+      <c r="B118" s="122"/>
       <c r="C118" s="32"/>
       <c r="D118" s="33"/>
       <c r="E118" s="32"/>
@@ -6948,7 +6970,7 @@
       <c r="H126" s="50"/>
     </row>
     <row r="127" spans="2:8" ht="5" customHeight="1">
-      <c r="B127" s="122">
+      <c r="B127" s="121">
         <v>0.75</v>
       </c>
       <c r="C127" s="43"/>
@@ -6959,7 +6981,7 @@
       <c r="H127" s="45"/>
     </row>
     <row r="128" spans="2:8" ht="5" customHeight="1">
-      <c r="B128" s="123"/>
+      <c r="B128" s="122"/>
       <c r="C128" s="32"/>
       <c r="D128" s="33"/>
       <c r="E128" s="32"/>
@@ -6968,7 +6990,7 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="2:8" ht="5" customHeight="1">
-      <c r="B129" s="123"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="32"/>
       <c r="D129" s="33"/>
       <c r="E129" s="32"/>
@@ -6977,7 +6999,7 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="2:8" ht="5" customHeight="1">
-      <c r="B130" s="123"/>
+      <c r="B130" s="122"/>
       <c r="C130" s="32"/>
       <c r="D130" s="33"/>
       <c r="E130" s="32"/>
@@ -7058,7 +7080,7 @@
       <c r="H138" s="50"/>
     </row>
     <row r="139" spans="2:8" ht="5" customHeight="1">
-      <c r="B139" s="122">
+      <c r="B139" s="121">
         <v>0.79166666666666663</v>
       </c>
       <c r="C139" s="43"/>
@@ -7069,7 +7091,7 @@
       <c r="H139" s="45"/>
     </row>
     <row r="140" spans="2:8" ht="5" customHeight="1">
-      <c r="B140" s="123"/>
+      <c r="B140" s="122"/>
       <c r="C140" s="32"/>
       <c r="D140" s="33"/>
       <c r="E140" s="32"/>
@@ -7078,7 +7100,7 @@
       <c r="H140" s="34"/>
     </row>
     <row r="141" spans="2:8" ht="5" customHeight="1">
-      <c r="B141" s="123"/>
+      <c r="B141" s="122"/>
       <c r="C141" s="32"/>
       <c r="D141" s="33"/>
       <c r="E141" s="32"/>
@@ -7087,7 +7109,7 @@
       <c r="H141" s="34"/>
     </row>
     <row r="142" spans="2:8" ht="5" customHeight="1">
-      <c r="B142" s="123"/>
+      <c r="B142" s="122"/>
       <c r="C142" s="32"/>
       <c r="D142" s="33"/>
       <c r="E142" s="32"/>
@@ -7168,7 +7190,7 @@
       <c r="H150" s="50"/>
     </row>
     <row r="151" spans="2:8" ht="5" customHeight="1">
-      <c r="B151" s="122">
+      <c r="B151" s="121">
         <v>0.83333333333333337</v>
       </c>
       <c r="C151" s="43"/>
@@ -7179,7 +7201,7 @@
       <c r="H151" s="45"/>
     </row>
     <row r="152" spans="2:8" ht="5" customHeight="1">
-      <c r="B152" s="123"/>
+      <c r="B152" s="122"/>
       <c r="C152" s="32"/>
       <c r="D152" s="33"/>
       <c r="E152" s="32"/>
@@ -7188,7 +7210,7 @@
       <c r="H152" s="34"/>
     </row>
     <row r="153" spans="2:8" ht="5" customHeight="1">
-      <c r="B153" s="123"/>
+      <c r="B153" s="122"/>
       <c r="C153" s="32"/>
       <c r="D153" s="33"/>
       <c r="E153" s="32"/>
@@ -7197,7 +7219,7 @@
       <c r="H153" s="34"/>
     </row>
     <row r="154" spans="2:8" ht="5" customHeight="1">
-      <c r="B154" s="123"/>
+      <c r="B154" s="122"/>
       <c r="C154" s="32"/>
       <c r="D154" s="33"/>
       <c r="E154" s="32"/>
@@ -7278,7 +7300,7 @@
       <c r="H162" s="50"/>
     </row>
     <row r="163" spans="2:8" ht="5" customHeight="1">
-      <c r="B163" s="134">
+      <c r="B163" s="133">
         <v>0.875</v>
       </c>
       <c r="C163" s="52"/>
@@ -7289,7 +7311,7 @@
       <c r="H163" s="54"/>
     </row>
     <row r="164" spans="2:8" ht="5" customHeight="1">
-      <c r="B164" s="135"/>
+      <c r="B164" s="134"/>
       <c r="C164" s="56"/>
       <c r="D164" s="57"/>
       <c r="E164" s="56"/>
@@ -7298,7 +7320,7 @@
       <c r="H164" s="58"/>
     </row>
     <row r="165" spans="2:8" ht="5" customHeight="1">
-      <c r="B165" s="135"/>
+      <c r="B165" s="134"/>
       <c r="C165" s="56"/>
       <c r="D165" s="57"/>
       <c r="E165" s="56"/>
@@ -7307,7 +7329,7 @@
       <c r="H165" s="58"/>
     </row>
     <row r="166" spans="2:8" ht="5" customHeight="1">
-      <c r="B166" s="135"/>
+      <c r="B166" s="134"/>
       <c r="C166" s="56"/>
       <c r="D166" s="57"/>
       <c r="E166" s="56"/>
@@ -7431,8 +7453,8 @@
   </sheetPr>
   <dimension ref="A1:AO103"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="206" zoomScaleNormal="150" zoomScaleSheetLayoutView="169" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="130" zoomScaleNormal="150" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AO60" sqref="AO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="17"/>
@@ -7906,42 +7928,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="23">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
       <c r="AI1" s="83"/>
       <c r="AJ1" s="83"/>
       <c r="AK1" s="83"/>
@@ -7978,81 +8000,81 @@
       <c r="A6" s="85"/>
     </row>
     <row r="7" spans="1:40" ht="20">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="186"/>
-      <c r="AH7" s="186"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="181"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
     </row>
     <row r="8" spans="1:40" ht="9" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="283" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="175"/>
-      <c r="AB9" s="175"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="176"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="284"/>
+      <c r="P9" s="284"/>
+      <c r="Q9" s="284"/>
+      <c r="R9" s="284"/>
+      <c r="S9" s="284"/>
+      <c r="T9" s="284"/>
+      <c r="U9" s="284"/>
+      <c r="V9" s="284"/>
+      <c r="W9" s="284"/>
+      <c r="X9" s="284"/>
+      <c r="Y9" s="284"/>
+      <c r="Z9" s="284"/>
+      <c r="AA9" s="284"/>
+      <c r="AB9" s="284"/>
+      <c r="AC9" s="284"/>
+      <c r="AD9" s="284"/>
+      <c r="AE9" s="284"/>
+      <c r="AF9" s="284"/>
+      <c r="AG9" s="284"/>
+      <c r="AH9" s="285"/>
     </row>
     <row r="10" spans="1:40" s="86" customFormat="1" ht="10" customHeight="1" thickTop="1">
       <c r="A10" s="13"/>
@@ -8063,133 +8085,133 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="156" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="156" t="s">
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="J11" s="185" t="s">
+      <c r="I11" s="157"/>
+      <c r="J11" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="157" t="s">
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="159"/>
+      <c r="P11" s="158"/>
       <c r="Q11" s="87"/>
-      <c r="R11" s="142" t="s">
+      <c r="R11" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="144"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="143"/>
       <c r="W11" s="87"/>
-      <c r="X11" s="160" t="s">
+      <c r="X11" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="162"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="161"/>
       <c r="AC11" s="7"/>
-      <c r="AD11" s="150" t="s">
+      <c r="AD11" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="187"/>
-      <c r="AJ11" s="187"/>
-      <c r="AK11" s="187"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="149"/>
+      <c r="AI11" s="182"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="182"/>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" s="148">
+      <c r="B12" s="184"/>
+      <c r="C12" s="147">
         <v>1</v>
       </c>
-      <c r="D12" s="151"/>
+      <c r="D12" s="150"/>
       <c r="E12" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="150">
         <v>11</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="148">
+      <c r="G12" s="148"/>
+      <c r="H12" s="147">
         <v>10</v>
       </c>
-      <c r="I12" s="149"/>
-      <c r="J12" s="148">
+      <c r="I12" s="148"/>
+      <c r="J12" s="147">
         <v>11</v>
       </c>
-      <c r="K12" s="151"/>
+      <c r="K12" s="150"/>
       <c r="L12" s="76">
         <v>11</v>
       </c>
-      <c r="M12" s="151">
+      <c r="M12" s="150">
         <v>11</v>
       </c>
-      <c r="N12" s="149"/>
-      <c r="O12" s="148">
+      <c r="N12" s="148"/>
+      <c r="O12" s="147">
         <v>10</v>
       </c>
-      <c r="P12" s="149"/>
-      <c r="R12" s="152">
+      <c r="P12" s="148"/>
+      <c r="R12" s="151">
         <v>0.34375</v>
       </c>
-      <c r="S12" s="153"/>
+      <c r="S12" s="152"/>
       <c r="T12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="140">
+      <c r="U12" s="139">
         <f>R12+AM12</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="V12" s="141"/>
-      <c r="X12" s="152">
+      <c r="V12" s="140"/>
+      <c r="X12" s="151">
         <v>0.375</v>
       </c>
-      <c r="Y12" s="153"/>
+      <c r="Y12" s="152"/>
       <c r="Z12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="140">
+      <c r="AA12" s="139">
         <f>X12+AM12</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="AB12" s="141"/>
+      <c r="AB12" s="140"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="152">
+      <c r="AD12" s="151">
         <f>AA12+AL12</f>
         <v>0.40625</v>
       </c>
-      <c r="AE12" s="153"/>
+      <c r="AE12" s="152"/>
       <c r="AF12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG12" s="140">
+      <c r="AG12" s="139">
         <f>AD12+AN12</f>
         <v>0.4375</v>
       </c>
-      <c r="AH12" s="141"/>
+      <c r="AH12" s="140"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
@@ -8204,82 +8226,82 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" s="148">
+      <c r="B13" s="184"/>
+      <c r="C13" s="147">
         <v>1</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="150"/>
       <c r="E13" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="150">
         <v>11</v>
       </c>
-      <c r="G13" s="149"/>
-      <c r="H13" s="148">
+      <c r="G13" s="148"/>
+      <c r="H13" s="147">
         <f>C13+F13-1</f>
         <v>11</v>
       </c>
-      <c r="I13" s="149"/>
-      <c r="J13" s="148">
+      <c r="I13" s="148"/>
+      <c r="J13" s="147">
         <v>1</v>
       </c>
-      <c r="K13" s="151"/>
+      <c r="K13" s="150"/>
       <c r="L13" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="151">
+      <c r="M13" s="150">
         <v>11</v>
       </c>
-      <c r="N13" s="149"/>
-      <c r="O13" s="148">
+      <c r="N13" s="148"/>
+      <c r="O13" s="147">
         <f>J13+M13-1</f>
         <v>11</v>
       </c>
-      <c r="P13" s="149"/>
-      <c r="R13" s="152">
+      <c r="P13" s="148"/>
+      <c r="R13" s="151">
         <f>U12+AL13</f>
         <v>0.375</v>
       </c>
-      <c r="S13" s="153"/>
+      <c r="S13" s="152"/>
       <c r="T13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="140">
+      <c r="U13" s="139">
         <f>R13+AM13</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="V13" s="141"/>
-      <c r="X13" s="152">
+      <c r="V13" s="140"/>
+      <c r="X13" s="151">
         <f>AA12+AL13</f>
         <v>0.40625</v>
       </c>
-      <c r="Y13" s="153"/>
+      <c r="Y13" s="152"/>
       <c r="Z13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA13" s="140">
+      <c r="AA13" s="139">
         <f>X13+AM13</f>
         <v>0.43402777777777779</v>
       </c>
-      <c r="AB13" s="141"/>
+      <c r="AB13" s="140"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="152">
+      <c r="AD13" s="151">
         <f>AA13+AL13</f>
         <v>0.4375</v>
       </c>
-      <c r="AE13" s="153"/>
+      <c r="AE13" s="152"/>
       <c r="AF13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG13" s="140">
+      <c r="AG13" s="139">
         <f t="shared" ref="AG13:AG14" si="0">AD13+AN13</f>
         <v>0.46875</v>
       </c>
-      <c r="AH13" s="141"/>
+      <c r="AH13" s="140"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
@@ -8294,82 +8316,82 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" thickBot="1">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="190">
+      <c r="B14" s="184"/>
+      <c r="C14" s="185">
         <v>1</v>
       </c>
-      <c r="D14" s="192"/>
+      <c r="D14" s="187"/>
       <c r="E14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="192">
+      <c r="F14" s="187">
         <v>11</v>
       </c>
-      <c r="G14" s="191"/>
-      <c r="H14" s="190">
+      <c r="G14" s="186"/>
+      <c r="H14" s="185">
         <f>C14+F14-1</f>
         <v>11</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="190">
+      <c r="I14" s="186"/>
+      <c r="J14" s="185">
         <v>1</v>
       </c>
-      <c r="K14" s="192"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="192">
+      <c r="M14" s="187">
         <v>11</v>
       </c>
-      <c r="N14" s="191"/>
-      <c r="O14" s="190">
+      <c r="N14" s="186"/>
+      <c r="O14" s="185">
         <f>J14+M14-1</f>
         <v>11</v>
       </c>
-      <c r="P14" s="191"/>
-      <c r="R14" s="152">
+      <c r="P14" s="186"/>
+      <c r="R14" s="151">
         <f>U13+AL14</f>
         <v>0.40625</v>
       </c>
-      <c r="S14" s="153"/>
+      <c r="S14" s="152"/>
       <c r="T14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="140">
+      <c r="U14" s="139">
         <f>R14+AM14</f>
         <v>0.43402777777777779</v>
       </c>
-      <c r="V14" s="141"/>
-      <c r="X14" s="152">
+      <c r="V14" s="140"/>
+      <c r="X14" s="151">
         <f>U14+AL14</f>
         <v>0.4375</v>
       </c>
-      <c r="Y14" s="153"/>
+      <c r="Y14" s="152"/>
       <c r="Z14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA14" s="140">
+      <c r="AA14" s="139">
         <f t="shared" ref="AA14" si="1">X14+AM14</f>
         <v>0.46527777777777779</v>
       </c>
-      <c r="AB14" s="141"/>
+      <c r="AB14" s="140"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="152">
+      <c r="AD14" s="151">
         <f>AA14+AL14</f>
         <v>0.46875</v>
       </c>
-      <c r="AE14" s="153"/>
+      <c r="AE14" s="152"/>
       <c r="AF14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG14" s="140">
+      <c r="AG14" s="139">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="AH14" s="141"/>
+      <c r="AH14" s="140"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -8384,47 +8406,47 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="165"/>
-      <c r="R15" s="216"/>
-      <c r="S15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="164"/>
+      <c r="R15" s="211"/>
+      <c r="S15" s="162"/>
       <c r="T15" s="79"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="162"/>
       <c r="W15" s="89"/>
-      <c r="X15" s="163">
+      <c r="X15" s="162">
         <v>0.5</v>
       </c>
-      <c r="Y15" s="163"/>
+      <c r="Y15" s="162"/>
       <c r="Z15" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AA15" s="163">
+      <c r="AA15" s="162">
         <v>0.53125</v>
       </c>
-      <c r="AB15" s="163"/>
+      <c r="AB15" s="162"/>
       <c r="AC15" s="79"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="162"/>
       <c r="AF15" s="79"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="220"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="215"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
@@ -8439,79 +8461,79 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="193">
+      <c r="B16" s="195"/>
+      <c r="C16" s="188">
         <v>1</v>
       </c>
-      <c r="D16" s="196"/>
+      <c r="D16" s="191"/>
       <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="196">
+      <c r="F16" s="191">
         <v>11</v>
       </c>
-      <c r="G16" s="194"/>
-      <c r="H16" s="193">
+      <c r="G16" s="189"/>
+      <c r="H16" s="188">
         <f>C16+F16-1</f>
         <v>11</v>
       </c>
-      <c r="I16" s="194"/>
-      <c r="J16" s="193">
+      <c r="I16" s="189"/>
+      <c r="J16" s="188">
         <v>1</v>
       </c>
-      <c r="K16" s="196"/>
+      <c r="K16" s="191"/>
       <c r="L16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="196">
+      <c r="M16" s="191">
         <v>11</v>
       </c>
-      <c r="N16" s="194"/>
-      <c r="O16" s="193">
+      <c r="N16" s="189"/>
+      <c r="O16" s="188">
         <f>J16+M16-1</f>
         <v>11</v>
       </c>
-      <c r="P16" s="194"/>
-      <c r="R16" s="217">
+      <c r="P16" s="189"/>
+      <c r="R16" s="212">
         <v>0.46875</v>
       </c>
-      <c r="S16" s="218"/>
+      <c r="S16" s="213"/>
       <c r="T16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="214">
+      <c r="U16" s="209">
         <f>R16+AM16</f>
         <v>0.49652777777777779</v>
       </c>
-      <c r="V16" s="215"/>
-      <c r="X16" s="217">
+      <c r="V16" s="210"/>
+      <c r="X16" s="212">
         <v>0.5</v>
       </c>
-      <c r="Y16" s="218"/>
+      <c r="Y16" s="213"/>
       <c r="Z16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA16" s="214">
+      <c r="AA16" s="209">
         <f>X16+AM16</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="AB16" s="215"/>
+      <c r="AB16" s="210"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="217">
+      <c r="AD16" s="212">
         <v>0.53125</v>
       </c>
-      <c r="AE16" s="218"/>
+      <c r="AE16" s="213"/>
       <c r="AF16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG16" s="214">
+      <c r="AG16" s="209">
         <f>AD16+AN16</f>
         <v>0.5625</v>
       </c>
-      <c r="AH16" s="215"/>
+      <c r="AH16" s="210"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -8526,82 +8548,82 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="148">
+      <c r="B17" s="193"/>
+      <c r="C17" s="147">
         <v>1</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="150">
         <v>11</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="148">
+      <c r="G17" s="148"/>
+      <c r="H17" s="147">
         <f>C17+F17-1</f>
         <v>11</v>
       </c>
-      <c r="I17" s="149"/>
-      <c r="J17" s="148">
+      <c r="I17" s="148"/>
+      <c r="J17" s="147">
         <v>1</v>
       </c>
-      <c r="K17" s="151"/>
+      <c r="K17" s="150"/>
       <c r="L17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="151">
+      <c r="M17" s="150">
         <v>11</v>
       </c>
-      <c r="N17" s="149"/>
-      <c r="O17" s="148">
+      <c r="N17" s="148"/>
+      <c r="O17" s="147">
         <f>J17+M17-1</f>
         <v>11</v>
       </c>
-      <c r="P17" s="149"/>
-      <c r="R17" s="170">
+      <c r="P17" s="148"/>
+      <c r="R17" s="169">
         <f>U16+AL17</f>
         <v>0.5</v>
       </c>
-      <c r="S17" s="181"/>
+      <c r="S17" s="176"/>
       <c r="T17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="172">
+      <c r="U17" s="171">
         <f>R17+AM17</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="V17" s="182"/>
-      <c r="X17" s="170">
+      <c r="V17" s="177"/>
+      <c r="X17" s="169">
         <f>AA16+AL17</f>
         <v>0.53125</v>
       </c>
-      <c r="Y17" s="181"/>
+      <c r="Y17" s="176"/>
       <c r="Z17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA17" s="172">
+      <c r="AA17" s="171">
         <f t="shared" ref="AA17:AA18" si="2">X17+AM17</f>
         <v>0.55902777777777779</v>
       </c>
-      <c r="AB17" s="182"/>
+      <c r="AB17" s="177"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="170">
+      <c r="AD17" s="169">
         <f t="shared" ref="AD17:AD18" si="3">AG16</f>
         <v>0.5625</v>
       </c>
-      <c r="AE17" s="181"/>
+      <c r="AE17" s="176"/>
       <c r="AF17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG17" s="172">
+      <c r="AG17" s="171">
         <f>AD17+AN17</f>
         <v>0.59375</v>
       </c>
-      <c r="AH17" s="182"/>
+      <c r="AH17" s="177"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -8616,80 +8638,80 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="197" t="s">
+      <c r="A18" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="148">
+      <c r="B18" s="193"/>
+      <c r="C18" s="147">
         <v>1</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <v>10</v>
       </c>
-      <c r="G18" s="149"/>
-      <c r="H18" s="148">
+      <c r="G18" s="148"/>
+      <c r="H18" s="147">
         <v>11</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="148">
+      <c r="I18" s="148"/>
+      <c r="J18" s="147">
         <v>10</v>
       </c>
-      <c r="K18" s="151"/>
+      <c r="K18" s="150"/>
       <c r="L18" s="76">
         <v>10</v>
       </c>
-      <c r="M18" s="151">
+      <c r="M18" s="150">
         <v>10</v>
       </c>
-      <c r="N18" s="149"/>
-      <c r="O18" s="148">
+      <c r="N18" s="148"/>
+      <c r="O18" s="147">
         <v>11</v>
       </c>
-      <c r="P18" s="149"/>
-      <c r="R18" s="170">
+      <c r="P18" s="148"/>
+      <c r="R18" s="169">
         <f>U17+AL18</f>
         <v>0.53125</v>
       </c>
-      <c r="S18" s="181"/>
+      <c r="S18" s="176"/>
       <c r="T18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="172">
+      <c r="U18" s="171">
         <f>R18+AM18</f>
         <v>0.55902777777777779</v>
       </c>
-      <c r="V18" s="182"/>
-      <c r="X18" s="170">
+      <c r="V18" s="177"/>
+      <c r="X18" s="169">
         <f>AA17+AL18</f>
         <v>0.5625</v>
       </c>
-      <c r="Y18" s="181"/>
+      <c r="Y18" s="176"/>
       <c r="Z18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA18" s="172">
+      <c r="AA18" s="171">
         <f t="shared" si="2"/>
         <v>0.59027777777777779</v>
       </c>
-      <c r="AB18" s="182"/>
+      <c r="AB18" s="177"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="170">
+      <c r="AD18" s="169">
         <f t="shared" si="3"/>
         <v>0.59375</v>
       </c>
-      <c r="AE18" s="181"/>
+      <c r="AE18" s="176"/>
       <c r="AF18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG18" s="172">
+      <c r="AG18" s="171">
         <f>AD18+AN18</f>
         <v>0.625</v>
       </c>
-      <c r="AH18" s="182"/>
+      <c r="AH18" s="177"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
@@ -8723,180 +8745,180 @@
       <c r="AN20" s="88"/>
     </row>
     <row r="21" spans="1:40" ht="21" customHeight="1">
-      <c r="A21" s="201" t="s">
+      <c r="A21" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-      <c r="R21" s="201"/>
-      <c r="S21" s="201"/>
-      <c r="T21" s="201"/>
-      <c r="U21" s="201"/>
-      <c r="V21" s="201"/>
-      <c r="W21" s="201"/>
-      <c r="X21" s="201"/>
-      <c r="Y21" s="201"/>
-      <c r="Z21" s="201"/>
-      <c r="AA21" s="201"/>
-      <c r="AB21" s="201"/>
-      <c r="AD21" s="136">
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="196"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="196"/>
+      <c r="S21" s="196"/>
+      <c r="T21" s="196"/>
+      <c r="U21" s="196"/>
+      <c r="V21" s="196"/>
+      <c r="W21" s="196"/>
+      <c r="X21" s="196"/>
+      <c r="Y21" s="196"/>
+      <c r="Z21" s="196"/>
+      <c r="AA21" s="196"/>
+      <c r="AB21" s="196"/>
+      <c r="AD21" s="135">
         <f>AG18</f>
         <v>0.625</v>
       </c>
-      <c r="AE21" s="137"/>
+      <c r="AE21" s="136"/>
       <c r="AF21" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AG21" s="138">
+      <c r="AG21" s="137">
         <f>AD21+AL21</f>
         <v>0.63194444444444442</v>
       </c>
-      <c r="AH21" s="139"/>
+      <c r="AH21" s="138"/>
       <c r="AL21" s="92">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="AN21" s="88"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="219"/>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="219"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="219"/>
-      <c r="T22" s="219"/>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
-      <c r="W22" s="219"/>
-      <c r="X22" s="219"/>
-      <c r="Y22" s="219"/>
-      <c r="Z22" s="219"/>
-      <c r="AA22" s="219"/>
-      <c r="AB22" s="219"/>
-      <c r="AC22" s="219"/>
-      <c r="AD22" s="219"/>
-      <c r="AE22" s="219"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
+      <c r="A22" s="214"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="214"/>
+      <c r="X22" s="214"/>
+      <c r="Y22" s="214"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
+      <c r="AD22" s="214"/>
+      <c r="AE22" s="214"/>
+      <c r="AF22" s="214"/>
+      <c r="AG22" s="214"/>
+      <c r="AH22" s="214"/>
     </row>
     <row r="23" spans="1:40" ht="17" customHeight="1">
-      <c r="A23" s="208" t="s">
+      <c r="A23" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="209"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="209"/>
-      <c r="O23" s="209"/>
-      <c r="P23" s="209"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="209"/>
-      <c r="S23" s="209"/>
-      <c r="T23" s="209"/>
-      <c r="U23" s="209"/>
-      <c r="V23" s="210"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="204"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="205"/>
       <c r="W23" s="87"/>
-      <c r="X23" s="160" t="s">
+      <c r="X23" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="162"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="161"/>
       <c r="AC23" s="87"/>
-      <c r="AD23" s="178" t="s">
+      <c r="AD23" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="179"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="179"/>
-      <c r="AH23" s="180"/>
+      <c r="AE23" s="174"/>
+      <c r="AF23" s="174"/>
+      <c r="AG23" s="174"/>
+      <c r="AH23" s="175"/>
       <c r="AN23" s="88"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="211"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="212"/>
-      <c r="O24" s="212"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="212"/>
-      <c r="T24" s="212"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="213"/>
-      <c r="X24" s="170">
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="207"/>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="208"/>
+      <c r="X24" s="169">
         <v>0.63888888888888895</v>
       </c>
-      <c r="Y24" s="181"/>
+      <c r="Y24" s="176"/>
       <c r="Z24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA24" s="172">
+      <c r="AA24" s="171">
         <v>0.68055555555555547</v>
       </c>
-      <c r="AB24" s="182"/>
-      <c r="AD24" s="170">
+      <c r="AB24" s="177"/>
+      <c r="AD24" s="169">
         <f>X24</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="AE24" s="181"/>
+      <c r="AE24" s="176"/>
       <c r="AF24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG24" s="172">
+      <c r="AG24" s="171">
         <f>AA24</f>
         <v>0.68055555555555547</v>
       </c>
-      <c r="AH24" s="182"/>
+      <c r="AH24" s="177"/>
       <c r="AL24" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -8912,42 +8934,42 @@
       <c r="W25" s="80"/>
     </row>
     <row r="26" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="175"/>
-      <c r="U26" s="175"/>
-      <c r="V26" s="175"/>
-      <c r="W26" s="175"/>
-      <c r="X26" s="175"/>
-      <c r="Y26" s="175"/>
-      <c r="Z26" s="175"/>
-      <c r="AA26" s="175"/>
-      <c r="AB26" s="175"/>
-      <c r="AC26" s="175"/>
-      <c r="AD26" s="175"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="175"/>
-      <c r="AG26" s="175"/>
-      <c r="AH26" s="176"/>
+      <c r="B26" s="284"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="284"/>
+      <c r="F26" s="284"/>
+      <c r="G26" s="284"/>
+      <c r="H26" s="284"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="284"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="284"/>
+      <c r="O26" s="284"/>
+      <c r="P26" s="284"/>
+      <c r="Q26" s="284"/>
+      <c r="R26" s="284"/>
+      <c r="S26" s="284"/>
+      <c r="T26" s="284"/>
+      <c r="U26" s="284"/>
+      <c r="V26" s="284"/>
+      <c r="W26" s="284"/>
+      <c r="X26" s="284"/>
+      <c r="Y26" s="284"/>
+      <c r="Z26" s="284"/>
+      <c r="AA26" s="284"/>
+      <c r="AB26" s="284"/>
+      <c r="AC26" s="284"/>
+      <c r="AD26" s="284"/>
+      <c r="AE26" s="284"/>
+      <c r="AF26" s="284"/>
+      <c r="AG26" s="284"/>
+      <c r="AH26" s="285"/>
     </row>
     <row r="27" spans="1:40" ht="10" customHeight="1" thickTop="1">
       <c r="A27" s="90"/>
@@ -8986,135 +9008,135 @@
       <c r="AH27" s="86"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156" t="s">
+      <c r="B28" s="154"/>
+      <c r="C28" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="156" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="158"/>
-      <c r="J28" s="156" t="s">
+      <c r="I28" s="157"/>
+      <c r="J28" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="156" t="s">
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="159"/>
+      <c r="P28" s="158"/>
       <c r="Q28" s="87"/>
-      <c r="R28" s="142" t="s">
+      <c r="R28" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="144"/>
+      <c r="S28" s="142"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="142"/>
+      <c r="V28" s="143"/>
       <c r="W28" s="87"/>
-      <c r="X28" s="160" t="s">
+      <c r="X28" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Y28" s="161"/>
-      <c r="Z28" s="161"/>
-      <c r="AA28" s="161"/>
-      <c r="AB28" s="162"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="161"/>
       <c r="AC28" s="8"/>
-      <c r="AD28" s="150" t="s">
+      <c r="AD28" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="150"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="150"/>
-      <c r="AH28" s="150"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
       <c r="AL28" s="92">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="148">
+      <c r="B29" s="148"/>
+      <c r="C29" s="147">
         <v>1</v>
       </c>
-      <c r="D29" s="151"/>
+      <c r="D29" s="150"/>
       <c r="E29" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>9</v>
       </c>
-      <c r="G29" s="149"/>
-      <c r="H29" s="148">
+      <c r="G29" s="148"/>
+      <c r="H29" s="147">
         <v>9</v>
       </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="148">
+      <c r="I29" s="148"/>
+      <c r="J29" s="147">
         <v>1</v>
       </c>
-      <c r="K29" s="151"/>
+      <c r="K29" s="150"/>
       <c r="L29" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="151">
+      <c r="M29" s="150">
         <v>9</v>
       </c>
-      <c r="N29" s="149"/>
-      <c r="O29" s="148">
-        <v>10</v>
-      </c>
-      <c r="P29" s="149"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="147">
+        <v>8</v>
+      </c>
+      <c r="P29" s="148"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="152">
+      <c r="R29" s="151">
         <v>0.65625</v>
       </c>
-      <c r="S29" s="153"/>
+      <c r="S29" s="152"/>
       <c r="T29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="140">
+      <c r="U29" s="139">
         <f>R29+AM29</f>
         <v>0.68402777777777779</v>
       </c>
-      <c r="V29" s="141"/>
+      <c r="V29" s="140"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="152">
+      <c r="X29" s="151">
         <f>AG24+AL28</f>
         <v>0.68749999999999989</v>
       </c>
-      <c r="Y29" s="153"/>
+      <c r="Y29" s="152"/>
       <c r="Z29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA29" s="140">
+      <c r="AA29" s="139">
         <f>X29+AM29</f>
         <v>0.71527777777777768</v>
       </c>
-      <c r="AB29" s="141"/>
-      <c r="AD29" s="152">
+      <c r="AB29" s="140"/>
+      <c r="AD29" s="151">
         <f>AA29+AL29</f>
         <v>0.71874999999999989</v>
       </c>
-      <c r="AE29" s="153"/>
+      <c r="AE29" s="152"/>
       <c r="AF29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG29" s="140">
+      <c r="AG29" s="139">
         <f>AD29+AN29</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="AH29" s="141"/>
+      <c r="AH29" s="140"/>
       <c r="AL29" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -9126,81 +9148,81 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="148">
+      <c r="B30" s="148"/>
+      <c r="C30" s="147">
         <v>1</v>
       </c>
-      <c r="D30" s="151"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="150">
         <v>9</v>
       </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="148">
+      <c r="G30" s="148"/>
+      <c r="H30" s="147">
         <v>9</v>
       </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="148">
+      <c r="I30" s="148"/>
+      <c r="J30" s="147">
         <v>1</v>
       </c>
-      <c r="K30" s="151"/>
+      <c r="K30" s="150"/>
       <c r="L30" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="151">
+      <c r="M30" s="150">
         <v>10</v>
       </c>
-      <c r="N30" s="149"/>
-      <c r="O30" s="148">
-        <v>9</v>
-      </c>
-      <c r="P30" s="149"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="147">
+        <v>8</v>
+      </c>
+      <c r="P30" s="148"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="152">
+      <c r="R30" s="151">
         <f>U29+AL30</f>
         <v>0.6875</v>
       </c>
-      <c r="S30" s="153"/>
+      <c r="S30" s="152"/>
       <c r="T30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U30" s="140">
+      <c r="U30" s="139">
         <f>R30+AM30</f>
         <v>0.71527777777777779</v>
       </c>
-      <c r="V30" s="141"/>
+      <c r="V30" s="140"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="152">
+      <c r="X30" s="151">
         <f>AA29+AL30</f>
         <v>0.71874999999999989</v>
       </c>
-      <c r="Y30" s="153"/>
+      <c r="Y30" s="152"/>
       <c r="Z30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA30" s="140">
+      <c r="AA30" s="139">
         <f>X30+AM30</f>
         <v>0.74652777777777768</v>
       </c>
-      <c r="AB30" s="141"/>
-      <c r="AD30" s="152">
+      <c r="AB30" s="140"/>
+      <c r="AD30" s="151">
         <f>AG29</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="AE30" s="153"/>
+      <c r="AE30" s="152"/>
       <c r="AF30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG30" s="140">
+      <c r="AG30" s="139">
         <f>AD30+AN30</f>
         <v>0.78124999999999989</v>
       </c>
-      <c r="AH30" s="141"/>
+      <c r="AH30" s="140"/>
       <c r="AL30" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -9212,81 +9234,81 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="148" t="s">
+      <c r="A31" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="148">
+      <c r="B31" s="148"/>
+      <c r="C31" s="147">
         <v>1</v>
       </c>
-      <c r="D31" s="151"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="151">
+      <c r="F31" s="150">
         <v>10</v>
       </c>
-      <c r="G31" s="149"/>
-      <c r="H31" s="148">
-        <v>9</v>
-      </c>
-      <c r="I31" s="149"/>
-      <c r="J31" s="148">
+      <c r="G31" s="148"/>
+      <c r="H31" s="147">
+        <v>10</v>
+      </c>
+      <c r="I31" s="148"/>
+      <c r="J31" s="147">
         <v>1</v>
       </c>
-      <c r="K31" s="151"/>
+      <c r="K31" s="150"/>
       <c r="L31" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="151">
+      <c r="M31" s="150">
         <v>10</v>
       </c>
-      <c r="N31" s="149"/>
-      <c r="O31" s="148">
+      <c r="N31" s="148"/>
+      <c r="O31" s="147">
         <v>9</v>
       </c>
-      <c r="P31" s="149"/>
+      <c r="P31" s="148"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="152">
+      <c r="R31" s="151">
         <f>U30+AL31</f>
         <v>0.71875</v>
       </c>
-      <c r="S31" s="153"/>
+      <c r="S31" s="152"/>
       <c r="T31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U31" s="140">
+      <c r="U31" s="139">
         <f>R31+AM31</f>
         <v>0.74652777777777779</v>
       </c>
-      <c r="V31" s="141"/>
+      <c r="V31" s="140"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="152">
+      <c r="X31" s="151">
         <f>AA30+AL31</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="Y31" s="153"/>
+      <c r="Y31" s="152"/>
       <c r="Z31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="140">
+      <c r="AA31" s="139">
         <f t="shared" ref="AA31" si="4">X31+AM31</f>
         <v>0.77777777777777768</v>
       </c>
-      <c r="AB31" s="141"/>
-      <c r="AD31" s="152">
+      <c r="AB31" s="140"/>
+      <c r="AD31" s="151">
         <f>AG30</f>
         <v>0.78124999999999989</v>
       </c>
-      <c r="AE31" s="153"/>
+      <c r="AE31" s="152"/>
       <c r="AF31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG31" s="140">
+      <c r="AG31" s="139">
         <f>AD31+AN31</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="AH31" s="141"/>
+      <c r="AH31" s="140"/>
       <c r="AL31" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -9314,96 +9336,96 @@
       <c r="AN33" s="88"/>
     </row>
     <row r="34" spans="1:40" ht="17" customHeight="1">
-      <c r="A34" s="206" t="s">
+      <c r="A34" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="206"/>
-      <c r="L34" s="206"/>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="206"/>
-      <c r="S34" s="206"/>
-      <c r="T34" s="206"/>
-      <c r="U34" s="206"/>
-      <c r="V34" s="206"/>
-      <c r="X34" s="166" t="s">
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
+      <c r="M34" s="201"/>
+      <c r="N34" s="201"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="201"/>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="201"/>
+      <c r="T34" s="201"/>
+      <c r="U34" s="201"/>
+      <c r="V34" s="201"/>
+      <c r="X34" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="Y34" s="167"/>
-      <c r="Z34" s="167"/>
-      <c r="AA34" s="167"/>
-      <c r="AB34" s="168"/>
-      <c r="AD34" s="169" t="s">
+      <c r="Y34" s="166"/>
+      <c r="Z34" s="166"/>
+      <c r="AA34" s="166"/>
+      <c r="AB34" s="167"/>
+      <c r="AD34" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="169"/>
-      <c r="AF34" s="169"/>
-      <c r="AG34" s="169"/>
-      <c r="AH34" s="169"/>
+      <c r="AE34" s="168"/>
+      <c r="AF34" s="168"/>
+      <c r="AG34" s="168"/>
+      <c r="AH34" s="168"/>
       <c r="AL34" s="88"/>
       <c r="AM34" s="88"/>
       <c r="AN34" s="88"/>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="206"/>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="206"/>
-      <c r="L35" s="206"/>
-      <c r="M35" s="206"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="206"/>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="206"/>
-      <c r="S35" s="206"/>
-      <c r="T35" s="206"/>
-      <c r="U35" s="206"/>
-      <c r="V35" s="206"/>
-      <c r="X35" s="152">
+      <c r="A35" s="201"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="201"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="201"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="201"/>
+      <c r="L35" s="201"/>
+      <c r="M35" s="201"/>
+      <c r="N35" s="201"/>
+      <c r="O35" s="201"/>
+      <c r="P35" s="201"/>
+      <c r="Q35" s="201"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="201"/>
+      <c r="T35" s="201"/>
+      <c r="U35" s="201"/>
+      <c r="V35" s="201"/>
+      <c r="X35" s="151">
         <f>AG31</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="Y35" s="153"/>
+      <c r="Y35" s="152"/>
       <c r="Z35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA35" s="140">
+      <c r="AA35" s="139">
         <v>0.85416666666666663</v>
       </c>
-      <c r="AB35" s="141"/>
-      <c r="AD35" s="152">
+      <c r="AB35" s="140"/>
+      <c r="AD35" s="169">
         <f>X35</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="AE35" s="153"/>
-      <c r="AF35" s="5" t="s">
+      <c r="AE35" s="170"/>
+      <c r="AF35" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AG35" s="172">
+      <c r="AG35" s="171">
         <f>AA35</f>
         <v>0.85416666666666663</v>
       </c>
-      <c r="AH35" s="177"/>
+      <c r="AH35" s="172"/>
       <c r="AL35" s="88"/>
       <c r="AM35" s="88"/>
       <c r="AN35" s="88"/>
@@ -9424,42 +9446,42 @@
       <c r="AN38" s="88"/>
     </row>
     <row r="39" spans="1:40" ht="20">
-      <c r="A39" s="186" t="s">
+      <c r="A39" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="186"/>
-      <c r="L39" s="186"/>
-      <c r="M39" s="186"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="186"/>
-      <c r="R39" s="186"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="186"/>
-      <c r="U39" s="186"/>
-      <c r="V39" s="186"/>
-      <c r="W39" s="186"/>
-      <c r="X39" s="186"/>
-      <c r="Y39" s="186"/>
-      <c r="Z39" s="186"/>
-      <c r="AA39" s="186"/>
-      <c r="AB39" s="186"/>
-      <c r="AC39" s="186"/>
-      <c r="AD39" s="186"/>
-      <c r="AE39" s="186"/>
-      <c r="AF39" s="186"/>
-      <c r="AG39" s="186"/>
-      <c r="AH39" s="186"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
+      <c r="X39" s="181"/>
+      <c r="Y39" s="181"/>
+      <c r="Z39" s="181"/>
+      <c r="AA39" s="181"/>
+      <c r="AB39" s="181"/>
+      <c r="AC39" s="181"/>
+      <c r="AD39" s="181"/>
+      <c r="AE39" s="181"/>
+      <c r="AF39" s="181"/>
+      <c r="AG39" s="181"/>
+      <c r="AH39" s="181"/>
     </row>
     <row r="40" spans="1:40" ht="9" customHeight="1" thickBot="1">
       <c r="A40" s="77"/>
@@ -9482,42 +9504,42 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="283" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="175"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="175"/>
-      <c r="L41" s="175"/>
-      <c r="M41" s="175"/>
-      <c r="N41" s="175"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
-      <c r="S41" s="175"/>
-      <c r="T41" s="175"/>
-      <c r="U41" s="175"/>
-      <c r="V41" s="175"/>
-      <c r="W41" s="175"/>
-      <c r="X41" s="175"/>
-      <c r="Y41" s="175"/>
-      <c r="Z41" s="175"/>
-      <c r="AA41" s="175"/>
-      <c r="AB41" s="175"/>
-      <c r="AC41" s="175"/>
-      <c r="AD41" s="175"/>
-      <c r="AE41" s="175"/>
-      <c r="AF41" s="175"/>
-      <c r="AG41" s="175"/>
-      <c r="AH41" s="176"/>
+      <c r="B41" s="284"/>
+      <c r="C41" s="284"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
+      <c r="H41" s="284"/>
+      <c r="I41" s="284"/>
+      <c r="J41" s="284"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="284"/>
+      <c r="O41" s="284"/>
+      <c r="P41" s="284"/>
+      <c r="Q41" s="284"/>
+      <c r="R41" s="284"/>
+      <c r="S41" s="284"/>
+      <c r="T41" s="284"/>
+      <c r="U41" s="284"/>
+      <c r="V41" s="284"/>
+      <c r="W41" s="284"/>
+      <c r="X41" s="284"/>
+      <c r="Y41" s="284"/>
+      <c r="Z41" s="284"/>
+      <c r="AA41" s="284"/>
+      <c r="AB41" s="284"/>
+      <c r="AC41" s="284"/>
+      <c r="AD41" s="284"/>
+      <c r="AE41" s="284"/>
+      <c r="AF41" s="284"/>
+      <c r="AG41" s="284"/>
+      <c r="AH41" s="285"/>
     </row>
     <row r="42" spans="1:40" ht="10" customHeight="1" thickTop="1">
       <c r="A42" s="90"/>
@@ -9556,130 +9578,130 @@
       <c r="AH42" s="86"/>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="154" t="s">
+      <c r="A43" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="155"/>
-      <c r="C43" s="156" t="s">
+      <c r="B43" s="154"/>
+      <c r="C43" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="156" t="s">
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="158"/>
-      <c r="J43" s="156" t="s">
+      <c r="I43" s="157"/>
+      <c r="J43" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="156" t="s">
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="P43" s="159"/>
+      <c r="P43" s="158"/>
       <c r="Q43" s="87"/>
-      <c r="R43" s="142" t="s">
+      <c r="R43" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="S43" s="143"/>
-      <c r="T43" s="143"/>
-      <c r="U43" s="143"/>
-      <c r="V43" s="144"/>
+      <c r="S43" s="142"/>
+      <c r="T43" s="142"/>
+      <c r="U43" s="142"/>
+      <c r="V43" s="143"/>
       <c r="W43" s="87"/>
-      <c r="X43" s="160" t="s">
+      <c r="X43" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Y43" s="161"/>
-      <c r="Z43" s="161"/>
-      <c r="AA43" s="161"/>
-      <c r="AB43" s="162"/>
+      <c r="Y43" s="160"/>
+      <c r="Z43" s="160"/>
+      <c r="AA43" s="160"/>
+      <c r="AB43" s="161"/>
       <c r="AC43" s="87"/>
-      <c r="AD43" s="150" t="s">
+      <c r="AD43" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="150"/>
-      <c r="AF43" s="150"/>
-      <c r="AG43" s="150"/>
-      <c r="AH43" s="150"/>
+      <c r="AE43" s="149"/>
+      <c r="AF43" s="149"/>
+      <c r="AG43" s="149"/>
+      <c r="AH43" s="149"/>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="148">
+      <c r="B44" s="148"/>
+      <c r="C44" s="147">
         <v>1</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="150"/>
       <c r="E44" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="151">
+      <c r="F44" s="150">
         <v>12</v>
       </c>
-      <c r="G44" s="149"/>
-      <c r="H44" s="148">
+      <c r="G44" s="148"/>
+      <c r="H44" s="147">
         <v>12</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="148">
+      <c r="I44" s="148"/>
+      <c r="J44" s="147">
         <v>1</v>
       </c>
-      <c r="K44" s="151"/>
+      <c r="K44" s="150"/>
       <c r="L44" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="151">
+      <c r="M44" s="150">
         <v>12</v>
       </c>
-      <c r="N44" s="149"/>
-      <c r="O44" s="148">
+      <c r="N44" s="148"/>
+      <c r="O44" s="147">
         <v>12</v>
       </c>
-      <c r="P44" s="149"/>
-      <c r="R44" s="145">
+      <c r="P44" s="148"/>
+      <c r="R44" s="144">
         <v>0.35416666666666669</v>
       </c>
-      <c r="S44" s="146"/>
+      <c r="S44" s="145"/>
       <c r="T44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="140">
+      <c r="U44" s="139">
         <f>R44+AM44</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="V44" s="141"/>
-      <c r="X44" s="145">
+      <c r="V44" s="140"/>
+      <c r="X44" s="144">
         <f>U44+AL44</f>
         <v>0.375</v>
       </c>
-      <c r="Y44" s="146"/>
+      <c r="Y44" s="145"/>
       <c r="Z44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA44" s="140">
+      <c r="AA44" s="139">
         <f>X44+AM44</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="AB44" s="141"/>
-      <c r="AD44" s="145">
+      <c r="AB44" s="140"/>
+      <c r="AD44" s="144">
         <f>AA44+AL44</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="AE44" s="146"/>
+      <c r="AE44" s="145"/>
       <c r="AF44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG44" s="140">
+      <c r="AG44" s="139">
         <f>AD44+AN44</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="AH44" s="141"/>
+      <c r="AH44" s="140"/>
       <c r="AL44" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -9691,79 +9713,79 @@
       </c>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="148">
+      <c r="B45" s="148"/>
+      <c r="C45" s="147">
         <v>1</v>
       </c>
-      <c r="D45" s="151"/>
+      <c r="D45" s="150"/>
       <c r="E45" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="151">
+      <c r="F45" s="150">
         <v>12</v>
       </c>
-      <c r="G45" s="149"/>
-      <c r="H45" s="148">
+      <c r="G45" s="148"/>
+      <c r="H45" s="147">
         <v>12</v>
       </c>
-      <c r="I45" s="149"/>
-      <c r="J45" s="148">
+      <c r="I45" s="148"/>
+      <c r="J45" s="147">
         <v>1</v>
       </c>
-      <c r="K45" s="151"/>
+      <c r="K45" s="150"/>
       <c r="L45" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="151">
+      <c r="M45" s="150">
         <v>12</v>
       </c>
-      <c r="N45" s="149"/>
-      <c r="O45" s="148">
+      <c r="N45" s="148"/>
+      <c r="O45" s="147">
         <v>12</v>
       </c>
-      <c r="P45" s="149"/>
-      <c r="R45" s="145">
+      <c r="P45" s="148"/>
+      <c r="R45" s="144">
         <f>U44+AL45</f>
         <v>0.375</v>
       </c>
-      <c r="S45" s="146"/>
+      <c r="S45" s="145"/>
       <c r="T45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U45" s="140">
+      <c r="U45" s="139">
         <f>R45+AM45</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="V45" s="141"/>
-      <c r="X45" s="145">
+      <c r="V45" s="140"/>
+      <c r="X45" s="144">
         <f>U45+AL45</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="Y45" s="146"/>
+      <c r="Y45" s="145"/>
       <c r="Z45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA45" s="140">
+      <c r="AA45" s="139">
         <f>X45+AM45</f>
         <v>0.41319444444444442</v>
       </c>
-      <c r="AB45" s="141"/>
-      <c r="AD45" s="145">
+      <c r="AB45" s="140"/>
+      <c r="AD45" s="144">
         <f>AG44</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="AE45" s="146"/>
+      <c r="AE45" s="145"/>
       <c r="AF45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG45" s="140">
+      <c r="AG45" s="139">
         <f>AD45+AN45</f>
         <v>0.43749999999999994</v>
       </c>
-      <c r="AH45" s="141"/>
+      <c r="AH45" s="140"/>
       <c r="AL45" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -9775,81 +9797,81 @@
       </c>
     </row>
     <row r="46" spans="1:40" ht="24" customHeight="1">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="147"/>
-      <c r="S46" s="147"/>
-      <c r="T46" s="147"/>
-      <c r="U46" s="147"/>
-      <c r="V46" s="147"/>
-      <c r="W46" s="147"/>
-      <c r="X46" s="147"/>
-      <c r="Y46" s="147"/>
-      <c r="Z46" s="147"/>
-      <c r="AA46" s="147"/>
-      <c r="AB46" s="147"/>
-      <c r="AC46" s="147"/>
-      <c r="AD46" s="147"/>
-      <c r="AE46" s="147"/>
-      <c r="AF46" s="147"/>
-      <c r="AG46" s="147"/>
-      <c r="AH46" s="147"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="146"/>
+      <c r="W46" s="146"/>
+      <c r="X46" s="146"/>
+      <c r="Y46" s="146"/>
+      <c r="Z46" s="146"/>
+      <c r="AA46" s="146"/>
+      <c r="AB46" s="146"/>
+      <c r="AC46" s="146"/>
+      <c r="AD46" s="146"/>
+      <c r="AE46" s="146"/>
+      <c r="AF46" s="146"/>
+      <c r="AG46" s="146"/>
+      <c r="AH46" s="146"/>
     </row>
     <row r="47" spans="1:40" ht="18" thickBot="1"/>
     <row r="48" spans="1:40" ht="22" thickTop="1" thickBot="1">
-      <c r="A48" s="174" t="s">
+      <c r="A48" s="283" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="175"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="175"/>
-      <c r="E48" s="175"/>
-      <c r="F48" s="175"/>
-      <c r="G48" s="175"/>
-      <c r="H48" s="175"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="175"/>
-      <c r="K48" s="175"/>
-      <c r="L48" s="175"/>
-      <c r="M48" s="175"/>
-      <c r="N48" s="175"/>
-      <c r="O48" s="175"/>
-      <c r="P48" s="175"/>
-      <c r="Q48" s="175"/>
-      <c r="R48" s="175"/>
-      <c r="S48" s="175"/>
-      <c r="T48" s="175"/>
-      <c r="U48" s="175"/>
-      <c r="V48" s="175"/>
-      <c r="W48" s="175"/>
-      <c r="X48" s="175"/>
-      <c r="Y48" s="175"/>
-      <c r="Z48" s="175"/>
-      <c r="AA48" s="175"/>
-      <c r="AB48" s="175"/>
-      <c r="AC48" s="175"/>
-      <c r="AD48" s="175"/>
-      <c r="AE48" s="175"/>
-      <c r="AF48" s="175"/>
-      <c r="AG48" s="175"/>
-      <c r="AH48" s="176"/>
+      <c r="B48" s="284"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="284"/>
+      <c r="J48" s="284"/>
+      <c r="K48" s="284"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="284"/>
+      <c r="N48" s="284"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="284"/>
+      <c r="Q48" s="284"/>
+      <c r="R48" s="284"/>
+      <c r="S48" s="284"/>
+      <c r="T48" s="284"/>
+      <c r="U48" s="284"/>
+      <c r="V48" s="284"/>
+      <c r="W48" s="284"/>
+      <c r="X48" s="284"/>
+      <c r="Y48" s="284"/>
+      <c r="Z48" s="284"/>
+      <c r="AA48" s="284"/>
+      <c r="AB48" s="284"/>
+      <c r="AC48" s="284"/>
+      <c r="AD48" s="284"/>
+      <c r="AE48" s="284"/>
+      <c r="AF48" s="284"/>
+      <c r="AG48" s="284"/>
+      <c r="AH48" s="285"/>
     </row>
     <row r="49" spans="1:41" ht="10" customHeight="1" thickTop="1">
       <c r="A49" s="90"/>
@@ -9888,131 +9910,131 @@
       <c r="AH49" s="86"/>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="154" t="s">
+      <c r="A50" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="155"/>
-      <c r="C50" s="156" t="s">
+      <c r="B50" s="154"/>
+      <c r="C50" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="156" t="s">
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="158"/>
-      <c r="J50" s="156" t="s">
+      <c r="I50" s="157"/>
+      <c r="J50" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="159"/>
-      <c r="O50" s="156" t="s">
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="P50" s="159"/>
+      <c r="P50" s="158"/>
       <c r="Q50" s="87"/>
-      <c r="R50" s="142" t="s">
+      <c r="R50" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="S50" s="143"/>
-      <c r="T50" s="143"/>
-      <c r="U50" s="143"/>
-      <c r="V50" s="144"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="143"/>
       <c r="W50" s="87"/>
-      <c r="X50" s="160" t="s">
+      <c r="X50" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Y50" s="161"/>
-      <c r="Z50" s="161"/>
-      <c r="AA50" s="161"/>
-      <c r="AB50" s="162"/>
+      <c r="Y50" s="160"/>
+      <c r="Z50" s="160"/>
+      <c r="AA50" s="160"/>
+      <c r="AB50" s="161"/>
       <c r="AC50" s="87"/>
-      <c r="AD50" s="150" t="s">
+      <c r="AD50" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE50" s="150"/>
-      <c r="AF50" s="150"/>
-      <c r="AG50" s="150"/>
-      <c r="AH50" s="150"/>
+      <c r="AE50" s="149"/>
+      <c r="AF50" s="149"/>
+      <c r="AG50" s="149"/>
+      <c r="AH50" s="149"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="148" t="s">
+      <c r="A51" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="149"/>
-      <c r="C51" s="148">
+      <c r="B51" s="148"/>
+      <c r="C51" s="147">
         <v>1</v>
       </c>
-      <c r="D51" s="151"/>
+      <c r="D51" s="150"/>
       <c r="E51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="151">
+      <c r="F51" s="150">
         <v>8</v>
       </c>
-      <c r="G51" s="149"/>
-      <c r="H51" s="148">
+      <c r="G51" s="148"/>
+      <c r="H51" s="147">
         <v>8</v>
       </c>
-      <c r="I51" s="149"/>
-      <c r="J51" s="148">
+      <c r="I51" s="148"/>
+      <c r="J51" s="147">
         <v>1</v>
       </c>
-      <c r="K51" s="151"/>
+      <c r="K51" s="150"/>
       <c r="L51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="151">
+      <c r="M51" s="150">
         <v>8</v>
       </c>
-      <c r="N51" s="149"/>
-      <c r="O51" s="148">
+      <c r="N51" s="148"/>
+      <c r="O51" s="147">
         <v>8</v>
       </c>
-      <c r="P51" s="149"/>
-      <c r="R51" s="152">
+      <c r="P51" s="148"/>
+      <c r="R51" s="151">
         <f>U51-AM51</f>
         <v>0.43055555555555552</v>
       </c>
-      <c r="S51" s="153"/>
+      <c r="S51" s="152"/>
       <c r="T51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U51" s="140">
+      <c r="U51" s="139">
         <f>X51-AL51</f>
         <v>0.44791666666666663</v>
       </c>
-      <c r="V51" s="141"/>
-      <c r="X51" s="152">
+      <c r="V51" s="140"/>
+      <c r="X51" s="151">
         <f>AG45+AM65</f>
         <v>0.45138888888888884</v>
       </c>
-      <c r="Y51" s="153"/>
+      <c r="Y51" s="152"/>
       <c r="Z51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA51" s="140">
+      <c r="AA51" s="139">
         <f>X51+AM51</f>
         <v>0.46874999999999994</v>
       </c>
-      <c r="AB51" s="141"/>
-      <c r="AD51" s="152">
+      <c r="AB51" s="140"/>
+      <c r="AD51" s="151">
         <f>AA51+AL51</f>
         <v>0.47222222222222215</v>
       </c>
-      <c r="AE51" s="153"/>
+      <c r="AE51" s="152"/>
       <c r="AF51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG51" s="140">
+      <c r="AG51" s="139">
         <f>AD51+AN51</f>
         <v>0.49305555555555547</v>
       </c>
-      <c r="AH51" s="141"/>
+      <c r="AH51" s="140"/>
       <c r="AL51" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -10024,42 +10046,42 @@
       </c>
     </row>
     <row r="52" spans="1:41" ht="24" customHeight="1">
-      <c r="A52" s="147" t="s">
+      <c r="A52" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="147"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
-      <c r="Y52" s="147"/>
-      <c r="Z52" s="147"/>
-      <c r="AA52" s="147"/>
-      <c r="AB52" s="147"/>
-      <c r="AC52" s="147"/>
-      <c r="AD52" s="147"/>
-      <c r="AE52" s="147"/>
-      <c r="AF52" s="147"/>
-      <c r="AG52" s="147"/>
-      <c r="AH52" s="147"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="146"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="146"/>
+      <c r="P52" s="146"/>
+      <c r="Q52" s="146"/>
+      <c r="R52" s="146"/>
+      <c r="S52" s="146"/>
+      <c r="T52" s="146"/>
+      <c r="U52" s="146"/>
+      <c r="V52" s="146"/>
+      <c r="W52" s="146"/>
+      <c r="X52" s="146"/>
+      <c r="Y52" s="146"/>
+      <c r="Z52" s="146"/>
+      <c r="AA52" s="146"/>
+      <c r="AB52" s="146"/>
+      <c r="AC52" s="146"/>
+      <c r="AD52" s="146"/>
+      <c r="AE52" s="146"/>
+      <c r="AF52" s="146"/>
+      <c r="AG52" s="146"/>
+      <c r="AH52" s="146"/>
     </row>
     <row r="53" spans="1:41" ht="10" customHeight="1">
       <c r="K53" s="81"/>
@@ -10067,49 +10089,49 @@
       <c r="M53" s="81"/>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="201" t="s">
+      <c r="A54" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="201"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="201"/>
-      <c r="O54" s="201"/>
-      <c r="P54" s="201"/>
-      <c r="Q54" s="201"/>
-      <c r="R54" s="201"/>
-      <c r="S54" s="201"/>
-      <c r="T54" s="201"/>
-      <c r="U54" s="201"/>
-      <c r="V54" s="201"/>
-      <c r="W54" s="201"/>
-      <c r="X54" s="201"/>
-      <c r="Y54" s="201"/>
-      <c r="Z54" s="201"/>
-      <c r="AA54" s="201"/>
-      <c r="AB54" s="201"/>
-      <c r="AD54" s="136">
+      <c r="B54" s="196"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="196"/>
+      <c r="M54" s="196"/>
+      <c r="N54" s="196"/>
+      <c r="O54" s="196"/>
+      <c r="P54" s="196"/>
+      <c r="Q54" s="196"/>
+      <c r="R54" s="196"/>
+      <c r="S54" s="196"/>
+      <c r="T54" s="196"/>
+      <c r="U54" s="196"/>
+      <c r="V54" s="196"/>
+      <c r="W54" s="196"/>
+      <c r="X54" s="196"/>
+      <c r="Y54" s="196"/>
+      <c r="Z54" s="196"/>
+      <c r="AA54" s="196"/>
+      <c r="AB54" s="196"/>
+      <c r="AD54" s="135">
         <f>AG51</f>
         <v>0.49305555555555547</v>
       </c>
-      <c r="AE54" s="137"/>
+      <c r="AE54" s="136"/>
       <c r="AF54" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AG54" s="138">
+      <c r="AG54" s="137">
         <f>AD54+AL54</f>
         <v>0.49999999999999989</v>
       </c>
-      <c r="AH54" s="139"/>
+      <c r="AH54" s="138"/>
       <c r="AL54" s="92">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -10120,95 +10142,95 @@
       <c r="M55" s="81"/>
     </row>
     <row r="56" spans="1:41">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="207"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="207"/>
-      <c r="E56" s="207"/>
-      <c r="F56" s="207"/>
-      <c r="G56" s="207"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="207"/>
-      <c r="K56" s="207"/>
-      <c r="L56" s="207"/>
-      <c r="M56" s="207"/>
-      <c r="N56" s="207"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="207"/>
-      <c r="R56" s="207"/>
-      <c r="S56" s="207"/>
-      <c r="T56" s="207"/>
-      <c r="U56" s="207"/>
-      <c r="V56" s="207"/>
-      <c r="X56" s="166" t="s">
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="202"/>
+      <c r="K56" s="202"/>
+      <c r="L56" s="202"/>
+      <c r="M56" s="202"/>
+      <c r="N56" s="202"/>
+      <c r="O56" s="202"/>
+      <c r="P56" s="202"/>
+      <c r="Q56" s="202"/>
+      <c r="R56" s="202"/>
+      <c r="S56" s="202"/>
+      <c r="T56" s="202"/>
+      <c r="U56" s="202"/>
+      <c r="V56" s="202"/>
+      <c r="X56" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="Y56" s="167"/>
-      <c r="Z56" s="167"/>
-      <c r="AA56" s="167"/>
-      <c r="AB56" s="168"/>
+      <c r="Y56" s="166"/>
+      <c r="Z56" s="166"/>
+      <c r="AA56" s="166"/>
+      <c r="AB56" s="167"/>
       <c r="AC56" s="87"/>
-      <c r="AD56" s="169" t="s">
+      <c r="AD56" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="AE56" s="169"/>
-      <c r="AF56" s="169"/>
-      <c r="AG56" s="169"/>
-      <c r="AH56" s="169"/>
+      <c r="AE56" s="168"/>
+      <c r="AF56" s="168"/>
+      <c r="AG56" s="168"/>
+      <c r="AH56" s="168"/>
     </row>
     <row r="57" spans="1:41">
-      <c r="A57" s="207"/>
-      <c r="B57" s="207"/>
-      <c r="C57" s="207"/>
-      <c r="D57" s="207"/>
-      <c r="E57" s="207"/>
-      <c r="F57" s="207"/>
-      <c r="G57" s="207"/>
-      <c r="H57" s="207"/>
-      <c r="I57" s="207"/>
-      <c r="J57" s="207"/>
-      <c r="K57" s="207"/>
-      <c r="L57" s="207"/>
-      <c r="M57" s="207"/>
-      <c r="N57" s="207"/>
-      <c r="O57" s="207"/>
-      <c r="P57" s="207"/>
-      <c r="Q57" s="207"/>
-      <c r="R57" s="207"/>
-      <c r="S57" s="207"/>
-      <c r="T57" s="207"/>
-      <c r="U57" s="207"/>
-      <c r="V57" s="207"/>
-      <c r="X57" s="170">
+      <c r="A57" s="202"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="202"/>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="202"/>
+      <c r="O57" s="202"/>
+      <c r="P57" s="202"/>
+      <c r="Q57" s="202"/>
+      <c r="R57" s="202"/>
+      <c r="S57" s="202"/>
+      <c r="T57" s="202"/>
+      <c r="U57" s="202"/>
+      <c r="V57" s="202"/>
+      <c r="X57" s="169">
         <f>AG54+AO57</f>
         <v>0.50694444444444431</v>
       </c>
-      <c r="Y57" s="171"/>
+      <c r="Y57" s="170"/>
       <c r="Z57" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AA57" s="172">
+      <c r="AA57" s="171">
         <f>X57+AM57</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="AB57" s="173"/>
-      <c r="AD57" s="170">
+      <c r="AB57" s="172"/>
+      <c r="AD57" s="169">
         <f>X57</f>
         <v>0.50694444444444431</v>
       </c>
-      <c r="AE57" s="171"/>
+      <c r="AE57" s="170"/>
       <c r="AF57" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AG57" s="172">
+      <c r="AG57" s="171">
         <f>AA57</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="AH57" s="173"/>
+      <c r="AH57" s="172"/>
       <c r="AL57" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -10225,50 +10247,50 @@
     <row r="58" spans="1:41" customFormat="1" ht="9" customHeight="1"/>
     <row r="59" spans="1:41" customFormat="1" ht="9" customHeight="1" thickBot="1"/>
     <row r="60" spans="1:41" ht="19" customHeight="1" thickBot="1">
-      <c r="A60" s="195" t="s">
+      <c r="A60" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="164"/>
-      <c r="C60" s="164"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="164"/>
-      <c r="M60" s="164"/>
-      <c r="N60" s="164"/>
-      <c r="O60" s="164"/>
-      <c r="P60" s="164"/>
-      <c r="Q60" s="164"/>
-      <c r="R60" s="164"/>
-      <c r="S60" s="164"/>
-      <c r="T60" s="164"/>
-      <c r="U60" s="164"/>
-      <c r="V60" s="164"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="163"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="163"/>
+      <c r="H60" s="163"/>
+      <c r="I60" s="163"/>
+      <c r="J60" s="163"/>
+      <c r="K60" s="163"/>
+      <c r="L60" s="163"/>
+      <c r="M60" s="163"/>
+      <c r="N60" s="163"/>
+      <c r="O60" s="163"/>
+      <c r="P60" s="163"/>
+      <c r="Q60" s="163"/>
+      <c r="R60" s="163"/>
+      <c r="S60" s="163"/>
+      <c r="T60" s="163"/>
+      <c r="U60" s="163"/>
+      <c r="V60" s="163"/>
       <c r="W60" s="89"/>
-      <c r="X60" s="202">
+      <c r="X60" s="197">
         <f>AG51</f>
         <v>0.49305555555555547</v>
       </c>
-      <c r="Y60" s="203"/>
+      <c r="Y60" s="198"/>
       <c r="Z60" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA60" s="204">
+      <c r="AA60" s="199">
         <f>AD65-AL60</f>
         <v>0.5381944444444442</v>
       </c>
-      <c r="AB60" s="205"/>
+      <c r="AB60" s="200"/>
       <c r="AC60" s="89"/>
-      <c r="AD60" s="163"/>
-      <c r="AE60" s="164"/>
+      <c r="AD60" s="162"/>
+      <c r="AE60" s="163"/>
       <c r="AF60" s="79"/>
-      <c r="AG60" s="163"/>
-      <c r="AH60" s="165"/>
+      <c r="AG60" s="162"/>
+      <c r="AH60" s="164"/>
       <c r="AL60" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -10285,42 +10307,42 @@
       <c r="M61" s="81"/>
     </row>
     <row r="62" spans="1:41" ht="22" thickTop="1" thickBot="1">
-      <c r="A62" s="174" t="s">
+      <c r="A62" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="175"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="175"/>
-      <c r="E62" s="175"/>
-      <c r="F62" s="175"/>
-      <c r="G62" s="175"/>
-      <c r="H62" s="175"/>
-      <c r="I62" s="175"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="175"/>
-      <c r="L62" s="175"/>
-      <c r="M62" s="175"/>
-      <c r="N62" s="175"/>
-      <c r="O62" s="175"/>
-      <c r="P62" s="175"/>
-      <c r="Q62" s="175"/>
-      <c r="R62" s="175"/>
-      <c r="S62" s="175"/>
-      <c r="T62" s="175"/>
-      <c r="U62" s="175"/>
-      <c r="V62" s="175"/>
-      <c r="W62" s="175"/>
-      <c r="X62" s="175"/>
-      <c r="Y62" s="175"/>
-      <c r="Z62" s="175"/>
-      <c r="AA62" s="175"/>
-      <c r="AB62" s="175"/>
-      <c r="AC62" s="175"/>
-      <c r="AD62" s="175"/>
-      <c r="AE62" s="175"/>
-      <c r="AF62" s="175"/>
-      <c r="AG62" s="175"/>
-      <c r="AH62" s="176"/>
+      <c r="B62" s="284"/>
+      <c r="C62" s="284"/>
+      <c r="D62" s="284"/>
+      <c r="E62" s="284"/>
+      <c r="F62" s="284"/>
+      <c r="G62" s="284"/>
+      <c r="H62" s="284"/>
+      <c r="I62" s="284"/>
+      <c r="J62" s="284"/>
+      <c r="K62" s="284"/>
+      <c r="L62" s="284"/>
+      <c r="M62" s="284"/>
+      <c r="N62" s="284"/>
+      <c r="O62" s="284"/>
+      <c r="P62" s="284"/>
+      <c r="Q62" s="284"/>
+      <c r="R62" s="284"/>
+      <c r="S62" s="284"/>
+      <c r="T62" s="284"/>
+      <c r="U62" s="284"/>
+      <c r="V62" s="284"/>
+      <c r="W62" s="284"/>
+      <c r="X62" s="284"/>
+      <c r="Y62" s="284"/>
+      <c r="Z62" s="284"/>
+      <c r="AA62" s="284"/>
+      <c r="AB62" s="284"/>
+      <c r="AC62" s="284"/>
+      <c r="AD62" s="284"/>
+      <c r="AE62" s="284"/>
+      <c r="AF62" s="284"/>
+      <c r="AG62" s="284"/>
+      <c r="AH62" s="285"/>
     </row>
     <row r="63" spans="1:41" ht="10" customHeight="1" thickTop="1">
       <c r="A63" s="90"/>
@@ -10359,131 +10381,131 @@
       <c r="AH63" s="86"/>
     </row>
     <row r="64" spans="1:41">
-      <c r="A64" s="154" t="s">
+      <c r="A64" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="155"/>
-      <c r="C64" s="156" t="s">
+      <c r="B64" s="154"/>
+      <c r="C64" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="156" t="s">
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="158"/>
-      <c r="J64" s="156" t="s">
+      <c r="I64" s="157"/>
+      <c r="J64" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="158"/>
-      <c r="O64" s="156" t="s">
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="157"/>
+      <c r="O64" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="P64" s="159"/>
+      <c r="P64" s="158"/>
       <c r="Q64" s="87"/>
-      <c r="R64" s="142" t="s">
+      <c r="R64" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="S64" s="143"/>
-      <c r="T64" s="143"/>
-      <c r="U64" s="143"/>
-      <c r="V64" s="144"/>
+      <c r="S64" s="142"/>
+      <c r="T64" s="142"/>
+      <c r="U64" s="142"/>
+      <c r="V64" s="143"/>
       <c r="W64" s="87"/>
-      <c r="X64" s="160" t="s">
+      <c r="X64" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Y64" s="161"/>
-      <c r="Z64" s="161"/>
-      <c r="AA64" s="161"/>
-      <c r="AB64" s="162"/>
+      <c r="Y64" s="160"/>
+      <c r="Z64" s="160"/>
+      <c r="AA64" s="160"/>
+      <c r="AB64" s="161"/>
       <c r="AC64" s="87"/>
-      <c r="AD64" s="150" t="s">
+      <c r="AD64" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE64" s="150"/>
-      <c r="AF64" s="150"/>
-      <c r="AG64" s="150"/>
-      <c r="AH64" s="150"/>
+      <c r="AE64" s="149"/>
+      <c r="AF64" s="149"/>
+      <c r="AG64" s="149"/>
+      <c r="AH64" s="149"/>
     </row>
     <row r="65" spans="1:40">
-      <c r="A65" s="148" t="s">
+      <c r="A65" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="149"/>
-      <c r="C65" s="148">
+      <c r="B65" s="148"/>
+      <c r="C65" s="147">
         <v>1</v>
       </c>
-      <c r="D65" s="151"/>
+      <c r="D65" s="150"/>
       <c r="E65" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="151">
+      <c r="F65" s="150">
         <v>8</v>
       </c>
-      <c r="G65" s="149"/>
-      <c r="H65" s="148">
+      <c r="G65" s="148"/>
+      <c r="H65" s="147">
         <v>8</v>
       </c>
-      <c r="I65" s="149"/>
-      <c r="J65" s="148">
+      <c r="I65" s="148"/>
+      <c r="J65" s="147">
         <v>1</v>
       </c>
-      <c r="K65" s="151"/>
+      <c r="K65" s="150"/>
       <c r="L65" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M65" s="151">
+      <c r="M65" s="150">
         <v>8</v>
       </c>
-      <c r="N65" s="149"/>
-      <c r="O65" s="148">
+      <c r="N65" s="148"/>
+      <c r="O65" s="147">
         <v>8</v>
       </c>
-      <c r="P65" s="149"/>
-      <c r="R65" s="152">
+      <c r="P65" s="148"/>
+      <c r="R65" s="151">
         <f>U65-AN45</f>
         <v>0.49999999999999983</v>
       </c>
-      <c r="S65" s="153"/>
+      <c r="S65" s="152"/>
       <c r="T65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U65" s="140">
+      <c r="U65" s="139">
         <f>X65-AL65</f>
         <v>0.52083333333333315</v>
       </c>
-      <c r="V65" s="141"/>
-      <c r="X65" s="152">
+      <c r="V65" s="140"/>
+      <c r="X65" s="151">
         <f>AG57+AL57</f>
         <v>0.52430555555555536</v>
       </c>
-      <c r="Y65" s="153"/>
+      <c r="Y65" s="152"/>
       <c r="Z65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA65" s="140">
+      <c r="AA65" s="139">
         <f>X65+AM65</f>
         <v>0.5381944444444442</v>
       </c>
-      <c r="AB65" s="141"/>
-      <c r="AD65" s="152">
+      <c r="AB65" s="140"/>
+      <c r="AD65" s="151">
         <f>AA65+AL65</f>
         <v>0.54166666666666641</v>
       </c>
-      <c r="AE65" s="153"/>
+      <c r="AE65" s="152"/>
       <c r="AF65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG65" s="140">
+      <c r="AG65" s="139">
         <f>AD65+AN65</f>
         <v>0.56597222222222199</v>
       </c>
-      <c r="AH65" s="141"/>
+      <c r="AH65" s="140"/>
       <c r="AL65" s="88">
         <v>3.472222222222222E-3</v>
       </c>
@@ -10495,42 +10517,42 @@
       </c>
     </row>
     <row r="66" spans="1:40" ht="24" customHeight="1">
-      <c r="A66" s="147" t="s">
+      <c r="A66" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="147"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="147"/>
-      <c r="N66" s="147"/>
-      <c r="O66" s="147"/>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="147"/>
-      <c r="S66" s="147"/>
-      <c r="T66" s="147"/>
-      <c r="U66" s="147"/>
-      <c r="V66" s="147"/>
-      <c r="W66" s="147"/>
-      <c r="X66" s="147"/>
-      <c r="Y66" s="147"/>
-      <c r="Z66" s="147"/>
-      <c r="AA66" s="147"/>
-      <c r="AB66" s="147"/>
-      <c r="AC66" s="147"/>
-      <c r="AD66" s="147"/>
-      <c r="AE66" s="147"/>
-      <c r="AF66" s="147"/>
-      <c r="AG66" s="147"/>
-      <c r="AH66" s="147"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="146"/>
+      <c r="H66" s="146"/>
+      <c r="I66" s="146"/>
+      <c r="J66" s="146"/>
+      <c r="K66" s="146"/>
+      <c r="L66" s="146"/>
+      <c r="M66" s="146"/>
+      <c r="N66" s="146"/>
+      <c r="O66" s="146"/>
+      <c r="P66" s="146"/>
+      <c r="Q66" s="146"/>
+      <c r="R66" s="146"/>
+      <c r="S66" s="146"/>
+      <c r="T66" s="146"/>
+      <c r="U66" s="146"/>
+      <c r="V66" s="146"/>
+      <c r="W66" s="146"/>
+      <c r="X66" s="146"/>
+      <c r="Y66" s="146"/>
+      <c r="Z66" s="146"/>
+      <c r="AA66" s="146"/>
+      <c r="AB66" s="146"/>
+      <c r="AC66" s="146"/>
+      <c r="AD66" s="146"/>
+      <c r="AE66" s="146"/>
+      <c r="AF66" s="146"/>
+      <c r="AG66" s="146"/>
+      <c r="AH66" s="146"/>
     </row>
     <row r="67" spans="1:40" ht="10" customHeight="1">
       <c r="K67" s="81"/>
@@ -10538,49 +10560,49 @@
       <c r="M67" s="81"/>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="201" t="s">
+      <c r="A68" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="201"/>
-      <c r="C68" s="201"/>
-      <c r="D68" s="201"/>
-      <c r="E68" s="201"/>
-      <c r="F68" s="201"/>
-      <c r="G68" s="201"/>
-      <c r="H68" s="201"/>
-      <c r="I68" s="201"/>
-      <c r="J68" s="201"/>
-      <c r="K68" s="201"/>
-      <c r="L68" s="201"/>
-      <c r="M68" s="201"/>
-      <c r="N68" s="201"/>
-      <c r="O68" s="201"/>
-      <c r="P68" s="201"/>
-      <c r="Q68" s="201"/>
-      <c r="R68" s="201"/>
-      <c r="S68" s="201"/>
-      <c r="T68" s="201"/>
-      <c r="U68" s="201"/>
-      <c r="V68" s="201"/>
-      <c r="W68" s="201"/>
-      <c r="X68" s="201"/>
-      <c r="Y68" s="201"/>
-      <c r="Z68" s="201"/>
-      <c r="AA68" s="201"/>
-      <c r="AB68" s="201"/>
-      <c r="AD68" s="136">
+      <c r="B68" s="196"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="196"/>
+      <c r="E68" s="196"/>
+      <c r="F68" s="196"/>
+      <c r="G68" s="196"/>
+      <c r="H68" s="196"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="196"/>
+      <c r="K68" s="196"/>
+      <c r="L68" s="196"/>
+      <c r="M68" s="196"/>
+      <c r="N68" s="196"/>
+      <c r="O68" s="196"/>
+      <c r="P68" s="196"/>
+      <c r="Q68" s="196"/>
+      <c r="R68" s="196"/>
+      <c r="S68" s="196"/>
+      <c r="T68" s="196"/>
+      <c r="U68" s="196"/>
+      <c r="V68" s="196"/>
+      <c r="W68" s="196"/>
+      <c r="X68" s="196"/>
+      <c r="Y68" s="196"/>
+      <c r="Z68" s="196"/>
+      <c r="AA68" s="196"/>
+      <c r="AB68" s="196"/>
+      <c r="AD68" s="135">
         <f>AG65</f>
         <v>0.56597222222222199</v>
       </c>
-      <c r="AE68" s="137"/>
+      <c r="AE68" s="136"/>
       <c r="AF68" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AG68" s="138">
+      <c r="AG68" s="137">
         <f>AD68+AL68</f>
         <v>0.57291666666666641</v>
       </c>
-      <c r="AH68" s="139"/>
+      <c r="AH68" s="138"/>
       <c r="AL68" s="92">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -10949,8 +10971,8 @@
   </sheetPr>
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -10973,48 +10995,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
     </row>
     <row r="2" spans="1:9" ht="20">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="249" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1"/>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="B5" s="70"/>
       <c r="C5" s="72"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
       <c r="G5" s="72"/>
       <c r="H5" s="15">
         <v>2.0833333333333332E-2</v>
@@ -11036,8 +11058,8 @@
       <c r="E7" s="14"/>
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
-      <c r="H7" s="258"/>
-      <c r="I7" s="258"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="B8" s="71"/>
@@ -11045,8 +11067,8 @@
       <c r="E8" s="14"/>
       <c r="F8" s="73"/>
       <c r="G8" s="73"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="258"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="B9" s="71"/>
@@ -11054,8 +11076,8 @@
       <c r="E9" s="14"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="B10" s="71"/>
@@ -11063,8 +11085,8 @@
       <c r="E10" s="14"/>
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="B11" s="71"/>
@@ -11072,8 +11094,8 @@
       <c r="E11" s="14"/>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="B12" s="71"/>
@@ -11081,1032 +11103,1032 @@
       <c r="E12" s="14"/>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="258"/>
-      <c r="I12" s="258"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="14" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="113" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="238" t="s">
+      <c r="A15" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="97">
         <v>1</v>
       </c>
-      <c r="D15" s="231">
+      <c r="D15" s="228">
         <f>SUM(C15:C24)</f>
         <v>11</v>
       </c>
-      <c r="E15" s="250" t="s">
+      <c r="E15" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="108">
         <v>1</v>
       </c>
-      <c r="H15" s="228">
+      <c r="H15" s="225">
         <f>SUM(G15:G24)</f>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="246"/>
-      <c r="B16" s="100" t="s">
+      <c r="A16" s="239"/>
+      <c r="B16" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="99">
         <v>2</v>
       </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="112" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="109">
         <v>1</v>
       </c>
-      <c r="H16" s="253"/>
+      <c r="H16" s="246"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="246"/>
-      <c r="B17" s="100" t="s">
+      <c r="A17" s="239"/>
+      <c r="B17" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="99">
         <v>4</v>
       </c>
-      <c r="D17" s="248"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="112" t="s">
+      <c r="D17" s="241"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="109">
         <v>1</v>
       </c>
-      <c r="H17" s="253"/>
+      <c r="H17" s="246"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="246"/>
-      <c r="B18" s="100" t="s">
+      <c r="A18" s="239"/>
+      <c r="B18" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="99">
         <v>1</v>
       </c>
-      <c r="D18" s="248"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="112" t="s">
+      <c r="D18" s="241"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="113">
+      <c r="G18" s="109">
         <v>6</v>
       </c>
-      <c r="H18" s="253"/>
+      <c r="H18" s="246"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
-      <c r="A19" s="246"/>
-      <c r="B19" s="100" t="s">
+      <c r="A19" s="239"/>
+      <c r="B19" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="99">
         <v>1</v>
       </c>
-      <c r="D19" s="248"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="112" t="s">
+      <c r="D19" s="241"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="113">
+      <c r="G19" s="109">
         <v>1</v>
       </c>
-      <c r="H19" s="253"/>
+      <c r="H19" s="246"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1">
-      <c r="A20" s="246"/>
-      <c r="B20" s="100" t="s">
+      <c r="A20" s="239"/>
+      <c r="B20" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="99">
         <v>1</v>
       </c>
-      <c r="D20" s="248"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="114" t="s">
+      <c r="D20" s="241"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="109">
         <v>1</v>
       </c>
-      <c r="H20" s="253"/>
+      <c r="H20" s="246"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="246"/>
-      <c r="B21" s="102" t="s">
+      <c r="A21" s="239"/>
+      <c r="B21" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="99">
         <v>1</v>
       </c>
-      <c r="D21" s="248"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="253"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="246"/>
     </row>
     <row r="22" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A22" s="246"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="253"/>
+      <c r="A22" s="239"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="246"/>
     </row>
     <row r="23" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A23" s="246"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="253"/>
+      <c r="A23" s="239"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="246"/>
     </row>
     <row r="24" spans="1:8" ht="18" hidden="1" customHeight="1" thickBot="1">
-      <c r="A24" s="247"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="254"/>
+      <c r="A24" s="240"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="247"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="238" t="s">
+      <c r="A25" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="97">
         <v>1</v>
       </c>
-      <c r="D25" s="231">
+      <c r="D25" s="228">
         <f>SUM(C25:C34)</f>
         <v>11</v>
       </c>
-      <c r="E25" s="241" t="s">
+      <c r="E25" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="111">
+      <c r="G25" s="108">
         <v>3</v>
       </c>
-      <c r="H25" s="228">
+      <c r="H25" s="225">
         <f>SUM(G25:G34)</f>
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="244"/>
-      <c r="B26" s="100" t="s">
+      <c r="A26" s="237"/>
+      <c r="B26" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="99">
         <v>3</v>
       </c>
-      <c r="D26" s="232"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="112" t="s">
+      <c r="D26" s="229"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="109">
         <v>2</v>
       </c>
-      <c r="H26" s="229"/>
+      <c r="H26" s="226"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
-      <c r="A27" s="244"/>
-      <c r="B27" s="100" t="s">
+      <c r="A27" s="237"/>
+      <c r="B27" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="99">
         <v>1</v>
       </c>
-      <c r="D27" s="232"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="112" t="s">
+      <c r="D27" s="229"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="109">
         <v>2</v>
       </c>
-      <c r="H27" s="229"/>
+      <c r="H27" s="226"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1">
-      <c r="A28" s="244"/>
-      <c r="B28" s="100" t="s">
+      <c r="A28" s="237"/>
+      <c r="B28" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="99">
         <v>1</v>
       </c>
-      <c r="D28" s="232"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="112" t="s">
+      <c r="D28" s="229"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="109">
         <v>1</v>
       </c>
-      <c r="H28" s="229"/>
+      <c r="H28" s="226"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1">
-      <c r="A29" s="244"/>
-      <c r="B29" s="100" t="s">
+      <c r="A29" s="237"/>
+      <c r="B29" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="99">
         <v>1</v>
       </c>
-      <c r="D29" s="232"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="112" t="s">
+      <c r="D29" s="229"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="109">
         <v>1</v>
       </c>
-      <c r="H29" s="229"/>
+      <c r="H29" s="226"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
-      <c r="A30" s="244"/>
-      <c r="B30" s="100" t="s">
+      <c r="A30" s="237"/>
+      <c r="B30" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="101">
+      <c r="C30" s="99">
         <v>1</v>
       </c>
-      <c r="D30" s="232"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="112" t="s">
+      <c r="D30" s="229"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="109">
         <v>1</v>
       </c>
-      <c r="H30" s="229"/>
+      <c r="H30" s="226"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="244"/>
-      <c r="B31" s="100" t="s">
+      <c r="A31" s="237"/>
+      <c r="B31" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="101">
+      <c r="C31" s="99">
         <v>1</v>
       </c>
-      <c r="D31" s="232"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="112" t="s">
+      <c r="D31" s="229"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="113">
+      <c r="G31" s="109">
         <v>1</v>
       </c>
-      <c r="H31" s="229"/>
+      <c r="H31" s="226"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="244"/>
-      <c r="B32" s="100" t="s">
+      <c r="A32" s="237"/>
+      <c r="B32" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="99">
         <v>1</v>
       </c>
-      <c r="D32" s="232"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="114" t="s">
+      <c r="D32" s="229"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="109">
         <v>1</v>
       </c>
-      <c r="H32" s="229"/>
+      <c r="H32" s="226"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A33" s="245"/>
-      <c r="B33" s="100" t="s">
+      <c r="A33" s="238"/>
+      <c r="B33" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="99">
         <v>1</v>
       </c>
-      <c r="D33" s="232"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="229"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="226"/>
     </row>
     <row r="34" spans="1:8" ht="18" hidden="1" customHeight="1" thickBot="1">
-      <c r="A34" s="240"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="233"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="230"/>
+      <c r="A34" s="233"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="236"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="227"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="238" t="s">
+      <c r="A35" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C35" s="97">
         <v>13</v>
       </c>
-      <c r="D35" s="231">
+      <c r="D35" s="228">
         <f>SUM(C35:C44)</f>
         <v>13</v>
       </c>
-      <c r="E35" s="241" t="s">
+      <c r="E35" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="110" t="s">
+      <c r="F35" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="111">
+      <c r="G35" s="108">
         <v>2</v>
       </c>
-      <c r="H35" s="228">
+      <c r="H35" s="225">
         <f>SUM(G35:G44)</f>
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="239"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="112" t="s">
+      <c r="A36" s="232"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="113">
+      <c r="G36" s="109">
         <v>1</v>
       </c>
-      <c r="H36" s="229"/>
+      <c r="H36" s="226"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1">
-      <c r="A37" s="239"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="112" t="s">
+      <c r="A37" s="232"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="113">
+      <c r="G37" s="109">
         <v>1</v>
       </c>
-      <c r="H37" s="229"/>
+      <c r="H37" s="226"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1">
-      <c r="A38" s="239"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="112" t="s">
+      <c r="A38" s="232"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="113">
+      <c r="G38" s="109">
         <v>6</v>
       </c>
-      <c r="H38" s="229"/>
+      <c r="H38" s="226"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1">
-      <c r="A39" s="239"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="232"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="112" t="s">
+      <c r="A39" s="232"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="113">
+      <c r="G39" s="109">
         <v>1</v>
       </c>
-      <c r="H39" s="229"/>
+      <c r="H39" s="226"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1">
-      <c r="A40" s="239"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="232"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="114" t="s">
+      <c r="A40" s="232"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="113">
+      <c r="G40" s="109">
         <v>1</v>
       </c>
-      <c r="H40" s="229"/>
+      <c r="H40" s="226"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="239"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="242"/>
-      <c r="F41" s="114" t="s">
+      <c r="A41" s="232"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="113">
+      <c r="G41" s="109">
         <v>1</v>
       </c>
-      <c r="H41" s="229"/>
+      <c r="H41" s="226"/>
     </row>
     <row r="42" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A42" s="239"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="229"/>
+      <c r="A42" s="232"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="226"/>
     </row>
     <row r="43" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A43" s="239"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="229"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="229"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="226"/>
     </row>
     <row r="44" spans="1:8" ht="18" hidden="1" customHeight="1" thickBot="1">
-      <c r="A44" s="240"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="230"/>
+      <c r="A44" s="233"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="230"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="227"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A45" s="234" t="s">
+      <c r="A45" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="99">
+      <c r="C45" s="97">
         <v>11</v>
       </c>
-      <c r="D45" s="231">
+      <c r="D45" s="228">
         <f>SUM(C45:C54)</f>
         <v>11</v>
       </c>
-      <c r="E45" s="241" t="s">
+      <c r="E45" s="234" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="110" t="s">
+      <c r="F45" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="111">
+      <c r="G45" s="108">
         <v>11</v>
       </c>
-      <c r="H45" s="228">
+      <c r="H45" s="225">
         <f>SUM(G45:G53)</f>
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A46" s="235"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="229"/>
+      <c r="A46" s="232"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="226"/>
     </row>
     <row r="47" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A47" s="235"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="242"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="229"/>
+      <c r="A47" s="232"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="229"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="226"/>
     </row>
     <row r="48" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A48" s="235"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="242"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="229"/>
+      <c r="A48" s="232"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="229"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="226"/>
     </row>
     <row r="49" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A49" s="235"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="232"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="229"/>
+      <c r="A49" s="232"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="226"/>
     </row>
     <row r="50" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A50" s="235"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="242"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="229"/>
+      <c r="A50" s="232"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="229"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="226"/>
     </row>
     <row r="51" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A51" s="235"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="229"/>
+      <c r="A51" s="232"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="229"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="226"/>
     </row>
     <row r="52" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A52" s="235"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="242"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="229"/>
+      <c r="A52" s="232"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="226"/>
     </row>
     <row r="53" spans="1:8" ht="18" hidden="1" customHeight="1">
-      <c r="A53" s="235"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="229"/>
+      <c r="A53" s="232"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="229"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="226"/>
     </row>
     <row r="54" spans="1:8" ht="18" hidden="1" customHeight="1" thickBot="1">
-      <c r="A54" s="236"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="260"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="259"/>
+      <c r="A54" s="233"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="230"/>
+      <c r="E54" s="236"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="252"/>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1">
-      <c r="A55" s="238" t="s">
+      <c r="A55" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="99">
+      <c r="C55" s="97">
         <v>1</v>
       </c>
-      <c r="D55" s="231">
+      <c r="D55" s="228">
         <f>SUM(C55:C65)</f>
         <v>11</v>
       </c>
-      <c r="E55" s="241" t="s">
+      <c r="E55" s="234" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="110" t="s">
+      <c r="F55" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="111">
+      <c r="G55" s="108">
         <v>3</v>
       </c>
-      <c r="H55" s="228">
+      <c r="H55" s="225">
         <f>SUM(G55:G65)</f>
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1">
-      <c r="A56" s="239"/>
-      <c r="B56" s="100" t="s">
+      <c r="A56" s="232"/>
+      <c r="B56" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="101">
+      <c r="C56" s="99">
         <v>1</v>
       </c>
-      <c r="D56" s="232"/>
-      <c r="E56" s="242"/>
-      <c r="F56" s="112" t="s">
+      <c r="D56" s="229"/>
+      <c r="E56" s="235"/>
+      <c r="F56" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="113">
+      <c r="G56" s="109">
         <v>1</v>
       </c>
-      <c r="H56" s="229"/>
+      <c r="H56" s="226"/>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1">
-      <c r="A57" s="239"/>
-      <c r="B57" s="100" t="s">
+      <c r="A57" s="232"/>
+      <c r="B57" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="101">
+      <c r="C57" s="99">
         <v>1</v>
       </c>
-      <c r="D57" s="232"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="112" t="s">
+      <c r="D57" s="229"/>
+      <c r="E57" s="235"/>
+      <c r="F57" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G57" s="113">
+      <c r="G57" s="109">
         <v>1</v>
       </c>
-      <c r="H57" s="229"/>
+      <c r="H57" s="226"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1">
-      <c r="A58" s="239"/>
-      <c r="B58" s="100" t="s">
+      <c r="A58" s="232"/>
+      <c r="B58" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="101">
+      <c r="C58" s="99">
         <v>2</v>
       </c>
-      <c r="D58" s="232"/>
-      <c r="E58" s="242"/>
-      <c r="F58" s="112" t="s">
+      <c r="D58" s="229"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="113">
+      <c r="G58" s="109">
         <v>1</v>
       </c>
-      <c r="H58" s="229"/>
+      <c r="H58" s="226"/>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1">
-      <c r="A59" s="239"/>
-      <c r="B59" s="100" t="s">
+      <c r="A59" s="232"/>
+      <c r="B59" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="101">
+      <c r="C59" s="99">
         <v>1</v>
       </c>
-      <c r="D59" s="232"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="112" t="s">
+      <c r="D59" s="229"/>
+      <c r="E59" s="235"/>
+      <c r="F59" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="113">
+      <c r="G59" s="109">
         <v>1</v>
       </c>
-      <c r="H59" s="229"/>
+      <c r="H59" s="226"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1">
-      <c r="A60" s="239"/>
-      <c r="B60" s="100" t="s">
+      <c r="A60" s="232"/>
+      <c r="B60" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="101">
+      <c r="C60" s="99">
         <v>1</v>
       </c>
-      <c r="D60" s="232"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="112" t="s">
+      <c r="D60" s="229"/>
+      <c r="E60" s="235"/>
+      <c r="F60" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="G60" s="113">
+      <c r="G60" s="109">
         <v>3</v>
       </c>
-      <c r="H60" s="229"/>
+      <c r="H60" s="226"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1">
-      <c r="A61" s="239"/>
-      <c r="B61" s="100" t="s">
+      <c r="A61" s="232"/>
+      <c r="B61" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="101">
+      <c r="C61" s="99">
         <v>1</v>
       </c>
-      <c r="D61" s="232"/>
-      <c r="E61" s="242"/>
-      <c r="F61" s="112" t="s">
+      <c r="D61" s="229"/>
+      <c r="E61" s="235"/>
+      <c r="F61" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="113">
+      <c r="G61" s="109">
         <v>1</v>
       </c>
-      <c r="H61" s="229"/>
+      <c r="H61" s="226"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
-      <c r="A62" s="239"/>
-      <c r="B62" s="100" t="s">
+      <c r="A62" s="232"/>
+      <c r="B62" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="101">
+      <c r="C62" s="99">
         <v>1</v>
       </c>
-      <c r="D62" s="232"/>
-      <c r="E62" s="242"/>
-      <c r="F62" s="114" t="s">
+      <c r="D62" s="229"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="113">
+      <c r="G62" s="109">
         <v>1</v>
       </c>
-      <c r="H62" s="229"/>
+      <c r="H62" s="226"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
-      <c r="A63" s="239"/>
-      <c r="B63" s="102" t="s">
+      <c r="A63" s="232"/>
+      <c r="B63" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="101">
+      <c r="C63" s="99">
         <v>1</v>
       </c>
-      <c r="D63" s="232"/>
-      <c r="E63" s="242"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="229"/>
+      <c r="D63" s="229"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="226"/>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A64" s="239"/>
-      <c r="B64" s="102" t="s">
+      <c r="A64" s="232"/>
+      <c r="B64" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="101">
+      <c r="C64" s="99">
         <v>1</v>
       </c>
-      <c r="D64" s="232"/>
-      <c r="E64" s="242"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="229"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="226"/>
     </row>
     <row r="65" spans="1:16" ht="18" hidden="1" customHeight="1" thickBot="1">
-      <c r="A65" s="240"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="233"/>
-      <c r="E65" s="243"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="230"/>
+      <c r="A65" s="233"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="236"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="227"/>
     </row>
     <row r="66" spans="1:16" ht="18" customHeight="1">
-      <c r="A66" s="238" t="s">
+      <c r="A66" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="99">
+      <c r="C66" s="97">
         <v>4</v>
       </c>
-      <c r="D66" s="231">
+      <c r="D66" s="228">
         <f>SUM(C66:C75)</f>
         <v>13</v>
       </c>
-      <c r="E66" s="241" t="s">
+      <c r="E66" s="234" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="110" t="s">
+      <c r="F66" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="G66" s="111">
+      <c r="G66" s="108">
         <v>1</v>
       </c>
-      <c r="H66" s="228">
+      <c r="H66" s="225">
         <f>SUM(G66:G75)</f>
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="18" customHeight="1">
-      <c r="A67" s="239"/>
-      <c r="B67" s="100" t="s">
+      <c r="A67" s="232"/>
+      <c r="B67" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="101">
+      <c r="C67" s="99">
         <v>5</v>
       </c>
-      <c r="D67" s="232"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="112" t="s">
+      <c r="D67" s="229"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="113">
+      <c r="G67" s="109">
         <v>1</v>
       </c>
-      <c r="H67" s="229"/>
+      <c r="H67" s="226"/>
     </row>
     <row r="68" spans="1:16" ht="18" customHeight="1">
-      <c r="A68" s="239"/>
-      <c r="B68" s="100" t="s">
+      <c r="A68" s="232"/>
+      <c r="B68" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="101">
+      <c r="C68" s="99">
         <v>1</v>
       </c>
-      <c r="D68" s="232"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="112" t="s">
+      <c r="D68" s="229"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="113">
+      <c r="G68" s="109">
         <v>2</v>
       </c>
-      <c r="H68" s="229"/>
+      <c r="H68" s="226"/>
     </row>
     <row r="69" spans="1:16" ht="18" customHeight="1">
-      <c r="A69" s="239"/>
-      <c r="B69" s="100" t="s">
+      <c r="A69" s="232"/>
+      <c r="B69" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="101">
+      <c r="C69" s="99">
         <v>1</v>
       </c>
-      <c r="D69" s="232"/>
-      <c r="E69" s="242"/>
-      <c r="F69" s="112" t="s">
+      <c r="D69" s="229"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="113">
+      <c r="G69" s="109">
         <v>1</v>
       </c>
-      <c r="H69" s="229"/>
+      <c r="H69" s="226"/>
     </row>
     <row r="70" spans="1:16" ht="18" customHeight="1">
-      <c r="A70" s="239"/>
-      <c r="B70" s="102" t="s">
+      <c r="A70" s="232"/>
+      <c r="B70" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="101">
+      <c r="C70" s="99">
         <v>1</v>
       </c>
-      <c r="D70" s="232"/>
-      <c r="E70" s="242"/>
-      <c r="F70" s="112" t="s">
+      <c r="D70" s="229"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="G70" s="113">
+      <c r="G70" s="109">
         <v>1</v>
       </c>
-      <c r="H70" s="229"/>
+      <c r="H70" s="226"/>
     </row>
     <row r="71" spans="1:16" ht="18" customHeight="1">
-      <c r="A71" s="239"/>
-      <c r="B71" s="102" t="s">
+      <c r="A71" s="232"/>
+      <c r="B71" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="101">
+      <c r="C71" s="99">
         <v>1</v>
       </c>
-      <c r="D71" s="232"/>
-      <c r="E71" s="242"/>
-      <c r="F71" s="112" t="s">
+      <c r="D71" s="229"/>
+      <c r="E71" s="235"/>
+      <c r="F71" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="113">
+      <c r="G71" s="109">
         <v>1</v>
       </c>
-      <c r="H71" s="229"/>
+      <c r="H71" s="226"/>
     </row>
     <row r="72" spans="1:16" ht="18" customHeight="1">
-      <c r="A72" s="239"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="101"/>
-      <c r="D72" s="232"/>
-      <c r="E72" s="242"/>
-      <c r="F72" s="112" t="s">
+      <c r="A72" s="232"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="229"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="113">
+      <c r="G72" s="109">
         <v>2</v>
       </c>
-      <c r="H72" s="229"/>
-    </row>
-    <row r="73" spans="1:16" ht="18" customHeight="1">
-      <c r="A73" s="239"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="232"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="112" t="s">
+      <c r="H72" s="226"/>
+    </row>
+    <row r="73" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A73" s="232"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="229"/>
+      <c r="E73" s="235"/>
+      <c r="F73" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="G73" s="113">
+      <c r="G73" s="109">
         <v>2</v>
       </c>
-      <c r="H73" s="229"/>
+      <c r="H73" s="226"/>
     </row>
     <row r="74" spans="1:16" ht="18" hidden="1" customHeight="1">
-      <c r="A74" s="239"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="232"/>
-      <c r="E74" s="242"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="229"/>
+      <c r="A74" s="232"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="229"/>
+      <c r="E74" s="235"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="226"/>
     </row>
     <row r="75" spans="1:16" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A75" s="240"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="233"/>
-      <c r="E75" s="243"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="116"/>
-      <c r="H75" s="230"/>
+      <c r="A75" s="233"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="236"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="227"/>
     </row>
     <row r="76" spans="1:16" ht="16" customHeight="1">
-      <c r="A76" s="221" t="s">
+      <c r="A76" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="223" t="s">
+      <c r="B76" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="223"/>
-      <c r="D76" s="223"/>
-      <c r="E76" s="223"/>
-      <c r="F76" s="223"/>
-      <c r="G76" s="223"/>
-      <c r="H76" s="224"/>
+      <c r="C76" s="217"/>
+      <c r="D76" s="217"/>
+      <c r="E76" s="217"/>
+      <c r="F76" s="217"/>
+      <c r="G76" s="218"/>
+      <c r="H76" s="111"/>
     </row>
     <row r="77" spans="1:16" ht="16" customHeight="1" thickBot="1">
-      <c r="A77" s="222"/>
-      <c r="B77" s="225"/>
-      <c r="C77" s="225"/>
-      <c r="D77" s="225"/>
-      <c r="E77" s="225"/>
-      <c r="F77" s="225"/>
-      <c r="G77" s="225"/>
-      <c r="H77" s="226"/>
+      <c r="A77" s="223"/>
+      <c r="B77" s="219"/>
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="220"/>
+      <c r="F77" s="220"/>
+      <c r="G77" s="221"/>
+      <c r="H77" s="112"/>
     </row>
     <row r="78" spans="1:16">
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:16">
       <c r="E79" s="14"/>
-      <c r="O79" s="227"/>
-      <c r="P79" s="227"/>
+      <c r="O79" s="224"/>
+      <c r="P79" s="224"/>
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="14"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="O91" s="227"/>
-      <c r="P91" s="227"/>
+      <c r="O91" s="224"/>
+      <c r="P91" s="224"/>
     </row>
     <row r="106" spans="12:12">
       <c r="L106" s="1" t="s">
@@ -12137,8 +12159,8 @@
     <mergeCell ref="D15:D24"/>
     <mergeCell ref="E15:E24"/>
     <mergeCell ref="H15:H24"/>
+    <mergeCell ref="B76:G77"/>
     <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:H77"/>
     <mergeCell ref="O79:P79"/>
     <mergeCell ref="O91:P91"/>
     <mergeCell ref="H25:H34"/>
@@ -12173,7 +12195,7 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="221" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -12187,155 +12209,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="255"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="255"/>
-      <c r="W1" s="255"/>
-      <c r="X1" s="255"/>
-      <c r="Y1" s="255"/>
-      <c r="Z1" s="255"/>
-      <c r="AA1" s="255"/>
-      <c r="AB1" s="255"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
     </row>
     <row r="2" spans="1:30" ht="20">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="249" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="256"/>
-      <c r="AB2" s="256"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="249"/>
     </row>
     <row r="3" spans="1:30" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:30" ht="18" customHeight="1" thickBot="1">
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="271" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="280"/>
-      <c r="E4" s="281" t="s">
+      <c r="D4" s="272"/>
+      <c r="E4" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="282" t="s">
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="283" t="s">
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="284"/>
+      <c r="T4" s="275"/>
+      <c r="U4" s="275"/>
+      <c r="V4" s="275"/>
+      <c r="W4" s="275"/>
+      <c r="X4" s="275"/>
+      <c r="Y4" s="276"/>
       <c r="AA4" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="18" customHeight="1">
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="286"/>
-      <c r="E5" s="269">
+      <c r="D5" s="278"/>
+      <c r="E5" s="261">
         <f>I5-AD5</f>
         <v>0.59722222222222221</v>
       </c>
-      <c r="F5" s="270"/>
-      <c r="G5" s="271"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="263"/>
       <c r="H5" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="272">
+      <c r="I5" s="264">
         <f>L5-AC5</f>
         <v>0.61805555555555558</v>
       </c>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="269">
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="261">
         <f>P5-AD5</f>
         <v>0.62152777777777779</v>
       </c>
-      <c r="M5" s="270"/>
-      <c r="N5" s="271"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="263"/>
       <c r="O5" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="272">
+      <c r="P5" s="264">
         <f>S5-AC5</f>
         <v>0.64236111111111116</v>
       </c>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="269">
+      <c r="Q5" s="265"/>
+      <c r="R5" s="265"/>
+      <c r="S5" s="261">
         <v>0.64583333333333337</v>
       </c>
-      <c r="T5" s="270"/>
-      <c r="U5" s="271"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="263"/>
       <c r="V5" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="272">
+      <c r="W5" s="264">
         <f>S5+$AA$4</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="274"/>
+      <c r="X5" s="265"/>
+      <c r="Y5" s="266"/>
       <c r="AA5" s="15">
         <v>3.472222222222222E-3</v>
       </c>
@@ -12347,328 +12369,328 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1">
-      <c r="C6" s="287" t="s">
+      <c r="C6" s="279" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="288"/>
-      <c r="E6" s="275">
+      <c r="D6" s="280"/>
+      <c r="E6" s="267">
         <f>I5</f>
         <v>0.61805555555555558</v>
       </c>
-      <c r="F6" s="276"/>
-      <c r="G6" s="277"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="261">
+      <c r="I6" s="253">
         <f t="shared" ref="I6:I11" si="0">E6+$AA$4</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="275">
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="267">
         <f>P5</f>
         <v>0.64236111111111116</v>
       </c>
-      <c r="M6" s="276"/>
-      <c r="N6" s="277"/>
+      <c r="M6" s="268"/>
+      <c r="N6" s="269"/>
       <c r="O6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="261">
+      <c r="P6" s="253">
         <f>L6+$AA$4</f>
         <v>0.66319444444444453</v>
       </c>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="275">
+      <c r="Q6" s="254"/>
+      <c r="R6" s="254"/>
+      <c r="S6" s="267">
         <f t="shared" ref="S6:S11" si="1">P6+$AA$5</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="T6" s="276"/>
-      <c r="U6" s="277"/>
+      <c r="T6" s="268"/>
+      <c r="U6" s="269"/>
       <c r="V6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="261">
+      <c r="W6" s="253">
         <f t="shared" ref="W6:W11" si="2">S6+$AA$4</f>
         <v>0.68750000000000011</v>
       </c>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="278"/>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="258"/>
-      <c r="AC6" s="258"/>
+      <c r="X6" s="254"/>
+      <c r="Y6" s="270"/>
+      <c r="AA6" s="251"/>
+      <c r="AB6" s="251"/>
+      <c r="AC6" s="251"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1">
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="288"/>
-      <c r="E7" s="275">
+      <c r="D7" s="280"/>
+      <c r="E7" s="267">
         <f t="shared" ref="E7:E11" si="3">I6</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="F7" s="276"/>
-      <c r="G7" s="277"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="269"/>
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="261">
+      <c r="I7" s="253">
         <f t="shared" si="0"/>
         <v>0.65972222222222232</v>
       </c>
-      <c r="J7" s="262"/>
-      <c r="K7" s="262"/>
-      <c r="L7" s="275">
+      <c r="J7" s="254"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="267">
         <f t="shared" ref="L7" si="4">P6</f>
         <v>0.66319444444444453</v>
       </c>
-      <c r="M7" s="276"/>
-      <c r="N7" s="277"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="269"/>
       <c r="O7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="261">
+      <c r="P7" s="253">
         <f>L7+$AA$4</f>
         <v>0.6840277777777779</v>
       </c>
-      <c r="Q7" s="262"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="275">
+      <c r="Q7" s="254"/>
+      <c r="R7" s="254"/>
+      <c r="S7" s="267">
         <f t="shared" si="1"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="T7" s="276"/>
-      <c r="U7" s="277"/>
+      <c r="T7" s="268"/>
+      <c r="U7" s="269"/>
       <c r="V7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="261">
+      <c r="W7" s="253">
         <f t="shared" si="2"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="X7" s="262"/>
-      <c r="Y7" s="278"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="258"/>
-      <c r="AC7" s="258"/>
+      <c r="X7" s="254"/>
+      <c r="Y7" s="270"/>
+      <c r="AA7" s="251"/>
+      <c r="AB7" s="251"/>
+      <c r="AC7" s="251"/>
     </row>
     <row r="8" spans="1:30" ht="18" customHeight="1">
-      <c r="C8" s="287" t="s">
+      <c r="C8" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="275">
+      <c r="D8" s="280"/>
+      <c r="E8" s="267">
         <f t="shared" si="3"/>
         <v>0.65972222222222232</v>
       </c>
-      <c r="F8" s="276"/>
-      <c r="G8" s="277"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="269"/>
       <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="261">
+      <c r="I8" s="253">
         <f t="shared" si="0"/>
         <v>0.68055555555555569</v>
       </c>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="275">
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="267">
         <f t="shared" ref="L8:L11" si="5">P7</f>
         <v>0.6840277777777779</v>
       </c>
-      <c r="M8" s="276"/>
-      <c r="N8" s="277"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="269"/>
       <c r="O8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="253">
         <f t="shared" ref="P8:P11" si="6">L8+$AA$4</f>
         <v>0.70486111111111127</v>
       </c>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="275">
+      <c r="Q8" s="254"/>
+      <c r="R8" s="254"/>
+      <c r="S8" s="267">
         <f t="shared" si="1"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="T8" s="276"/>
-      <c r="U8" s="277"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="269"/>
       <c r="V8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="261">
+      <c r="W8" s="253">
         <f t="shared" si="2"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="278"/>
-      <c r="AA8" s="258"/>
-      <c r="AB8" s="258"/>
-      <c r="AC8" s="258"/>
+      <c r="X8" s="254"/>
+      <c r="Y8" s="270"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1">
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="288"/>
-      <c r="E9" s="275">
+      <c r="D9" s="280"/>
+      <c r="E9" s="267">
         <f t="shared" si="3"/>
         <v>0.68055555555555569</v>
       </c>
-      <c r="F9" s="276"/>
-      <c r="G9" s="277"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="269"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="261">
+      <c r="I9" s="253">
         <f t="shared" si="0"/>
         <v>0.70138888888888906</v>
       </c>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
-      <c r="L9" s="275">
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="267">
         <f t="shared" si="5"/>
         <v>0.70486111111111127</v>
       </c>
-      <c r="M9" s="276"/>
-      <c r="N9" s="277"/>
+      <c r="M9" s="268"/>
+      <c r="N9" s="269"/>
       <c r="O9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="261">
+      <c r="P9" s="253">
         <f t="shared" si="6"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="Q9" s="262"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="275">
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="267">
         <f t="shared" si="1"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="T9" s="276"/>
-      <c r="U9" s="277"/>
+      <c r="T9" s="268"/>
+      <c r="U9" s="269"/>
       <c r="V9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W9" s="261">
+      <c r="W9" s="253">
         <f t="shared" si="2"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="X9" s="262"/>
-      <c r="Y9" s="278"/>
-      <c r="AA9" s="258"/>
-      <c r="AB9" s="258"/>
-      <c r="AC9" s="258"/>
+      <c r="X9" s="254"/>
+      <c r="Y9" s="270"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="251"/>
     </row>
     <row r="10" spans="1:30" ht="18" customHeight="1">
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="288"/>
-      <c r="E10" s="275">
+      <c r="D10" s="280"/>
+      <c r="E10" s="267">
         <f t="shared" si="3"/>
         <v>0.70138888888888906</v>
       </c>
-      <c r="F10" s="276"/>
-      <c r="G10" s="277"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
       <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="261">
+      <c r="I10" s="253">
         <f t="shared" si="0"/>
         <v>0.72222222222222243</v>
       </c>
-      <c r="J10" s="262"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="275">
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="267">
         <f t="shared" si="5"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="M10" s="276"/>
-      <c r="N10" s="277"/>
+      <c r="M10" s="268"/>
+      <c r="N10" s="269"/>
       <c r="O10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="261">
+      <c r="P10" s="253">
         <f t="shared" si="6"/>
         <v>0.74652777777777801</v>
       </c>
-      <c r="Q10" s="262"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="275">
+      <c r="Q10" s="254"/>
+      <c r="R10" s="254"/>
+      <c r="S10" s="267">
         <f t="shared" si="1"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="T10" s="276"/>
-      <c r="U10" s="277"/>
+      <c r="T10" s="268"/>
+      <c r="U10" s="269"/>
       <c r="V10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="261">
+      <c r="W10" s="253">
         <f t="shared" si="2"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="X10" s="262"/>
-      <c r="Y10" s="278"/>
-      <c r="AA10" s="258"/>
-      <c r="AB10" s="258"/>
-      <c r="AC10" s="258"/>
+      <c r="X10" s="254"/>
+      <c r="Y10" s="270"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="251"/>
     </row>
     <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1">
-      <c r="C11" s="222" t="s">
+      <c r="C11" s="281" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="289"/>
-      <c r="E11" s="263">
+      <c r="D11" s="282"/>
+      <c r="E11" s="255">
         <f t="shared" si="3"/>
         <v>0.72222222222222243</v>
       </c>
-      <c r="F11" s="264"/>
-      <c r="G11" s="265"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="257"/>
       <c r="H11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="266">
+      <c r="I11" s="258">
         <f t="shared" si="0"/>
         <v>0.7430555555555558</v>
       </c>
-      <c r="J11" s="267"/>
-      <c r="K11" s="267"/>
-      <c r="L11" s="263">
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="255">
         <f t="shared" si="5"/>
         <v>0.74652777777777801</v>
       </c>
-      <c r="M11" s="264"/>
-      <c r="N11" s="265"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="257"/>
       <c r="O11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="266">
+      <c r="P11" s="258">
         <f t="shared" si="6"/>
         <v>0.76736111111111138</v>
       </c>
-      <c r="Q11" s="267"/>
-      <c r="R11" s="267"/>
-      <c r="S11" s="263">
+      <c r="Q11" s="259"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="255">
         <f t="shared" si="1"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="T11" s="264"/>
-      <c r="U11" s="265"/>
+      <c r="T11" s="256"/>
+      <c r="U11" s="257"/>
       <c r="V11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="W11" s="266">
+      <c r="W11" s="258">
         <f t="shared" si="2"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="X11" s="267"/>
-      <c r="Y11" s="268"/>
-      <c r="AA11" s="258"/>
-      <c r="AB11" s="258"/>
-      <c r="AC11" s="258"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="260"/>
+      <c r="AA11" s="251"/>
+      <c r="AB11" s="251"/>
+      <c r="AC11" s="251"/>
     </row>
     <row r="14" spans="1:30">
       <c r="I14" s="2"/>
@@ -13044,16 +13066,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5395B1C6-639E-4746-9DA4-7862D592BD64}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1b7a6422-acb0-42a5-b83e-dbe86ecd454b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="952e7e5e-963e-4d92-84b7-491b93135911"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>